--- a/specs/dbVarSubmissionTemplate_v3.5.xlsx
+++ b/specs/dbVarSubmissionTemplate_v3.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theffero/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB775F2D-D8C9-B24B-93AA-BEB6200A8792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE618A9-0347-3F43-B17D-AAFA26D3F662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="34140" windowHeight="27020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="25600" windowHeight="27040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -5372,9 +5372,6 @@
     <t>v3.5 November 2019</t>
   </si>
   <si>
-    <t>(v3.5.111919)</t>
-  </si>
-  <si>
     <t>This tab lists common databases you may wish to reference in your submission. A sample entry in the required format is provided for each. If you don't find a particular database in the list, please contact dbvar@ncbi.nlm.nih.gov.</t>
   </si>
   <si>
@@ -5393,9 +5390,6 @@
     <t>JGA</t>
   </si>
   <si>
-    <t>GEA:GEAD-307</t>
-  </si>
-  <si>
     <t>JGA:JGAS000095</t>
   </si>
   <si>
@@ -5403,15 +5397,28 @@
   </si>
   <si>
     <t>https://www.ddbj.nig.ac.jp/jga/index-e.html</t>
+  </si>
+  <si>
+    <t>(v3.5.112019)</t>
+  </si>
+  <si>
+    <t>GEA:E-GEAD-307</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="64" x14ac:knownFonts="1">
+  <fonts count="65" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6829,464 +6836,464 @@
   </borders>
   <cellStyleXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="320">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -7299,57 +7306,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7361,91 +7368,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="15" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7454,88 +7461,88 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="13" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7547,92 +7554,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7641,114 +7648,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7765,278 +7772,278 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="408" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="408" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="409">
@@ -9668,7 +9675,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC72" sqref="AC72"/>
+      <selection activeCell="AT66" sqref="AT66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -9678,10 +9685,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="253" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="240"/>
+      <c r="B1" s="254"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -9696,34 +9703,34 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="127" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="302" t="s">
+      <c r="A2" s="239" t="s">
         <v>558</v>
       </c>
-      <c r="B2" s="303" t="s">
-        <v>559</v>
+      <c r="B2" s="319" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="244" t="s">
+      <c r="A3" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="245"/>
+      <c r="B3" s="259"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:14" s="9" customFormat="1" ht="74" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="255" t="s">
         <v>532</v>
       </c>
-      <c r="B4" s="242"/>
+      <c r="B4" s="256"/>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="248" t="s">
+      <c r="A5" s="262" t="s">
         <v>353</v>
       </c>
-      <c r="B5" s="249"/>
+      <c r="B5" s="263"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
     </row>
@@ -9752,18 +9759,18 @@
       <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:14" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="250" t="s">
+      <c r="A9" s="264" t="s">
         <v>423</v>
       </c>
-      <c r="B9" s="251"/>
+      <c r="B9" s="265"/>
       <c r="C9" s="93"/>
       <c r="D9" s="93"/>
     </row>
     <row r="10" spans="1:14" s="10" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="243" t="s">
+      <c r="A10" s="257" t="s">
         <v>517</v>
       </c>
-      <c r="B10" s="242"/>
+      <c r="B10" s="256"/>
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
     </row>
@@ -9788,10 +9795,10 @@
       <c r="B13" s="106"/>
     </row>
     <row r="14" spans="1:14" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="246" t="s">
+      <c r="A14" s="260" t="s">
         <v>325</v>
       </c>
-      <c r="B14" s="247"/>
+      <c r="B14" s="261"/>
     </row>
     <row r="15" spans="1:14" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="107" t="s">
@@ -9868,7 +9875,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:B9"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -9893,16 +9900,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="299" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="286"/>
+      <c r="B1" s="300"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="301" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="259"/>
+      <c r="B2" s="273"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="145"/>
@@ -9953,16 +9960,16 @@
       <c r="B9" s="95"/>
     </row>
     <row r="10" spans="1:2" ht="64" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="302" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="289"/>
+      <c r="B10" s="303"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="290" t="s">
+      <c r="A11" s="304" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="291"/>
+      <c r="B11" s="305"/>
     </row>
     <row r="12" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -9993,7 +10000,7 @@
       <c r="A16" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="279" t="s">
+      <c r="B16" s="293" t="s">
         <v>398</v>
       </c>
     </row>
@@ -10001,31 +10008,31 @@
       <c r="A17" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="280"/>
+      <c r="B17" s="294"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="143" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="280"/>
+      <c r="B18" s="294"/>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="280"/>
+      <c r="B19" s="294"/>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="280"/>
+      <c r="B20" s="294"/>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="281"/>
+      <c r="B21" s="295"/>
     </row>
     <row r="22" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A22" s="143" t="s">
@@ -10120,7 +10127,7 @@
       <c r="A35" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="282" t="s">
+      <c r="B35" s="296" t="s">
         <v>510</v>
       </c>
     </row>
@@ -10128,55 +10135,55 @@
       <c r="A36" s="144" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="283"/>
+      <c r="B36" s="297"/>
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B37" s="283"/>
+      <c r="B37" s="297"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="144" t="s">
         <v>435</v>
       </c>
-      <c r="B38" s="283"/>
+      <c r="B38" s="297"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="144" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="283"/>
+      <c r="B39" s="297"/>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="144" t="s">
         <v>436</v>
       </c>
-      <c r="B40" s="283"/>
+      <c r="B40" s="297"/>
     </row>
     <row r="41" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="144" t="s">
         <v>437</v>
       </c>
-      <c r="B41" s="283"/>
+      <c r="B41" s="297"/>
     </row>
     <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="144" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="283"/>
+      <c r="B42" s="297"/>
     </row>
     <row r="43" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="144" t="s">
         <v>438</v>
       </c>
-      <c r="B43" s="283"/>
+      <c r="B43" s="297"/>
     </row>
     <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="144" t="s">
         <v>509</v>
       </c>
-      <c r="B44" s="284"/>
+      <c r="B44" s="298"/>
     </row>
     <row r="45" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -10225,65 +10232,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="288" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
       <c r="M1" s="228"/>
       <c r="N1" s="228"/>
       <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="272" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="259"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="272"/>
+      <c r="M2" s="272"/>
+      <c r="N2" s="272"/>
+      <c r="O2" s="273"/>
     </row>
     <row r="3" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="306" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="275" t="s">
+      <c r="B3" s="307"/>
+      <c r="C3" s="307"/>
+      <c r="D3" s="289" t="s">
         <v>350</v>
       </c>
-      <c r="E3" s="263"/>
-      <c r="F3" s="263"/>
-      <c r="G3" s="263"/>
-      <c r="H3" s="263"/>
-      <c r="I3" s="263"/>
-      <c r="J3" s="263"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="275" t="s">
+      <c r="E3" s="277"/>
+      <c r="F3" s="277"/>
+      <c r="G3" s="277"/>
+      <c r="H3" s="277"/>
+      <c r="I3" s="277"/>
+      <c r="J3" s="277"/>
+      <c r="K3" s="277"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="289" t="s">
         <v>540</v>
       </c>
-      <c r="N3" s="263"/>
-      <c r="O3" s="264"/>
+      <c r="N3" s="277"/>
+      <c r="O3" s="278"/>
     </row>
     <row r="4" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="230" t="s">
@@ -12067,16 +12074,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="299" t="s">
         <v>546</v>
       </c>
-      <c r="B1" s="286"/>
+      <c r="B1" s="300"/>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="294" t="s">
+      <c r="A2" s="308" t="s">
         <v>547</v>
       </c>
-      <c r="B2" s="295"/>
+      <c r="B2" s="309"/>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="233"/>
@@ -12138,7 +12145,7 @@
       <c r="A11" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="296" t="s">
+      <c r="B11" s="310" t="s">
         <v>553</v>
       </c>
     </row>
@@ -12146,31 +12153,31 @@
       <c r="A12" s="235" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="296"/>
+      <c r="B12" s="310"/>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="296"/>
+      <c r="B13" s="310"/>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="296"/>
+      <c r="B14" s="310"/>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="235" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="296"/>
+      <c r="B15" s="310"/>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="235" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="296"/>
+      <c r="B16" s="310"/>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="236"/>
@@ -12201,10 +12208,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="297" t="s">
+      <c r="A22" s="311" t="s">
         <v>557</v>
       </c>
-      <c r="B22" s="298"/>
+      <c r="B22" s="312"/>
     </row>
   </sheetData>
   <sheetProtection password="C4EE" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12227,7 +12234,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AI78" sqref="AI78"/>
+      <selection activeCell="AT64" sqref="AT64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -12241,31 +12248,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="299" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="286"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="300"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" s="307" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="304" t="s">
-        <v>560</v>
-      </c>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="306"/>
+    <row r="2" spans="1:12" s="240" customFormat="1" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="315" t="s">
+        <v>559</v>
+      </c>
+      <c r="B2" s="316"/>
+      <c r="C2" s="316"/>
+      <c r="D2" s="317"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
       <c r="G2" s="103"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D3" s="308"/>
+      <c r="D3" s="241"/>
     </row>
     <row r="4" spans="1:12" s="91" customFormat="1" ht="46" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="88"/>
@@ -12281,15 +12288,15 @@
       <c r="E4" s="158"/>
       <c r="F4" s="158"/>
     </row>
-    <row r="5" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="301" t="s">
+    <row r="5" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="318" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="309" t="str">
-        <f t="shared" ref="B5:B19" si="0">HYPERLINK(E5,F5)</f>
+      <c r="B5" s="242" t="str">
+        <f t="shared" ref="B5:B16" si="0">HYPERLINK(E5,F5)</f>
         <v>ArrayExpress</v>
       </c>
-      <c r="C5" s="310" t="s">
+      <c r="C5" s="243" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="128" t="s">
@@ -12302,13 +12309,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="301"/>
-      <c r="B6" s="311" t="str">
+    <row r="6" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="318"/>
+      <c r="B6" s="244" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genotypes and Phenotypes</v>
       </c>
-      <c r="C6" s="312" t="s">
+      <c r="C6" s="245" t="s">
         <v>149</v>
       </c>
       <c r="D6" s="129" t="s">
@@ -12321,13 +12328,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="301"/>
-      <c r="B7" s="311" t="str">
+    <row r="7" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="318"/>
+      <c r="B7" s="244" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP (Short Genetic Variations)</v>
       </c>
-      <c r="C7" s="312" t="s">
+      <c r="C7" s="245" t="s">
         <v>152</v>
       </c>
       <c r="D7" s="129" t="s">
@@ -12340,13 +12347,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="301"/>
-      <c r="B8" s="311" t="str">
+    <row r="8" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="318"/>
+      <c r="B8" s="244" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP Batch ID</v>
       </c>
-      <c r="C8" s="312" t="s">
+      <c r="C8" s="245" t="s">
         <v>427</v>
       </c>
       <c r="D8" s="129" t="s">
@@ -12359,13 +12366,13 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="301"/>
-      <c r="B9" s="311" t="str">
+    <row r="9" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="318"/>
+      <c r="B9" s="244" t="str">
         <f t="shared" si="0"/>
         <v>DNA Databank of Japan</v>
       </c>
-      <c r="C9" s="312" t="s">
+      <c r="C9" s="245" t="s">
         <v>154</v>
       </c>
       <c r="D9" s="129" t="s">
@@ -12375,16 +12382,16 @@
         <v>155</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="301"/>
-      <c r="B10" s="311" t="str">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="318"/>
+      <c r="B10" s="244" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genomic Variants</v>
       </c>
-      <c r="C10" s="312" t="s">
+      <c r="C10" s="245" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="129" t="s">
@@ -12397,13 +12404,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="301"/>
-      <c r="B11" s="311" t="str">
+    <row r="11" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="318"/>
+      <c r="B11" s="244" t="str">
         <f t="shared" si="0"/>
         <v>European Genome-phenome Archive</v>
       </c>
-      <c r="C11" s="312" t="s">
+      <c r="C11" s="245" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="129" t="s">
@@ -12416,13 +12423,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="301"/>
-      <c r="B12" s="311" t="str">
+    <row r="12" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="318"/>
+      <c r="B12" s="244" t="str">
         <f t="shared" si="0"/>
         <v>European Nucleotide Archive</v>
       </c>
-      <c r="C12" s="312" t="s">
+      <c r="C12" s="245" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="129" t="s">
@@ -12435,13 +12442,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="301"/>
-      <c r="B13" s="311" t="str">
+    <row r="13" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="318"/>
+      <c r="B13" s="244" t="str">
         <f t="shared" si="0"/>
         <v>GenBank</v>
       </c>
-      <c r="C13" s="312" t="s">
+      <c r="C13" s="245" t="s">
         <v>170</v>
       </c>
       <c r="D13" s="129" t="s">
@@ -12454,13 +12461,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="301"/>
-      <c r="B14" s="311" t="str">
+    <row r="14" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="318"/>
+      <c r="B14" s="244" t="str">
         <f t="shared" si="0"/>
         <v>NCBI Gene</v>
       </c>
-      <c r="C14" s="312" t="s">
+      <c r="C14" s="245" t="s">
         <v>173</v>
       </c>
       <c r="D14" s="129" t="s">
@@ -12473,13 +12480,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="301"/>
-      <c r="B15" s="311" t="str">
+    <row r="15" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="318"/>
+      <c r="B15" s="244" t="str">
         <f t="shared" si="0"/>
         <v>Gene Expression Omnibus</v>
       </c>
-      <c r="C15" s="312" t="s">
+      <c r="C15" s="245" t="s">
         <v>176</v>
       </c>
       <c r="D15" s="129" t="s">
@@ -12492,13 +12499,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="301"/>
-      <c r="B16" s="311" t="str">
+    <row r="16" spans="1:12" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="318"/>
+      <c r="B16" s="244" t="str">
         <f t="shared" si="0"/>
         <v>Sequence Read Archive</v>
       </c>
-      <c r="C16" s="312" t="s">
+      <c r="C16" s="245" t="s">
         <v>180</v>
       </c>
       <c r="D16" s="129" t="s">
@@ -12511,13 +12518,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="301"/>
-      <c r="B17" s="311" t="str">
+    <row r="17" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="318"/>
+      <c r="B17" s="244" t="str">
         <f>HYPERLINK(E17,F17)</f>
         <v>Trace Archive</v>
       </c>
-      <c r="C17" s="312" t="s">
+      <c r="C17" s="245" t="s">
         <v>183</v>
       </c>
       <c r="D17" s="129" t="s">
@@ -12530,61 +12537,61 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="301"/>
-      <c r="B18" s="318" t="str">
+    <row r="18" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="318"/>
+      <c r="B18" s="251" t="str">
         <f>HYPERLINK(E18,F18)</f>
         <v>Genomic Expression Archive</v>
       </c>
-      <c r="C18" s="312" t="s">
-        <v>564</v>
+      <c r="C18" s="245" t="s">
+        <v>563</v>
       </c>
       <c r="D18" s="129" t="s">
+        <v>569</v>
+      </c>
+      <c r="E18" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="E18" s="17" t="s">
-        <v>568</v>
-      </c>
       <c r="F18" s="17" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="301"/>
-      <c r="B19" s="313" t="str">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="318"/>
+      <c r="B19" s="246" t="str">
         <f>HYPERLINK(E19,F19)</f>
         <v>Japanese Genotype-phenotype Archive</v>
       </c>
-      <c r="C19" s="314" t="s">
+      <c r="C19" s="247" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" s="130" t="s">
         <v>565</v>
       </c>
-      <c r="D19" s="130" t="s">
+      <c r="E19" s="252" t="s">
         <v>567</v>
       </c>
-      <c r="E19" s="319" t="s">
-        <v>569</v>
-      </c>
-      <c r="F19" s="319" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="307" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="252" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="240" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87"/>
-      <c r="B20" s="315"/>
-      <c r="C20" s="312"/>
+      <c r="B20" s="248"/>
+      <c r="C20" s="245"/>
       <c r="D20" s="86"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="301" t="s">
+    <row r="21" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="318" t="s">
         <v>363</v>
       </c>
-      <c r="B21" s="309" t="str">
+      <c r="B21" s="242" t="str">
         <f t="shared" ref="B21:B26" si="1">HYPERLINK(E21,F21)</f>
         <v>Human Phenotype Ontology</v>
       </c>
-      <c r="C21" s="310" t="s">
+      <c r="C21" s="243" t="s">
         <v>186</v>
       </c>
       <c r="D21" s="128" t="s">
@@ -12597,13 +12604,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="301"/>
-      <c r="B22" s="311" t="str">
+    <row r="22" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="318"/>
+      <c r="B22" s="244" t="str">
         <f t="shared" si="1"/>
         <v>MedGen</v>
       </c>
-      <c r="C22" s="312" t="s">
+      <c r="C22" s="245" t="s">
         <v>189</v>
       </c>
       <c r="D22" s="129" t="s">
@@ -12616,13 +12623,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="301"/>
-      <c r="B23" s="311" t="str">
+    <row r="23" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="318"/>
+      <c r="B23" s="244" t="str">
         <f t="shared" si="1"/>
         <v>Medical Subject Headings</v>
       </c>
-      <c r="C23" s="312" t="s">
+      <c r="C23" s="245" t="s">
         <v>192</v>
       </c>
       <c r="D23" s="129" t="s">
@@ -12635,13 +12642,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="301"/>
-      <c r="B24" s="311" t="str">
+    <row r="24" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="318"/>
+      <c r="B24" s="244" t="str">
         <f t="shared" si="1"/>
         <v>Online Mendelian Inhertiance in Man</v>
       </c>
-      <c r="C24" s="312" t="s">
+      <c r="C24" s="245" t="s">
         <v>195</v>
       </c>
       <c r="D24" s="129" t="s">
@@ -12654,13 +12661,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="301"/>
-      <c r="B25" s="311" t="str">
+    <row r="25" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="318"/>
+      <c r="B25" s="244" t="str">
         <f t="shared" si="1"/>
         <v>Systematized Nomenclature of Medicine</v>
       </c>
-      <c r="C25" s="312" t="s">
+      <c r="C25" s="245" t="s">
         <v>198</v>
       </c>
       <c r="D25" s="129" t="s">
@@ -12673,13 +12680,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="301"/>
-      <c r="B26" s="313" t="str">
+    <row r="26" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="318"/>
+      <c r="B26" s="246" t="str">
         <f t="shared" si="1"/>
         <v>Unified Medical Language System</v>
       </c>
-      <c r="C26" s="314" t="s">
+      <c r="C26" s="247" t="s">
         <v>201</v>
       </c>
       <c r="D26" s="130" t="s">
@@ -12692,23 +12699,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="307" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" s="240" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="87"/>
-      <c r="B27" s="315"/>
-      <c r="C27" s="312"/>
+      <c r="B27" s="248"/>
+      <c r="C27" s="245"/>
       <c r="D27" s="86"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="299" t="s">
+    <row r="28" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="313" t="s">
         <v>364</v>
       </c>
-      <c r="B28" s="309" t="str">
+      <c r="B28" s="242" t="str">
         <f t="shared" ref="B28:B32" si="2">HYPERLINK(E28,F28)</f>
         <v>Coriell Institute</v>
       </c>
-      <c r="C28" s="310" t="s">
+      <c r="C28" s="243" t="s">
         <v>205</v>
       </c>
       <c r="D28" s="128" t="s">
@@ -12721,13 +12728,13 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="299"/>
-      <c r="B29" s="311" t="str">
+    <row r="29" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="313"/>
+      <c r="B29" s="244" t="str">
         <f t="shared" ref="B29" si="3">HYPERLINK(E29,F29)</f>
         <v>BioProject Database</v>
       </c>
-      <c r="C29" s="312" t="s">
+      <c r="C29" s="245" t="s">
         <v>516</v>
       </c>
       <c r="D29" s="129" t="s">
@@ -12740,13 +12747,13 @@
         <v>512</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="299"/>
-      <c r="B30" s="311" t="str">
+    <row r="30" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="313"/>
+      <c r="B30" s="244" t="str">
         <f t="shared" si="2"/>
         <v>BioSample Database</v>
       </c>
-      <c r="C30" s="312" t="s">
+      <c r="C30" s="245" t="s">
         <v>210</v>
       </c>
       <c r="D30" s="129" t="s">
@@ -12759,13 +12766,13 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="299"/>
-      <c r="B31" s="311" t="str">
+    <row r="31" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="313"/>
+      <c r="B31" s="244" t="str">
         <f t="shared" si="2"/>
         <v>PubMed</v>
       </c>
-      <c r="C31" s="312" t="s">
+      <c r="C31" s="245" t="s">
         <v>212</v>
       </c>
       <c r="D31" s="129" t="s">
@@ -12778,13 +12785,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="307" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="299"/>
-      <c r="B32" s="313" t="str">
+    <row r="32" spans="1:6" s="240" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="313"/>
+      <c r="B32" s="246" t="str">
         <f t="shared" si="2"/>
         <v>GeneReviews</v>
       </c>
-      <c r="C32" s="314" t="s">
+      <c r="C32" s="247" t="s">
         <v>214</v>
       </c>
       <c r="D32" s="130" t="s">
@@ -12798,14 +12805,14 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="316"/>
-      <c r="B33" s="317"/>
+      <c r="A33" s="249"/>
+      <c r="B33" s="250"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="316"/>
+      <c r="A34" s="249"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="307"/>
+      <c r="B41" s="240"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="M9kx+0lVWQexCnWL/ed/hZWSBrUhBPwi4xOJtpECsKexvqTeBJynScLGVcyCFijV0S78KptfHYjNKY8IhJAl3A==" saltValue="mWUU7V01sECHiGqL8pXqFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12860,14 +12867,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="299" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
       <c r="I1" s="85"/>
@@ -13885,17 +13892,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="266" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="253"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="267"/>
     </row>
     <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
@@ -14171,18 +14178,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="268" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="254"/>
-      <c r="C1" s="255"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
     </row>
     <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="256" t="s">
+      <c r="A2" s="270" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="256"/>
-      <c r="C2" s="257"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="271"/>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="167" t="s">
@@ -14356,18 +14363,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="266" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="253"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="267"/>
     </row>
     <row r="2" spans="1:3" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="272" t="s">
         <v>524</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="259"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="273"/>
     </row>
     <row r="3" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="102" t="s">
@@ -14621,11 +14628,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="258" t="s">
+      <c r="A34" s="272" t="s">
         <v>528</v>
       </c>
-      <c r="B34" s="258"/>
-      <c r="C34" s="259"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="273"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14679,17 +14686,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="31" x14ac:dyDescent="0.35">
-      <c r="A1" s="252" t="s">
+      <c r="A1" s="266" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
+      <c r="B1" s="266"/>
+      <c r="C1" s="266"/>
+      <c r="D1" s="266"/>
+      <c r="E1" s="266"/>
+      <c r="F1" s="266"/>
+      <c r="G1" s="266"/>
+      <c r="H1" s="266"/>
+      <c r="I1" s="266"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -14701,17 +14708,17 @@
       <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="272" t="s">
         <v>475</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
@@ -14723,30 +14730,30 @@
       <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" s="103" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="277" t="s">
         <v>418</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="260" t="s">
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="274" t="s">
         <v>419</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="262"/>
-      <c r="J3" s="265" t="s">
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="279" t="s">
         <v>420</v>
       </c>
-      <c r="K3" s="265"/>
-      <c r="L3" s="265"/>
-      <c r="M3" s="265"/>
-      <c r="N3" s="265"/>
-      <c r="O3" s="265"/>
-      <c r="P3" s="265"/>
-      <c r="Q3" s="265"/>
-      <c r="R3" s="265"/>
+      <c r="K3" s="279"/>
+      <c r="L3" s="279"/>
+      <c r="M3" s="279"/>
+      <c r="N3" s="279"/>
+      <c r="O3" s="279"/>
+      <c r="P3" s="279"/>
+      <c r="Q3" s="279"/>
+      <c r="R3" s="279"/>
     </row>
     <row r="4" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
@@ -16904,7 +16911,7 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="J3:R3"/>
   </mergeCells>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J103" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>CollectionCV</formula1>
@@ -16939,16 +16946,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31" x14ac:dyDescent="0.2">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="282" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="269"/>
+      <c r="B1" s="283"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="280" t="s">
         <v>529</v>
       </c>
-      <c r="B2" s="267"/>
+      <c r="B2" s="281"/>
     </row>
     <row r="3" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="147" t="s">
@@ -17148,17 +17155,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="9" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="284" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="284"/>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
@@ -17172,17 +17179,17 @@
       <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="285" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="271"/>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="285"/>
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
@@ -18463,16 +18470,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31" x14ac:dyDescent="0.2">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="284" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="273"/>
+      <c r="B1" s="287"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="266" t="s">
+      <c r="A2" s="280" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="272"/>
+      <c r="B2" s="286"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="147" t="s">
@@ -19008,23 +19015,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="35" x14ac:dyDescent="0.2">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="288" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="274"/>
-      <c r="D1" s="274"/>
-      <c r="E1" s="274"/>
-      <c r="F1" s="274"/>
-      <c r="G1" s="274"/>
-      <c r="H1" s="274"/>
-      <c r="I1" s="274"/>
-      <c r="J1" s="274"/>
-      <c r="K1" s="274"/>
-      <c r="L1" s="274"/>
-      <c r="M1" s="274"/>
-      <c r="N1" s="274"/>
-      <c r="O1" s="274"/>
+      <c r="B1" s="288"/>
+      <c r="C1" s="288"/>
+      <c r="D1" s="288"/>
+      <c r="E1" s="288"/>
+      <c r="F1" s="288"/>
+      <c r="G1" s="288"/>
+      <c r="H1" s="288"/>
+      <c r="I1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="288"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -19047,23 +19054,23 @@
       <c r="AI1" s="56"/>
     </row>
     <row r="2" spans="1:35" ht="28" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="272" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="258"/>
-      <c r="L2" s="258"/>
-      <c r="M2" s="258"/>
-      <c r="N2" s="258"/>
-      <c r="O2" s="258"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="272"/>
+      <c r="J2" s="272"/>
+      <c r="K2" s="272"/>
+      <c r="L2" s="272"/>
+      <c r="M2" s="272"/>
+      <c r="N2" s="272"/>
+      <c r="O2" s="272"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
@@ -19086,49 +19093,49 @@
       <c r="AI2" s="57"/>
     </row>
     <row r="3" spans="1:35" s="103" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="275" t="s">
+      <c r="A3" s="289" t="s">
         <v>526</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
-      <c r="D3" s="263"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="260" t="s">
+      <c r="B3" s="277"/>
+      <c r="C3" s="277"/>
+      <c r="D3" s="277"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="274" t="s">
         <v>350</v>
       </c>
-      <c r="G3" s="261"/>
-      <c r="H3" s="261"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="261"/>
-      <c r="K3" s="261"/>
-      <c r="L3" s="261"/>
-      <c r="M3" s="261"/>
-      <c r="N3" s="261"/>
-      <c r="O3" s="262"/>
-      <c r="P3" s="260" t="s">
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="275"/>
+      <c r="M3" s="275"/>
+      <c r="N3" s="275"/>
+      <c r="O3" s="276"/>
+      <c r="P3" s="274" t="s">
         <v>525</v>
       </c>
-      <c r="Q3" s="261"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="261"/>
-      <c r="T3" s="261"/>
-      <c r="U3" s="261"/>
-      <c r="V3" s="261"/>
-      <c r="W3" s="261"/>
-      <c r="X3" s="261"/>
-      <c r="Y3" s="262"/>
-      <c r="Z3" s="276" t="s">
+      <c r="Q3" s="275"/>
+      <c r="R3" s="275"/>
+      <c r="S3" s="275"/>
+      <c r="T3" s="275"/>
+      <c r="U3" s="275"/>
+      <c r="V3" s="275"/>
+      <c r="W3" s="275"/>
+      <c r="X3" s="275"/>
+      <c r="Y3" s="276"/>
+      <c r="Z3" s="290" t="s">
         <v>431</v>
       </c>
-      <c r="AA3" s="277"/>
-      <c r="AB3" s="277"/>
-      <c r="AC3" s="277"/>
-      <c r="AD3" s="277"/>
-      <c r="AE3" s="277"/>
-      <c r="AF3" s="277"/>
-      <c r="AG3" s="277"/>
-      <c r="AH3" s="277"/>
-      <c r="AI3" s="278"/>
+      <c r="AA3" s="291"/>
+      <c r="AB3" s="291"/>
+      <c r="AC3" s="291"/>
+      <c r="AD3" s="291"/>
+      <c r="AE3" s="291"/>
+      <c r="AF3" s="291"/>
+      <c r="AG3" s="291"/>
+      <c r="AH3" s="291"/>
+      <c r="AI3" s="292"/>
     </row>
     <row r="4" spans="1:35" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">

--- a/specs/dbVarSubmissionTemplate_v3.5.xlsx
+++ b/specs/dbVarSubmissionTemplate_v3.5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theffero/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3563EEEC-D5B5-C142-A656-6EE2BDA9B7E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EEB197-6CDC-B14F-AA6C-3AB5A310D369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="460" windowWidth="34120" windowHeight="27040" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8540" yWindow="460" windowWidth="34120" windowHeight="27040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="573">
   <si>
     <t>CONTACTS</t>
   </si>
@@ -4697,6 +4697,226 @@
     <t>delins</t>
   </si>
   <si>
+    <t>Instructions for completing the SAMPLES tab</t>
+  </si>
+  <si>
+    <t>VARIANT REGIONS</t>
+  </si>
+  <si>
+    <t>Describes the merging (if any) of variant calls into regions.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please complete the yellow tabs: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CONTACTS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>STUDY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAMPLESETS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SAMPLES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">EXPERIMENTS, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARIANT CALLS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARIANT REGIONS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is optional)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Instructions for completing each tab are in the tabs themselves or in the corresponding blue tabs. The last tab, LINKS, provides examples of how to refer to external resources and databases.</t>
+    </r>
+  </si>
+  <si>
+    <t>taxonomy_id</t>
+  </si>
+  <si>
+    <t>The NCBI taxonomy id for human (9606).</t>
+  </si>
+  <si>
+    <t>sampleset_taxonomy_id</t>
+  </si>
+  <si>
+    <t>subject_taxonomy_id</t>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">VARIANT REGIONS </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -4718,233 +4938,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>If more samplesets are needed, copy-paste a section from above.</t>
-    </r>
-  </si>
-  <si>
-    <t>Instructions for completing the SAMPLES tab</t>
-  </si>
-  <si>
-    <t>VARIANT REGIONS</t>
-  </si>
-  <si>
-    <t>Describes the merging (if any) of variant calls into regions.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Please complete the yellow tabs: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CONTACTS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>STUDY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SAMPLESETS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SAMPLES</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">EXPERIMENTS, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VARIANT CALLS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VARIANT REGIONS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is optional)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Instructions for completing each tab are in the tabs themselves or in the corresponding blue tabs. The last tab, LINKS, provides examples of how to refer to external resources and databases.</t>
-    </r>
-  </si>
-  <si>
-    <t>taxonomy_id</t>
-  </si>
-  <si>
-    <t>The NCBI taxonomy id for human (9606).</t>
-  </si>
-  <si>
-    <t>sampleset_taxonomy_id</t>
-  </si>
-  <si>
-    <t>subject_taxonomy_id</t>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">VARIANT REGIONS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(optional)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+      <t>Complete if you want to group two or more variant calls together under a parent region. List supporting variant_call_ids in column 'M'. dbVar will automatically merge calls with identical call types and coordinates.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <vertAlign val="superscript"/>
         <sz val="6"/>
         <color theme="0"/>
@@ -4956,30 +4955,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Complete if you want to group two or more variant calls together under a parent region. List supporting variant_call_ids in column 'M'. dbVar will automatically merge calls with identical call types and coordinates.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
         <sz val="24"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -5400,9 +5375,6 @@
   </si>
   <si>
     <t>v3.5 December 2019</t>
-  </si>
-  <si>
-    <t>(v3.5.122319)</t>
   </si>
   <si>
     <r>
@@ -5512,6 +5484,12 @@
       </rPr>
       <t>https://dev.ncbi.nlm.nih.gov/snp/docs/submission/hts_launch_and_introductory_material/</t>
     </r>
+  </si>
+  <si>
+    <t>(v3.5.122719)</t>
+  </si>
+  <si>
+    <t>Copy this entire section for each additional sampleset needed</t>
   </si>
 </sst>
 </file>
@@ -7394,7 +7372,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="329">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7993,9 +7971,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="58" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8209,6 +8184,18 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="409">
@@ -9839,8 +9826,8 @@
   </sheetPr>
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AJ62" sqref="AJ62"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK70" sqref="AK70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
@@ -9850,10 +9837,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="255" t="s">
+      <c r="A1" s="254" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="256"/>
+      <c r="B1" s="255"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -9869,41 +9856,41 @@
     </row>
     <row r="2" spans="1:14" s="127" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="252" t="s">
-        <v>568</v>
-      </c>
-      <c r="B2" s="253" t="s">
-        <v>569</v>
+        <v>567</v>
+      </c>
+      <c r="B2" s="325" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1">
-      <c r="A3" s="260" t="s">
+      <c r="A3" s="259" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="261"/>
+      <c r="B3" s="260"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="87" customHeight="1">
-      <c r="A4" s="268" t="s">
-        <v>570</v>
-      </c>
-      <c r="B4" s="269"/>
+      <c r="A4" s="267" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="268"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="9" customFormat="1" ht="74" customHeight="1">
-      <c r="A5" s="257" t="s">
-        <v>532</v>
-      </c>
-      <c r="B5" s="258"/>
+      <c r="A5" s="256" t="s">
+        <v>531</v>
+      </c>
+      <c r="B5" s="257"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="264" t="s">
+      <c r="A6" s="263" t="s">
         <v>353</v>
       </c>
-      <c r="B6" s="265"/>
+      <c r="B6" s="264"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
@@ -9932,19 +9919,19 @@
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:14" s="10" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="266" t="s">
+      <c r="A10" s="265" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="267"/>
+      <c r="B10" s="266"/>
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
-      <c r="E10" s="254"/>
+      <c r="E10" s="253"/>
     </row>
     <row r="11" spans="1:14" s="10" customFormat="1" ht="48" customHeight="1">
-      <c r="A11" s="259" t="s">
+      <c r="A11" s="258" t="s">
         <v>517</v>
       </c>
-      <c r="B11" s="258"/>
+      <c r="B11" s="257"/>
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
     </row>
@@ -9969,10 +9956,10 @@
       <c r="B14" s="106"/>
     </row>
     <row r="15" spans="1:14" ht="37" customHeight="1">
-      <c r="A15" s="262" t="s">
+      <c r="A15" s="261" t="s">
         <v>325</v>
       </c>
-      <c r="B15" s="263"/>
+      <c r="B15" s="262"/>
     </row>
     <row r="16" spans="1:14" ht="26" customHeight="1">
       <c r="A16" s="107" t="s">
@@ -10032,10 +10019,10 @@
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="212" t="s">
+        <v>529</v>
+      </c>
+      <c r="B23" s="213" t="s">
         <v>530</v>
-      </c>
-      <c r="B23" s="213" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -10075,16 +10062,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="307"/>
+      <c r="B1" s="306"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="307" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="280"/>
+      <c r="B2" s="279"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="145"/>
@@ -10135,16 +10122,16 @@
       <c r="B9" s="95"/>
     </row>
     <row r="10" spans="1:2" ht="64" customHeight="1">
-      <c r="A10" s="309" t="s">
+      <c r="A10" s="308" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="310"/>
+      <c r="B10" s="309"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1">
-      <c r="A11" s="311" t="s">
+      <c r="A11" s="310" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="312"/>
+      <c r="B11" s="311"/>
     </row>
     <row r="12" spans="1:2" ht="16" customHeight="1"/>
     <row r="13" spans="1:2" ht="18" customHeight="1">
@@ -10175,7 +10162,7 @@
       <c r="A16" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="300" t="s">
+      <c r="B16" s="299" t="s">
         <v>398</v>
       </c>
     </row>
@@ -10183,31 +10170,31 @@
       <c r="A17" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="301"/>
+      <c r="B17" s="300"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1">
       <c r="A18" s="143" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="301"/>
+      <c r="B18" s="300"/>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1">
       <c r="A19" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="301"/>
+      <c r="B19" s="300"/>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1">
       <c r="A20" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="301"/>
+      <c r="B20" s="300"/>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1">
       <c r="A21" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="302"/>
+      <c r="B21" s="301"/>
     </row>
     <row r="22" spans="1:2" ht="102">
       <c r="A22" s="143" t="s">
@@ -10302,7 +10289,7 @@
       <c r="A35" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="303" t="s">
+      <c r="B35" s="302" t="s">
         <v>510</v>
       </c>
     </row>
@@ -10310,55 +10297,55 @@
       <c r="A36" s="144" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="304"/>
+      <c r="B36" s="303"/>
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1">
       <c r="A37" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B37" s="304"/>
+      <c r="B37" s="303"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1">
       <c r="A38" s="144" t="s">
         <v>435</v>
       </c>
-      <c r="B38" s="304"/>
+      <c r="B38" s="303"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1">
       <c r="A39" s="144" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="304"/>
+      <c r="B39" s="303"/>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1">
       <c r="A40" s="144" t="s">
         <v>436</v>
       </c>
-      <c r="B40" s="304"/>
+      <c r="B40" s="303"/>
     </row>
     <row r="41" spans="1:2" ht="18" customHeight="1">
       <c r="A41" s="144" t="s">
         <v>437</v>
       </c>
-      <c r="B41" s="304"/>
+      <c r="B41" s="303"/>
     </row>
     <row r="42" spans="1:2" ht="18" customHeight="1">
       <c r="A42" s="144" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="304"/>
+      <c r="B42" s="303"/>
     </row>
     <row r="43" spans="1:2" ht="18" customHeight="1">
       <c r="A43" s="144" t="s">
         <v>438</v>
       </c>
-      <c r="B43" s="304"/>
+      <c r="B43" s="303"/>
     </row>
     <row r="44" spans="1:2" ht="18" customHeight="1">
       <c r="A44" s="144" t="s">
         <v>509</v>
       </c>
-      <c r="B44" s="305"/>
+      <c r="B44" s="304"/>
     </row>
     <row r="45" spans="1:2" ht="18" customHeight="1"/>
   </sheetData>
@@ -10407,75 +10394,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1">
-      <c r="A1" s="295" t="s">
-        <v>537</v>
-      </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
+      <c r="A1" s="294" t="s">
+        <v>536</v>
+      </c>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
       <c r="M1" s="228"/>
       <c r="N1" s="228"/>
       <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" ht="28" customHeight="1">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="278" t="s">
+        <v>537</v>
+      </c>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="279"/>
+    </row>
+    <row r="3" spans="1:15" ht="33" customHeight="1">
+      <c r="A3" s="312" t="s">
         <v>538</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="280"/>
-    </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1">
-      <c r="A3" s="313" t="s">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="295" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="295" t="s">
         <v>539</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="296" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="296" t="s">
-        <v>540</v>
-      </c>
-      <c r="N3" s="284"/>
-      <c r="O3" s="285"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="284"/>
     </row>
     <row r="4" spans="1:15" ht="16" customHeight="1">
       <c r="A4" s="230" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" s="230" t="s">
         <v>541</v>
       </c>
-      <c r="B4" s="230" t="s">
+      <c r="C4" s="230" t="s">
         <v>542</v>
-      </c>
-      <c r="C4" s="230" t="s">
-        <v>543</v>
       </c>
       <c r="D4" s="231" t="s">
         <v>218</v>
@@ -10505,10 +10492,10 @@
         <v>226</v>
       </c>
       <c r="M4" s="231" t="s">
+        <v>543</v>
+      </c>
+      <c r="N4" s="232" t="s">
         <v>544</v>
-      </c>
-      <c r="N4" s="232" t="s">
-        <v>545</v>
       </c>
       <c r="O4" s="232" t="s">
         <v>217</v>
@@ -12249,16 +12236,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
+        <v>545</v>
+      </c>
+      <c r="B1" s="306"/>
+    </row>
+    <row r="2" spans="1:2" s="9" customFormat="1" ht="25" customHeight="1">
+      <c r="A2" s="314" t="s">
         <v>546</v>
       </c>
-      <c r="B1" s="307"/>
-    </row>
-    <row r="2" spans="1:2" s="9" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="315" t="s">
-        <v>547</v>
-      </c>
-      <c r="B2" s="316"/>
+      <c r="B2" s="315"/>
     </row>
     <row r="3" spans="1:2" ht="16">
       <c r="A3" s="233"/>
@@ -12269,12 +12256,12 @@
         <v>216</v>
       </c>
       <c r="B4" s="234" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="135" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B5" s="234" t="s">
         <v>329</v>
@@ -12282,10 +12269,10 @@
     </row>
     <row r="6" spans="1:2" ht="85">
       <c r="A6" s="135" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B6" s="234" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17">
@@ -12293,7 +12280,7 @@
         <v>218</v>
       </c>
       <c r="B7" s="234" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="34">
@@ -12301,7 +12288,7 @@
         <v>219</v>
       </c>
       <c r="B8" s="234" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34">
@@ -12309,7 +12296,7 @@
         <v>220</v>
       </c>
       <c r="B9" s="234" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16">
@@ -12320,39 +12307,39 @@
       <c r="A11" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="317" t="s">
-        <v>553</v>
+      <c r="B11" s="316" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16">
       <c r="A12" s="235" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="317"/>
+      <c r="B12" s="316"/>
     </row>
     <row r="13" spans="1:2" ht="16">
       <c r="A13" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="317"/>
+      <c r="B13" s="316"/>
     </row>
     <row r="14" spans="1:2" ht="16">
       <c r="A14" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="317"/>
+      <c r="B14" s="316"/>
     </row>
     <row r="15" spans="1:2" ht="16">
       <c r="A15" s="235" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="317"/>
+      <c r="B15" s="316"/>
     </row>
     <row r="16" spans="1:2" ht="16">
       <c r="A16" s="235" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="317"/>
+      <c r="B16" s="316"/>
     </row>
     <row r="17" spans="1:2" ht="16">
       <c r="A17" s="236"/>
@@ -12360,18 +12347,18 @@
     </row>
     <row r="18" spans="1:2" ht="34">
       <c r="A18" s="235" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B18" s="234" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="34">
       <c r="A19" s="235" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B19" s="234" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17">
@@ -12379,14 +12366,14 @@
         <v>217</v>
       </c>
       <c r="B20" s="234" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="39" customHeight="1">
+      <c r="A22" s="317" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="39" customHeight="1">
-      <c r="A22" s="318" t="s">
-        <v>557</v>
-      </c>
-      <c r="B22" s="319"/>
+      <c r="B22" s="318"/>
     </row>
   </sheetData>
   <sheetProtection password="C4EE" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12423,12 +12410,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="307"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="306"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -12436,12 +12423,12 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="239" customFormat="1" ht="67" customHeight="1">
-      <c r="A2" s="322" t="s">
-        <v>558</v>
-      </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="324"/>
+      <c r="A2" s="321" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="323"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
       <c r="G2" s="103"/>
@@ -12464,7 +12451,7 @@
       <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A5" s="325" t="s">
+      <c r="A5" s="324" t="s">
         <v>362</v>
       </c>
       <c r="B5" s="241" t="str">
@@ -12485,7 +12472,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A6" s="325"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genotypes and Phenotypes</v>
@@ -12504,7 +12491,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A7" s="325"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="243" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP (Short Genetic Variations)</v>
@@ -12523,7 +12510,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A8" s="325"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="243" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP Batch ID</v>
@@ -12542,7 +12529,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A9" s="325"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="243" t="str">
         <f t="shared" si="0"/>
         <v>DNA Databank of Japan</v>
@@ -12557,11 +12544,11 @@
         <v>155</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A10" s="325"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genomic Variants</v>
@@ -12580,7 +12567,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A11" s="325"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="243" t="str">
         <f t="shared" si="0"/>
         <v>European Genome-phenome Archive</v>
@@ -12599,7 +12586,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A12" s="325"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="243" t="str">
         <f t="shared" si="0"/>
         <v>European Nucleotide Archive</v>
@@ -12618,7 +12605,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A13" s="325"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="243" t="str">
         <f t="shared" si="0"/>
         <v>GenBank</v>
@@ -12637,7 +12624,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A14" s="325"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="243" t="str">
         <f t="shared" si="0"/>
         <v>NCBI Gene</v>
@@ -12656,7 +12643,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A15" s="325"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Gene Expression Omnibus</v>
@@ -12675,7 +12662,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A16" s="325"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Sequence Read Archive</v>
@@ -12694,7 +12681,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A17" s="325"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="243" t="str">
         <f>HYPERLINK(E17,F17)</f>
         <v>Trace Archive</v>
@@ -12713,41 +12700,41 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A18" s="325"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="250" t="str">
         <f>HYPERLINK(E18,F18)</f>
         <v>Genomic Expression Archive</v>
       </c>
       <c r="C18" s="244" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A19" s="325"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="245" t="str">
         <f>HYPERLINK(E19,F19)</f>
         <v>Japanese Genotype-phenotype Archive</v>
       </c>
       <c r="C19" s="246" t="s">
+        <v>562</v>
+      </c>
+      <c r="D19" s="130" t="s">
         <v>563</v>
       </c>
-      <c r="D19" s="130" t="s">
-        <v>564</v>
-      </c>
       <c r="E19" s="251" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F19" s="251" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="239" customFormat="1" ht="25" customHeight="1">
@@ -12759,7 +12746,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A21" s="325" t="s">
+      <c r="A21" s="324" t="s">
         <v>363</v>
       </c>
       <c r="B21" s="241" t="str">
@@ -12780,7 +12767,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A22" s="325"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="243" t="str">
         <f t="shared" si="1"/>
         <v>MedGen</v>
@@ -12799,7 +12786,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A23" s="325"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Medical Subject Headings</v>
@@ -12818,7 +12805,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A24" s="325"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Online Mendelian Inhertiance in Man</v>
@@ -12837,7 +12824,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A25" s="325"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Systematized Nomenclature of Medicine</v>
@@ -12856,7 +12843,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A26" s="325"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="245" t="str">
         <f t="shared" si="1"/>
         <v>Unified Medical Language System</v>
@@ -12883,7 +12870,7 @@
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A28" s="320" t="s">
+      <c r="A28" s="319" t="s">
         <v>364</v>
       </c>
       <c r="B28" s="241" t="str">
@@ -12904,7 +12891,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="320"/>
+      <c r="A29" s="319"/>
       <c r="B29" s="243" t="str">
         <f t="shared" ref="B29" si="3">HYPERLINK(E29,F29)</f>
         <v>BioProject Database</v>
@@ -12923,7 +12910,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A30" s="320"/>
+      <c r="A30" s="319"/>
       <c r="B30" s="243" t="str">
         <f t="shared" si="2"/>
         <v>BioSample Database</v>
@@ -12942,7 +12929,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A31" s="320"/>
+      <c r="A31" s="319"/>
       <c r="B31" s="243" t="str">
         <f t="shared" si="2"/>
         <v>PubMed</v>
@@ -12961,7 +12948,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A32" s="320"/>
+      <c r="A32" s="319"/>
       <c r="B32" s="245" t="str">
         <f t="shared" si="2"/>
         <v>GeneReviews</v>
@@ -13042,14 +13029,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
       <c r="I1" s="85"/>
@@ -14067,30 +14054,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="269" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="271"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="270"/>
     </row>
     <row r="2" spans="1:9" ht="60" customHeight="1">
-      <c r="A2" s="272" t="s">
-        <v>572</v>
-      </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="274"/>
+      <c r="A2" s="271" t="s">
+        <v>570</v>
+      </c>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="272"/>
+      <c r="E2" s="272"/>
+      <c r="F2" s="272"/>
+      <c r="G2" s="272"/>
+      <c r="H2" s="272"/>
+      <c r="I2" s="273"/>
     </row>
     <row r="3" spans="1:9" ht="17" customHeight="1">
       <c r="A3" s="16"/>
@@ -14354,7 +14341,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14"/>
@@ -14367,25 +14354,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
-      <c r="A1" s="275" t="s">
+      <c r="A1" s="274" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="275"/>
-      <c r="C1" s="276"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="275"/>
     </row>
     <row r="2" spans="1:3" ht="28" customHeight="1">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="276" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="278"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
     </row>
     <row r="3" spans="1:3" ht="65" customHeight="1">
-      <c r="A3" s="272" t="s">
-        <v>572</v>
-      </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="274"/>
+      <c r="A3" s="271" t="s">
+        <v>570</v>
+      </c>
+      <c r="B3" s="272"/>
+      <c r="C3" s="273"/>
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="B4" s="167" t="s">
@@ -14421,13 +14408,13 @@
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="214" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B8" s="215">
         <v>9606</v>
       </c>
       <c r="C8" s="216" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34">
@@ -14546,10 +14533,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="16"/>
@@ -14559,27 +14546,27 @@
     <col min="3" max="3" width="86" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="31">
-      <c r="A1" s="270" t="s">
+    <row r="1" spans="1:4" ht="31">
+      <c r="A1" s="269" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="271"/>
-    </row>
-    <row r="2" spans="1:3" ht="28" customHeight="1">
-      <c r="A2" s="279" t="s">
+      <c r="B1" s="269"/>
+      <c r="C1" s="270"/>
+    </row>
+    <row r="2" spans="1:4" ht="28" customHeight="1">
+      <c r="A2" s="278" t="s">
         <v>524</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="280"/>
-    </row>
-    <row r="3" spans="1:3" ht="29" customHeight="1">
+      <c r="B2" s="278"/>
+      <c r="C2" s="279"/>
+    </row>
+    <row r="3" spans="1:4" ht="29" customHeight="1">
       <c r="B3" s="102" t="s">
         <v>481</v>
       </c>
       <c r="C3" s="51"/>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:4" ht="17">
       <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
@@ -14589,8 +14576,11 @@
       <c r="C4" s="94" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17">
+      <c r="D4" s="326" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17">
       <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
@@ -14598,19 +14588,21 @@
       <c r="C5" s="94" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17">
+      <c r="D5" s="327"/>
+    </row>
+    <row r="6" spans="1:4" ht="17">
       <c r="A6" s="217" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B6" s="215">
         <v>9606</v>
       </c>
       <c r="C6" s="216" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="34">
+        <v>533</v>
+      </c>
+      <c r="D6" s="327"/>
+    </row>
+    <row r="7" spans="1:4" ht="34">
       <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
@@ -14618,8 +14610,9 @@
       <c r="C7" s="146" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17">
+      <c r="D7" s="327"/>
+    </row>
+    <row r="8" spans="1:4" ht="17">
       <c r="A8" s="11" t="s">
         <v>35</v>
       </c>
@@ -14627,8 +14620,9 @@
       <c r="C8" s="94" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17">
+      <c r="D8" s="327"/>
+    </row>
+    <row r="9" spans="1:4" ht="17">
       <c r="A9" s="83" t="s">
         <v>38</v>
       </c>
@@ -14636,8 +14630,9 @@
       <c r="C9" s="94" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="85">
+      <c r="D9" s="327"/>
+    </row>
+    <row r="10" spans="1:4" ht="85">
       <c r="A10" s="83" t="s">
         <v>39</v>
       </c>
@@ -14645,8 +14640,9 @@
       <c r="C10" s="146" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="51">
+      <c r="D10" s="327"/>
+    </row>
+    <row r="11" spans="1:4" ht="51">
       <c r="A11" s="83" t="s">
         <v>40</v>
       </c>
@@ -14654,8 +14650,9 @@
       <c r="C11" s="94" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17">
+      <c r="D11" s="327"/>
+    </row>
+    <row r="12" spans="1:4" ht="17">
       <c r="A12" s="83" t="s">
         <v>41</v>
       </c>
@@ -14663,185 +14660,28 @@
       <c r="C12" s="94" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="327"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="185"/>
       <c r="B13" s="185"/>
       <c r="C13" s="186"/>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="328"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="C14" s="51"/>
-    </row>
-    <row r="15" spans="1:3" ht="17">
-      <c r="A15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="172"/>
-      <c r="C15" s="94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17">
-      <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="120"/>
-      <c r="C16" s="94" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34">
-      <c r="A17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="146" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17">
-      <c r="A18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="94" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17">
-      <c r="A19" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="94" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="85">
-      <c r="A20" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="121"/>
-      <c r="C20" s="146" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="51">
-      <c r="A21" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="121"/>
-      <c r="C21" s="94" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17">
-      <c r="A22" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="94" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="185"/>
-      <c r="B23" s="185"/>
-      <c r="C23" s="186"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="C24" s="51"/>
-    </row>
-    <row r="25" spans="1:3" ht="17">
-      <c r="A25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="172"/>
-      <c r="C25" s="94" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17">
-      <c r="A26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="94" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="34">
-      <c r="A27" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="122"/>
-      <c r="C27" s="146" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17">
-      <c r="A28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="121"/>
-      <c r="C28" s="94" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17">
-      <c r="A29" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="121"/>
-      <c r="C29" s="94" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="85">
-      <c r="A30" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="121"/>
-      <c r="C30" s="146" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="51">
-      <c r="A31" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="94" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17">
-      <c r="A32" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="94" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="279" t="s">
-        <v>528</v>
-      </c>
-      <c r="B34" s="279"/>
-      <c r="C34" s="280"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D4:D13"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7 B17 B27" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>SamplesetTypeCV</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B22 B32" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>SexCV</formula1>
     </dataValidation>
   </dataValidations>
@@ -14883,17 +14723,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="31">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="269" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="269"/>
+      <c r="D1" s="269"/>
+      <c r="E1" s="269"/>
+      <c r="F1" s="269"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -14905,17 +14745,17 @@
       <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="29" customHeight="1">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="278" t="s">
         <v>475</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
@@ -14927,30 +14767,30 @@
       <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" s="103" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="284" t="s">
+      <c r="A3" s="283" t="s">
         <v>418</v>
       </c>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="281" t="s">
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="280" t="s">
         <v>419</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="286" t="s">
+      <c r="G3" s="281"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="285" t="s">
         <v>420</v>
       </c>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="285"/>
+      <c r="O3" s="285"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="285"/>
     </row>
     <row r="4" spans="1:18" ht="16" customHeight="1">
       <c r="A4" s="50" t="s">
@@ -14963,7 +14803,7 @@
         <v>231</v>
       </c>
       <c r="D4" s="218" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E4" s="156" t="s">
         <v>34</v>
@@ -17143,16 +16983,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="288" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="289"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="287" t="s">
-        <v>529</v>
-      </c>
-      <c r="B2" s="288"/>
+      <c r="A2" s="286" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="287"/>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="147" t="s">
@@ -17180,10 +17020,10 @@
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1">
       <c r="A6" s="173" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B6" s="227" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1">
@@ -17352,17 +17192,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="9" customFormat="1" ht="37" customHeight="1">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="290" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
@@ -17376,17 +17216,17 @@
       <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="291" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
@@ -18667,16 +18507,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="294"/>
+      <c r="B1" s="293"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="286" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="293"/>
+      <c r="B2" s="292"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="147" t="s">
@@ -19168,7 +19008,7 @@
   </sheetPr>
   <dimension ref="A1:AI105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -19212,23 +19052,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="35">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="294" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -19251,23 +19091,23 @@
       <c r="AI1" s="56"/>
     </row>
     <row r="2" spans="1:35" ht="28" customHeight="1">
-      <c r="A2" s="279" t="s">
+      <c r="A2" s="278" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
-      <c r="L2" s="279"/>
-      <c r="M2" s="279"/>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="278"/>
+      <c r="K2" s="278"/>
+      <c r="L2" s="278"/>
+      <c r="M2" s="278"/>
+      <c r="N2" s="278"/>
+      <c r="O2" s="278"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
@@ -19290,18 +19130,18 @@
       <c r="AI2" s="57"/>
     </row>
     <row r="3" spans="1:35" ht="59" customHeight="1">
-      <c r="A3" s="272" t="s">
-        <v>571</v>
-      </c>
-      <c r="B3" s="273"/>
-      <c r="C3" s="273"/>
-      <c r="D3" s="273"/>
-      <c r="E3" s="273"/>
-      <c r="F3" s="273"/>
-      <c r="G3" s="273"/>
-      <c r="H3" s="273"/>
-      <c r="I3" s="273"/>
-      <c r="J3" s="274"/>
+      <c r="A3" s="271" t="s">
+        <v>569</v>
+      </c>
+      <c r="B3" s="272"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="273"/>
       <c r="P3" s="55"/>
       <c r="Q3" s="55"/>
       <c r="R3" s="55"/>
@@ -19324,49 +19164,49 @@
       <c r="AI3" s="57"/>
     </row>
     <row r="4" spans="1:35" s="103" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="295" t="s">
         <v>526</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="281" t="s">
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="280" t="s">
         <v>350</v>
       </c>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="281" t="s">
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="281"/>
+      <c r="M4" s="281"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="280" t="s">
         <v>525</v>
       </c>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="282"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="297" t="s">
+      <c r="Q4" s="281"/>
+      <c r="R4" s="281"/>
+      <c r="S4" s="281"/>
+      <c r="T4" s="281"/>
+      <c r="U4" s="281"/>
+      <c r="V4" s="281"/>
+      <c r="W4" s="281"/>
+      <c r="X4" s="281"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="296" t="s">
         <v>431</v>
       </c>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="298"/>
-      <c r="AD4" s="298"/>
-      <c r="AE4" s="298"/>
-      <c r="AF4" s="298"/>
-      <c r="AG4" s="298"/>
-      <c r="AH4" s="298"/>
-      <c r="AI4" s="299"/>
+      <c r="AA4" s="297"/>
+      <c r="AB4" s="297"/>
+      <c r="AC4" s="297"/>
+      <c r="AD4" s="297"/>
+      <c r="AE4" s="297"/>
+      <c r="AF4" s="297"/>
+      <c r="AG4" s="297"/>
+      <c r="AH4" s="297"/>
+      <c r="AI4" s="298"/>
     </row>
     <row r="5" spans="1:35" ht="16" customHeight="1">
       <c r="A5" s="50" t="s">

--- a/specs/dbVarSubmissionTemplate_v3.5.xlsx
+++ b/specs/dbVarSubmissionTemplate_v3.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theffero/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EEB197-6CDC-B14F-AA6C-3AB5A310D369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D0596-AEE2-4246-918F-13DAE5EA7A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8540" yWindow="460" windowWidth="34120" windowHeight="27040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5377,71 +5377,36 @@
     <t>v3.5 December 2019</t>
   </si>
   <si>
+    <t>Copy this entire section for each additional sampleset needed</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">This is the submission guideline for submitting STRUCTURAL VARIATIONS (&gt;50bp) to dbVar.
-</t>
+If you have small variations (&lt;=50bp) including SNV, deletion, and insertion please use the </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="12"/>
+        <color theme="4"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">If you have small variations (&lt;=50bp) including SNV, deletion, and insertion please use the dbSNP submission guidelines: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>https://dev.ncbi.nlm.nih.gov/snp/docs/submission/hts_launch_and_introductory_material/</t>
-    </r>
-  </si>
-  <si>
+      <t>dbSNP submission guidelines</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This is the submission guideline for submitting STRUCTURAL VARIATIONS (&gt;50bp) to dbVar. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">If you have small variations (&lt;=50bp) including SNV, deletion, and insertion please use the dbSNP submission guidelines: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>https://dev.ncbi.nlm.nih.gov/snp/docs/submission/hts_launch_and_introductory_material/</t>
-    </r>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>(v3.5.123119)</t>
   </si>
   <si>
     <r>
@@ -5468,28 +5433,79 @@
     <r>
       <rPr>
         <b/>
-        <u/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t xml:space="preserve">If you have small variations (&lt;=50bp) including SNV, deletion, and insertion please use the dbSNP submission guidelines: </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="1"/>
+      <t xml:space="preserve">If you have small variations (&lt;=50bp) including SNV, deletion, and insertion please use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>https://dev.ncbi.nlm.nih.gov/snp/docs/submission/hts_launch_and_introductory_material/</t>
-    </r>
-  </si>
-  <si>
-    <t>(v3.5.122719)</t>
-  </si>
-  <si>
-    <t>Copy this entire section for each additional sampleset needed</t>
+      <t>dbSNP submission guidelines</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="2"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This is the submission guideline for submitting STRUCTURAL VARIATIONS (&gt;50bp) to dbVar. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">If you have small variations (&lt;=50bp) including SNV, deletion, and insertion please use the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>dbSNP submission guidelines</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -6002,27 +6018,25 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="2"/>
+      <color rgb="FFFFFF00"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
     <font>
       <b/>
-      <sz val="6"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="2"/>
-      <color rgb="FFFFFF00"/>
+      <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -7372,7 +7386,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="329">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8011,12 +8025,6 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8050,6 +8058,15 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8187,15 +8204,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="409">
@@ -8889,10 +8897,138 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>637540</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1958340" cy="226060"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BB15572-6BBA-D843-8AEE-B49F525A8158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="111760" y="1780540"/>
+          <a:ext cx="1958340" cy="226060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="3175" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" rIns="0" rtlCol="0" anchor="b" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>596900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB97BC6-0E8B-5D48-B917-A72A344E1B3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="736600"/>
+          <a:ext cx="1930400" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9020,6 +9156,137 @@
             </a:ln>
             <a:noFill/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2349500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4330700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>647700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA65823-5706-244E-A03E-B949192869CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="1143000"/>
+          <a:ext cx="1981200" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D135C77E-3B0F-404F-A40F-23976FFF737A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="1066800"/>
+          <a:ext cx="1892300" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9827,7 +10094,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK70" sqref="AK70"/>
+      <selection activeCell="AS30" sqref="AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
@@ -9858,8 +10125,8 @@
       <c r="A2" s="252" t="s">
         <v>567</v>
       </c>
-      <c r="B2" s="325" t="s">
-        <v>571</v>
+      <c r="B2" s="326" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1">
@@ -9870,11 +10137,11 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:14" ht="87" customHeight="1">
-      <c r="A4" s="267" t="s">
-        <v>568</v>
-      </c>
-      <c r="B4" s="268"/>
+    <row r="4" spans="1:14" ht="65" customHeight="1">
+      <c r="A4" s="269" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" s="271"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
@@ -10062,16 +10329,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="306" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="306"/>
+      <c r="B1" s="307"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="307" t="s">
+      <c r="A2" s="308" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="279"/>
+      <c r="B2" s="277"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="145"/>
@@ -10122,16 +10389,16 @@
       <c r="B9" s="95"/>
     </row>
     <row r="10" spans="1:2" ht="64" customHeight="1">
-      <c r="A10" s="308" t="s">
+      <c r="A10" s="309" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="309"/>
+      <c r="B10" s="310"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1">
-      <c r="A11" s="310" t="s">
+      <c r="A11" s="311" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="311"/>
+      <c r="B11" s="312"/>
     </row>
     <row r="12" spans="1:2" ht="16" customHeight="1"/>
     <row r="13" spans="1:2" ht="18" customHeight="1">
@@ -10162,7 +10429,7 @@
       <c r="A16" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="299" t="s">
+      <c r="B16" s="300" t="s">
         <v>398</v>
       </c>
     </row>
@@ -10170,31 +10437,31 @@
       <c r="A17" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="300"/>
+      <c r="B17" s="301"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1">
       <c r="A18" s="143" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="300"/>
+      <c r="B18" s="301"/>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1">
       <c r="A19" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="300"/>
+      <c r="B19" s="301"/>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1">
       <c r="A20" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="300"/>
+      <c r="B20" s="301"/>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1">
       <c r="A21" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="301"/>
+      <c r="B21" s="302"/>
     </row>
     <row r="22" spans="1:2" ht="102">
       <c r="A22" s="143" t="s">
@@ -10289,7 +10556,7 @@
       <c r="A35" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="302" t="s">
+      <c r="B35" s="303" t="s">
         <v>510</v>
       </c>
     </row>
@@ -10297,55 +10564,55 @@
       <c r="A36" s="144" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="303"/>
+      <c r="B36" s="304"/>
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1">
       <c r="A37" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B37" s="303"/>
+      <c r="B37" s="304"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1">
       <c r="A38" s="144" t="s">
         <v>435</v>
       </c>
-      <c r="B38" s="303"/>
+      <c r="B38" s="304"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1">
       <c r="A39" s="144" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="303"/>
+      <c r="B39" s="304"/>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1">
       <c r="A40" s="144" t="s">
         <v>436</v>
       </c>
-      <c r="B40" s="303"/>
+      <c r="B40" s="304"/>
     </row>
     <row r="41" spans="1:2" ht="18" customHeight="1">
       <c r="A41" s="144" t="s">
         <v>437</v>
       </c>
-      <c r="B41" s="303"/>
+      <c r="B41" s="304"/>
     </row>
     <row r="42" spans="1:2" ht="18" customHeight="1">
       <c r="A42" s="144" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="303"/>
+      <c r="B42" s="304"/>
     </row>
     <row r="43" spans="1:2" ht="18" customHeight="1">
       <c r="A43" s="144" t="s">
         <v>438</v>
       </c>
-      <c r="B43" s="303"/>
+      <c r="B43" s="304"/>
     </row>
     <row r="44" spans="1:2" ht="18" customHeight="1">
       <c r="A44" s="144" t="s">
         <v>509</v>
       </c>
-      <c r="B44" s="304"/>
+      <c r="B44" s="305"/>
     </row>
     <row r="45" spans="1:2" ht="18" customHeight="1"/>
   </sheetData>
@@ -10394,65 +10661,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="295" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
       <c r="M1" s="228"/>
       <c r="N1" s="228"/>
       <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" ht="28" customHeight="1">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="276" t="s">
         <v>537</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="279"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="277"/>
     </row>
     <row r="3" spans="1:15" ht="33" customHeight="1">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="313" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="295" t="s">
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="296" t="s">
         <v>350</v>
       </c>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284"/>
-      <c r="M3" s="295" t="s">
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="296" t="s">
         <v>539</v>
       </c>
-      <c r="N3" s="283"/>
-      <c r="O3" s="284"/>
+      <c r="N3" s="284"/>
+      <c r="O3" s="285"/>
     </row>
     <row r="4" spans="1:15" ht="16" customHeight="1">
       <c r="A4" s="230" t="s">
@@ -12236,16 +12503,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="306" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="306"/>
+      <c r="B1" s="307"/>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="315" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="315"/>
+      <c r="B2" s="316"/>
     </row>
     <row r="3" spans="1:2" ht="16">
       <c r="A3" s="233"/>
@@ -12307,7 +12574,7 @@
       <c r="A11" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="316" t="s">
+      <c r="B11" s="317" t="s">
         <v>552</v>
       </c>
     </row>
@@ -12315,31 +12582,31 @@
       <c r="A12" s="235" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="316"/>
+      <c r="B12" s="317"/>
     </row>
     <row r="13" spans="1:2" ht="16">
       <c r="A13" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="316"/>
+      <c r="B13" s="317"/>
     </row>
     <row r="14" spans="1:2" ht="16">
       <c r="A14" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="316"/>
+      <c r="B14" s="317"/>
     </row>
     <row r="15" spans="1:2" ht="16">
       <c r="A15" s="235" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="316"/>
+      <c r="B15" s="317"/>
     </row>
     <row r="16" spans="1:2" ht="16">
       <c r="A16" s="235" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="316"/>
+      <c r="B16" s="317"/>
     </row>
     <row r="17" spans="1:2" ht="16">
       <c r="A17" s="236"/>
@@ -12370,10 +12637,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="39" customHeight="1">
-      <c r="A22" s="317" t="s">
+      <c r="A22" s="318" t="s">
         <v>556</v>
       </c>
-      <c r="B22" s="318"/>
+      <c r="B22" s="319"/>
     </row>
   </sheetData>
   <sheetProtection password="C4EE" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12410,12 +12677,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="306" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="306"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="307"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -12423,12 +12690,12 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="239" customFormat="1" ht="67" customHeight="1">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="322" t="s">
         <v>557</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="323"/>
+      <c r="B2" s="323"/>
+      <c r="C2" s="323"/>
+      <c r="D2" s="324"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
       <c r="G2" s="103"/>
@@ -12451,7 +12718,7 @@
       <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A5" s="324" t="s">
+      <c r="A5" s="325" t="s">
         <v>362</v>
       </c>
       <c r="B5" s="241" t="str">
@@ -12472,7 +12739,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A6" s="324"/>
+      <c r="A6" s="325"/>
       <c r="B6" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genotypes and Phenotypes</v>
@@ -12491,7 +12758,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A7" s="324"/>
+      <c r="A7" s="325"/>
       <c r="B7" s="243" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP (Short Genetic Variations)</v>
@@ -12510,7 +12777,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A8" s="324"/>
+      <c r="A8" s="325"/>
       <c r="B8" s="243" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP Batch ID</v>
@@ -12529,7 +12796,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A9" s="324"/>
+      <c r="A9" s="325"/>
       <c r="B9" s="243" t="str">
         <f t="shared" si="0"/>
         <v>DNA Databank of Japan</v>
@@ -12548,7 +12815,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A10" s="324"/>
+      <c r="A10" s="325"/>
       <c r="B10" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genomic Variants</v>
@@ -12567,7 +12834,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A11" s="324"/>
+      <c r="A11" s="325"/>
       <c r="B11" s="243" t="str">
         <f t="shared" si="0"/>
         <v>European Genome-phenome Archive</v>
@@ -12586,7 +12853,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A12" s="324"/>
+      <c r="A12" s="325"/>
       <c r="B12" s="243" t="str">
         <f t="shared" si="0"/>
         <v>European Nucleotide Archive</v>
@@ -12605,7 +12872,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A13" s="324"/>
+      <c r="A13" s="325"/>
       <c r="B13" s="243" t="str">
         <f t="shared" si="0"/>
         <v>GenBank</v>
@@ -12624,7 +12891,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A14" s="324"/>
+      <c r="A14" s="325"/>
       <c r="B14" s="243" t="str">
         <f t="shared" si="0"/>
         <v>NCBI Gene</v>
@@ -12643,7 +12910,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A15" s="324"/>
+      <c r="A15" s="325"/>
       <c r="B15" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Gene Expression Omnibus</v>
@@ -12662,7 +12929,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A16" s="324"/>
+      <c r="A16" s="325"/>
       <c r="B16" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Sequence Read Archive</v>
@@ -12681,7 +12948,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A17" s="324"/>
+      <c r="A17" s="325"/>
       <c r="B17" s="243" t="str">
         <f>HYPERLINK(E17,F17)</f>
         <v>Trace Archive</v>
@@ -12700,7 +12967,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A18" s="324"/>
+      <c r="A18" s="325"/>
       <c r="B18" s="250" t="str">
         <f>HYPERLINK(E18,F18)</f>
         <v>Genomic Expression Archive</v>
@@ -12719,7 +12986,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A19" s="324"/>
+      <c r="A19" s="325"/>
       <c r="B19" s="245" t="str">
         <f>HYPERLINK(E19,F19)</f>
         <v>Japanese Genotype-phenotype Archive</v>
@@ -12746,7 +13013,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A21" s="324" t="s">
+      <c r="A21" s="325" t="s">
         <v>363</v>
       </c>
       <c r="B21" s="241" t="str">
@@ -12767,7 +13034,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A22" s="324"/>
+      <c r="A22" s="325"/>
       <c r="B22" s="243" t="str">
         <f t="shared" si="1"/>
         <v>MedGen</v>
@@ -12786,7 +13053,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A23" s="324"/>
+      <c r="A23" s="325"/>
       <c r="B23" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Medical Subject Headings</v>
@@ -12805,7 +13072,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A24" s="324"/>
+      <c r="A24" s="325"/>
       <c r="B24" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Online Mendelian Inhertiance in Man</v>
@@ -12824,7 +13091,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A25" s="324"/>
+      <c r="A25" s="325"/>
       <c r="B25" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Systematized Nomenclature of Medicine</v>
@@ -12843,7 +13110,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A26" s="324"/>
+      <c r="A26" s="325"/>
       <c r="B26" s="245" t="str">
         <f t="shared" si="1"/>
         <v>Unified Medical Language System</v>
@@ -12870,7 +13137,7 @@
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A28" s="319" t="s">
+      <c r="A28" s="320" t="s">
         <v>364</v>
       </c>
       <c r="B28" s="241" t="str">
@@ -12891,7 +13158,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="319"/>
+      <c r="A29" s="320"/>
       <c r="B29" s="243" t="str">
         <f t="shared" ref="B29" si="3">HYPERLINK(E29,F29)</f>
         <v>BioProject Database</v>
@@ -12910,7 +13177,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A30" s="319"/>
+      <c r="A30" s="320"/>
       <c r="B30" s="243" t="str">
         <f t="shared" si="2"/>
         <v>BioSample Database</v>
@@ -12929,7 +13196,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A31" s="319"/>
+      <c r="A31" s="320"/>
       <c r="B31" s="243" t="str">
         <f t="shared" si="2"/>
         <v>PubMed</v>
@@ -12948,7 +13215,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A32" s="319"/>
+      <c r="A32" s="320"/>
       <c r="B32" s="245" t="str">
         <f t="shared" si="2"/>
         <v>GeneReviews</v>
@@ -13029,14 +13296,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="306" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
+      <c r="B1" s="321"/>
+      <c r="C1" s="321"/>
+      <c r="D1" s="321"/>
+      <c r="E1" s="321"/>
+      <c r="F1" s="321"/>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
       <c r="I1" s="85"/>
@@ -14054,30 +14321,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="267" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="270"/>
-    </row>
-    <row r="2" spans="1:9" ht="60" customHeight="1">
-      <c r="A2" s="271" t="s">
-        <v>570</v>
-      </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
-      <c r="F2" s="272"/>
-      <c r="G2" s="272"/>
-      <c r="H2" s="272"/>
-      <c r="I2" s="273"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="268"/>
+    </row>
+    <row r="2" spans="1:9" ht="47" customHeight="1">
+      <c r="A2" s="269" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="271"/>
     </row>
     <row r="3" spans="1:9" ht="17" customHeight="1">
       <c r="A3" s="16"/>
@@ -14330,6 +14597,7 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14341,7 +14609,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.796875" defaultRowHeight="14"/>
@@ -14354,25 +14622,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
-      <c r="A1" s="274" t="s">
+      <c r="A1" s="272" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="274"/>
-      <c r="C1" s="275"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="273"/>
     </row>
     <row r="2" spans="1:3" ht="28" customHeight="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="274" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
-    </row>
-    <row r="3" spans="1:3" ht="65" customHeight="1">
-      <c r="A3" s="271" t="s">
-        <v>570</v>
-      </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="273"/>
+      <c r="B2" s="274"/>
+      <c r="C2" s="275"/>
+    </row>
+    <row r="3" spans="1:3" ht="47" customHeight="1">
+      <c r="A3" s="269" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" s="270"/>
+      <c r="C3" s="271"/>
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="B4" s="167" t="s">
@@ -14536,7 +14804,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="16"/>
@@ -14547,18 +14815,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="267" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="270"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="268"/>
     </row>
     <row r="2" spans="1:4" ht="28" customHeight="1">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="276" t="s">
         <v>524</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="279"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="277"/>
     </row>
     <row r="3" spans="1:4" ht="29" customHeight="1">
       <c r="B3" s="102" t="s">
@@ -14576,8 +14844,8 @@
       <c r="C4" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="D4" s="326" t="s">
-        <v>572</v>
+      <c r="D4" s="278" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -14588,7 +14856,7 @@
       <c r="C5" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="327"/>
+      <c r="D5" s="279"/>
     </row>
     <row r="6" spans="1:4" ht="17">
       <c r="A6" s="217" t="s">
@@ -14600,7 +14868,7 @@
       <c r="C6" s="216" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="327"/>
+      <c r="D6" s="279"/>
     </row>
     <row r="7" spans="1:4" ht="34">
       <c r="A7" s="11" t="s">
@@ -14610,7 +14878,7 @@
       <c r="C7" s="146" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="327"/>
+      <c r="D7" s="279"/>
     </row>
     <row r="8" spans="1:4" ht="17">
       <c r="A8" s="11" t="s">
@@ -14620,7 +14888,7 @@
       <c r="C8" s="94" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="327"/>
+      <c r="D8" s="279"/>
     </row>
     <row r="9" spans="1:4" ht="17">
       <c r="A9" s="83" t="s">
@@ -14630,7 +14898,7 @@
       <c r="C9" s="94" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="327"/>
+      <c r="D9" s="279"/>
     </row>
     <row r="10" spans="1:4" ht="85">
       <c r="A10" s="83" t="s">
@@ -14640,7 +14908,7 @@
       <c r="C10" s="146" t="s">
         <v>502</v>
       </c>
-      <c r="D10" s="327"/>
+      <c r="D10" s="279"/>
     </row>
     <row r="11" spans="1:4" ht="51">
       <c r="A11" s="83" t="s">
@@ -14650,7 +14918,7 @@
       <c r="C11" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="D11" s="327"/>
+      <c r="D11" s="279"/>
     </row>
     <row r="12" spans="1:4" ht="17">
       <c r="A12" s="83" t="s">
@@ -14660,13 +14928,13 @@
       <c r="C12" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="327"/>
+      <c r="D12" s="279"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="185"/>
       <c r="B13" s="185"/>
       <c r="C13" s="186"/>
-      <c r="D13" s="328"/>
+      <c r="D13" s="280"/>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="51"/>
@@ -14723,17 +14991,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="31">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="267" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="269"/>
-      <c r="F1" s="269"/>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
+      <c r="D1" s="267"/>
+      <c r="E1" s="267"/>
+      <c r="F1" s="267"/>
+      <c r="G1" s="267"/>
+      <c r="H1" s="267"/>
+      <c r="I1" s="267"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -14745,17 +15013,17 @@
       <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="29" customHeight="1">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="276" t="s">
         <v>475</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
@@ -14767,30 +15035,30 @@
       <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" s="103" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="284" t="s">
         <v>418</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="280" t="s">
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="285"/>
+      <c r="F3" s="281" t="s">
         <v>419</v>
       </c>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="285" t="s">
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="286" t="s">
         <v>420</v>
       </c>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
+      <c r="R3" s="286"/>
     </row>
     <row r="4" spans="1:18" ht="16" customHeight="1">
       <c r="A4" s="50" t="s">
@@ -16983,16 +17251,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="289" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="289"/>
+      <c r="B1" s="290"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="287" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="287"/>
+      <c r="B2" s="288"/>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="147" t="s">
@@ -17192,17 +17460,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="9" customFormat="1" ht="37" customHeight="1">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="291" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
@@ -17216,17 +17484,17 @@
       <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="292" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292"/>
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
@@ -18507,16 +18775,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="291" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="293"/>
+      <c r="B1" s="294"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="287" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="292"/>
+      <c r="B2" s="293"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="147" t="s">
@@ -19052,23 +19320,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="35">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="295" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -19091,23 +19359,23 @@
       <c r="AI1" s="56"/>
     </row>
     <row r="2" spans="1:35" ht="28" customHeight="1">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="276" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="278"/>
-      <c r="K2" s="278"/>
-      <c r="L2" s="278"/>
-      <c r="M2" s="278"/>
-      <c r="N2" s="278"/>
-      <c r="O2" s="278"/>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="276"/>
+      <c r="E2" s="276"/>
+      <c r="F2" s="276"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="276"/>
+      <c r="L2" s="276"/>
+      <c r="M2" s="276"/>
+      <c r="N2" s="276"/>
+      <c r="O2" s="276"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
@@ -19129,84 +19397,65 @@
       <c r="AH2" s="55"/>
       <c r="AI2" s="57"/>
     </row>
-    <row r="3" spans="1:35" ht="59" customHeight="1">
-      <c r="A3" s="271" t="s">
-        <v>569</v>
-      </c>
-      <c r="B3" s="272"/>
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="273"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="55"/>
-      <c r="AD3" s="55"/>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="55"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="55"/>
-      <c r="AI3" s="57"/>
+    <row r="3" spans="1:35" s="166" customFormat="1" ht="47" customHeight="1">
+      <c r="A3" s="269" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" s="270"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="271"/>
     </row>
     <row r="4" spans="1:35" s="103" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="295" t="s">
+      <c r="A4" s="296" t="s">
         <v>526</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="280" t="s">
+      <c r="B4" s="284"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="285"/>
+      <c r="F4" s="281" t="s">
         <v>350</v>
       </c>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="280" t="s">
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
+      <c r="M4" s="282"/>
+      <c r="N4" s="282"/>
+      <c r="O4" s="283"/>
+      <c r="P4" s="281" t="s">
         <v>525</v>
       </c>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="281"/>
-      <c r="S4" s="281"/>
-      <c r="T4" s="281"/>
-      <c r="U4" s="281"/>
-      <c r="V4" s="281"/>
-      <c r="W4" s="281"/>
-      <c r="X4" s="281"/>
-      <c r="Y4" s="282"/>
-      <c r="Z4" s="296" t="s">
+      <c r="Q4" s="282"/>
+      <c r="R4" s="282"/>
+      <c r="S4" s="282"/>
+      <c r="T4" s="282"/>
+      <c r="U4" s="282"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="282"/>
+      <c r="Y4" s="283"/>
+      <c r="Z4" s="297" t="s">
         <v>431</v>
       </c>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="297"/>
-      <c r="AC4" s="297"/>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="297"/>
-      <c r="AI4" s="298"/>
+      <c r="AA4" s="298"/>
+      <c r="AB4" s="298"/>
+      <c r="AC4" s="298"/>
+      <c r="AD4" s="298"/>
+      <c r="AE4" s="298"/>
+      <c r="AF4" s="298"/>
+      <c r="AG4" s="298"/>
+      <c r="AH4" s="298"/>
+      <c r="AI4" s="299"/>
     </row>
     <row r="5" spans="1:35" ht="16" customHeight="1">
       <c r="A5" s="50" t="s">
@@ -23023,7 +23272,7 @@
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="Z4:AI4"/>
     <mergeCell ref="P4:Y4"/>
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <dataValidations xWindow="1284" yWindow="511" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B105" xr:uid="{00000000-0002-0000-0800-000000000000}">
@@ -23038,5 +23287,6 @@
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/specs/dbVarSubmissionTemplate_v3.5.xlsx
+++ b/specs/dbVarSubmissionTemplate_v3.5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theffero/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180D0596-AEE2-4246-918F-13DAE5EA7A93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C138A-A465-1940-850B-745109E24824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8540" yWindow="460" windowWidth="34120" windowHeight="27040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
     <definedName name="MethodType">' CVs'!#REF!</definedName>
     <definedName name="MethodTypeCV" localSheetId="10">'[1] CVs'!$E$4:$E$26</definedName>
     <definedName name="MethodTypeCV" localSheetId="11">'[1] CVs'!$E$4:$E$26</definedName>
-    <definedName name="MethodTypeCV">' CVs'!$E$4:$E$25</definedName>
+    <definedName name="MethodTypeCV">' CVs'!$E$4:$E$26</definedName>
     <definedName name="ModeOfInheritanceCV" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="ModeOfInheritanceCV" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="ModeOfInheritanceCV">' CVs'!#REF!</definedName>
@@ -129,7 +129,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -140,7 +142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="574">
   <si>
     <t>CONTACTS</t>
   </si>
@@ -5374,9 +5376,6 @@
     <t>GEA:E-GEAD-307</t>
   </si>
   <si>
-    <t>v3.5 December 2019</t>
-  </si>
-  <si>
     <t>Copy this entire section for each additional sampleset needed</t>
   </si>
   <si>
@@ -5404,9 +5403,6 @@
       </rPr>
       <t>.</t>
     </r>
-  </si>
-  <si>
-    <t>(v3.5.123119)</t>
   </si>
   <si>
     <r>
@@ -5506,22 +5502,24 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>v3.5 Jabuary 2020</t>
+  </si>
+  <si>
+    <t>(v3.5.01242020)</t>
+  </si>
+  <si>
+    <t>ddPCR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="71">
+  <fonts count="70">
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -6977,464 +6975,464 @@
   </borders>
   <cellStyleXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="327">
+  <cellXfs count="328">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -7447,57 +7445,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7509,91 +7507,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="15" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="33" xfId="176" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="33" xfId="176" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="33" xfId="176" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7602,88 +7600,88 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="13" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7695,92 +7693,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="32" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7789,114 +7787,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7913,298 +7911,299 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="408" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="408" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="409">
     <cellStyle name="Explanatory Text" xfId="62" builtinId="53"/>
@@ -10094,7 +10093,7 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AS30" sqref="AS30"/>
+      <selection activeCell="AG67" sqref="AG67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
@@ -10104,10 +10103,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="253" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="255"/>
+      <c r="B1" s="254"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10122,42 +10121,42 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="127" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="252" t="s">
-        <v>567</v>
+      <c r="A2" s="325" t="s">
+        <v>571</v>
       </c>
       <c r="B2" s="326" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1">
-      <c r="A3" s="259" t="s">
+      <c r="A3" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="260"/>
+      <c r="B3" s="259"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="65" customHeight="1">
-      <c r="A4" s="269" t="s">
-        <v>569</v>
-      </c>
-      <c r="B4" s="271"/>
+      <c r="A4" s="266" t="s">
+        <v>568</v>
+      </c>
+      <c r="B4" s="267"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="9" customFormat="1" ht="74" customHeight="1">
-      <c r="A5" s="256" t="s">
+      <c r="A5" s="255" t="s">
         <v>531</v>
       </c>
-      <c r="B5" s="257"/>
+      <c r="B5" s="256"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="263" t="s">
+      <c r="A6" s="262" t="s">
         <v>353</v>
       </c>
-      <c r="B6" s="264"/>
+      <c r="B6" s="263"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
@@ -10186,19 +10185,19 @@
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:14" s="10" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="265" t="s">
+      <c r="A10" s="264" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="266"/>
+      <c r="B10" s="265"/>
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
-      <c r="E10" s="253"/>
+      <c r="E10" s="252"/>
     </row>
     <row r="11" spans="1:14" s="10" customFormat="1" ht="48" customHeight="1">
-      <c r="A11" s="258" t="s">
+      <c r="A11" s="257" t="s">
         <v>517</v>
       </c>
-      <c r="B11" s="257"/>
+      <c r="B11" s="256"/>
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
     </row>
@@ -10223,10 +10222,10 @@
       <c r="B14" s="106"/>
     </row>
     <row r="15" spans="1:14" ht="37" customHeight="1">
-      <c r="A15" s="261" t="s">
+      <c r="A15" s="260" t="s">
         <v>325</v>
       </c>
-      <c r="B15" s="262"/>
+      <c r="B15" s="261"/>
     </row>
     <row r="16" spans="1:14" ht="26" customHeight="1">
       <c r="A16" s="107" t="s">
@@ -10304,7 +10303,7 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -10329,16 +10328,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="307"/>
+      <c r="B1" s="306"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="308" t="s">
+      <c r="A2" s="307" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="277"/>
+      <c r="B2" s="276"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="145"/>
@@ -10389,16 +10388,16 @@
       <c r="B9" s="95"/>
     </row>
     <row r="10" spans="1:2" ht="64" customHeight="1">
-      <c r="A10" s="309" t="s">
+      <c r="A10" s="308" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="310"/>
+      <c r="B10" s="309"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1">
-      <c r="A11" s="311" t="s">
+      <c r="A11" s="310" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="312"/>
+      <c r="B11" s="311"/>
     </row>
     <row r="12" spans="1:2" ht="16" customHeight="1"/>
     <row r="13" spans="1:2" ht="18" customHeight="1">
@@ -10429,7 +10428,7 @@
       <c r="A16" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="300" t="s">
+      <c r="B16" s="299" t="s">
         <v>398</v>
       </c>
     </row>
@@ -10437,31 +10436,31 @@
       <c r="A17" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="301"/>
+      <c r="B17" s="300"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1">
       <c r="A18" s="143" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="301"/>
+      <c r="B18" s="300"/>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1">
       <c r="A19" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="301"/>
+      <c r="B19" s="300"/>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1">
       <c r="A20" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="301"/>
+      <c r="B20" s="300"/>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1">
       <c r="A21" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="302"/>
+      <c r="B21" s="301"/>
     </row>
     <row r="22" spans="1:2" ht="102">
       <c r="A22" s="143" t="s">
@@ -10556,7 +10555,7 @@
       <c r="A35" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="303" t="s">
+      <c r="B35" s="302" t="s">
         <v>510</v>
       </c>
     </row>
@@ -10564,55 +10563,55 @@
       <c r="A36" s="144" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="304"/>
+      <c r="B36" s="303"/>
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1">
       <c r="A37" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B37" s="304"/>
+      <c r="B37" s="303"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1">
       <c r="A38" s="144" t="s">
         <v>435</v>
       </c>
-      <c r="B38" s="304"/>
+      <c r="B38" s="303"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1">
       <c r="A39" s="144" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="304"/>
+      <c r="B39" s="303"/>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1">
       <c r="A40" s="144" t="s">
         <v>436</v>
       </c>
-      <c r="B40" s="304"/>
+      <c r="B40" s="303"/>
     </row>
     <row r="41" spans="1:2" ht="18" customHeight="1">
       <c r="A41" s="144" t="s">
         <v>437</v>
       </c>
-      <c r="B41" s="304"/>
+      <c r="B41" s="303"/>
     </row>
     <row r="42" spans="1:2" ht="18" customHeight="1">
       <c r="A42" s="144" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="304"/>
+      <c r="B42" s="303"/>
     </row>
     <row r="43" spans="1:2" ht="18" customHeight="1">
       <c r="A43" s="144" t="s">
         <v>438</v>
       </c>
-      <c r="B43" s="304"/>
+      <c r="B43" s="303"/>
     </row>
     <row r="44" spans="1:2" ht="18" customHeight="1">
       <c r="A44" s="144" t="s">
         <v>509</v>
       </c>
-      <c r="B44" s="305"/>
+      <c r="B44" s="304"/>
     </row>
     <row r="45" spans="1:2" ht="18" customHeight="1"/>
   </sheetData>
@@ -10661,65 +10660,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="294" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
       <c r="M1" s="228"/>
       <c r="N1" s="228"/>
       <c r="O1" s="229"/>
     </row>
     <row r="2" spans="1:15" ht="28" customHeight="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="275" t="s">
         <v>537</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="277"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="276"/>
     </row>
     <row r="3" spans="1:15" ht="33" customHeight="1">
-      <c r="A3" s="313" t="s">
+      <c r="A3" s="312" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="314"/>
-      <c r="C3" s="314"/>
-      <c r="D3" s="296" t="s">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="295" t="s">
         <v>350</v>
       </c>
-      <c r="E3" s="284"/>
-      <c r="F3" s="284"/>
-      <c r="G3" s="284"/>
-      <c r="H3" s="284"/>
-      <c r="I3" s="284"/>
-      <c r="J3" s="284"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="296" t="s">
+      <c r="E3" s="283"/>
+      <c r="F3" s="283"/>
+      <c r="G3" s="283"/>
+      <c r="H3" s="283"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="283"/>
+      <c r="L3" s="284"/>
+      <c r="M3" s="295" t="s">
         <v>539</v>
       </c>
-      <c r="N3" s="284"/>
-      <c r="O3" s="285"/>
+      <c r="N3" s="283"/>
+      <c r="O3" s="284"/>
     </row>
     <row r="4" spans="1:15" ht="16" customHeight="1">
       <c r="A4" s="230" t="s">
@@ -12503,16 +12502,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>545</v>
       </c>
-      <c r="B1" s="307"/>
+      <c r="B1" s="306"/>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="315" t="s">
+      <c r="A2" s="314" t="s">
         <v>546</v>
       </c>
-      <c r="B2" s="316"/>
+      <c r="B2" s="315"/>
     </row>
     <row r="3" spans="1:2" ht="16">
       <c r="A3" s="233"/>
@@ -12574,7 +12573,7 @@
       <c r="A11" s="235" t="s">
         <v>221</v>
       </c>
-      <c r="B11" s="317" t="s">
+      <c r="B11" s="316" t="s">
         <v>552</v>
       </c>
     </row>
@@ -12582,31 +12581,31 @@
       <c r="A12" s="235" t="s">
         <v>222</v>
       </c>
-      <c r="B12" s="317"/>
+      <c r="B12" s="316"/>
     </row>
     <row r="13" spans="1:2" ht="16">
       <c r="A13" s="235" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="317"/>
+      <c r="B13" s="316"/>
     </row>
     <row r="14" spans="1:2" ht="16">
       <c r="A14" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="317"/>
+      <c r="B14" s="316"/>
     </row>
     <row r="15" spans="1:2" ht="16">
       <c r="A15" s="235" t="s">
         <v>225</v>
       </c>
-      <c r="B15" s="317"/>
+      <c r="B15" s="316"/>
     </row>
     <row r="16" spans="1:2" ht="16">
       <c r="A16" s="235" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="317"/>
+      <c r="B16" s="316"/>
     </row>
     <row r="17" spans="1:2" ht="16">
       <c r="A17" s="236"/>
@@ -12637,10 +12636,10 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="39" customHeight="1">
-      <c r="A22" s="318" t="s">
+      <c r="A22" s="317" t="s">
         <v>556</v>
       </c>
-      <c r="B22" s="319"/>
+      <c r="B22" s="318"/>
     </row>
   </sheetData>
   <sheetProtection password="C4EE" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12677,12 +12676,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="307"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="306"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -12690,12 +12689,12 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" s="239" customFormat="1" ht="67" customHeight="1">
-      <c r="A2" s="322" t="s">
+      <c r="A2" s="321" t="s">
         <v>557</v>
       </c>
-      <c r="B2" s="323"/>
-      <c r="C2" s="323"/>
-      <c r="D2" s="324"/>
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="323"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
       <c r="G2" s="103"/>
@@ -12718,7 +12717,7 @@
       <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A5" s="325" t="s">
+      <c r="A5" s="324" t="s">
         <v>362</v>
       </c>
       <c r="B5" s="241" t="str">
@@ -12739,7 +12738,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A6" s="325"/>
+      <c r="A6" s="324"/>
       <c r="B6" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genotypes and Phenotypes</v>
@@ -12758,7 +12757,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A7" s="325"/>
+      <c r="A7" s="324"/>
       <c r="B7" s="243" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP (Short Genetic Variations)</v>
@@ -12777,7 +12776,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A8" s="325"/>
+      <c r="A8" s="324"/>
       <c r="B8" s="243" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP Batch ID</v>
@@ -12796,7 +12795,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A9" s="325"/>
+      <c r="A9" s="324"/>
       <c r="B9" s="243" t="str">
         <f t="shared" si="0"/>
         <v>DNA Databank of Japan</v>
@@ -12815,7 +12814,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A10" s="325"/>
+      <c r="A10" s="324"/>
       <c r="B10" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genomic Variants</v>
@@ -12834,7 +12833,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A11" s="325"/>
+      <c r="A11" s="324"/>
       <c r="B11" s="243" t="str">
         <f t="shared" si="0"/>
         <v>European Genome-phenome Archive</v>
@@ -12853,7 +12852,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A12" s="325"/>
+      <c r="A12" s="324"/>
       <c r="B12" s="243" t="str">
         <f t="shared" si="0"/>
         <v>European Nucleotide Archive</v>
@@ -12872,7 +12871,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A13" s="325"/>
+      <c r="A13" s="324"/>
       <c r="B13" s="243" t="str">
         <f t="shared" si="0"/>
         <v>GenBank</v>
@@ -12891,7 +12890,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A14" s="325"/>
+      <c r="A14" s="324"/>
       <c r="B14" s="243" t="str">
         <f t="shared" si="0"/>
         <v>NCBI Gene</v>
@@ -12910,7 +12909,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A15" s="325"/>
+      <c r="A15" s="324"/>
       <c r="B15" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Gene Expression Omnibus</v>
@@ -12929,7 +12928,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A16" s="325"/>
+      <c r="A16" s="324"/>
       <c r="B16" s="243" t="str">
         <f t="shared" si="0"/>
         <v>Sequence Read Archive</v>
@@ -12948,7 +12947,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A17" s="325"/>
+      <c r="A17" s="324"/>
       <c r="B17" s="243" t="str">
         <f>HYPERLINK(E17,F17)</f>
         <v>Trace Archive</v>
@@ -12967,7 +12966,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A18" s="325"/>
+      <c r="A18" s="324"/>
       <c r="B18" s="250" t="str">
         <f>HYPERLINK(E18,F18)</f>
         <v>Genomic Expression Archive</v>
@@ -12986,7 +12985,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A19" s="325"/>
+      <c r="A19" s="324"/>
       <c r="B19" s="245" t="str">
         <f>HYPERLINK(E19,F19)</f>
         <v>Japanese Genotype-phenotype Archive</v>
@@ -13013,7 +13012,7 @@
       <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A21" s="325" t="s">
+      <c r="A21" s="324" t="s">
         <v>363</v>
       </c>
       <c r="B21" s="241" t="str">
@@ -13034,7 +13033,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A22" s="325"/>
+      <c r="A22" s="324"/>
       <c r="B22" s="243" t="str">
         <f t="shared" si="1"/>
         <v>MedGen</v>
@@ -13053,7 +13052,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A23" s="325"/>
+      <c r="A23" s="324"/>
       <c r="B23" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Medical Subject Headings</v>
@@ -13072,7 +13071,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A24" s="325"/>
+      <c r="A24" s="324"/>
       <c r="B24" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Online Mendelian Inhertiance in Man</v>
@@ -13091,7 +13090,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A25" s="325"/>
+      <c r="A25" s="324"/>
       <c r="B25" s="243" t="str">
         <f t="shared" si="1"/>
         <v>Systematized Nomenclature of Medicine</v>
@@ -13110,7 +13109,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A26" s="325"/>
+      <c r="A26" s="324"/>
       <c r="B26" s="245" t="str">
         <f t="shared" si="1"/>
         <v>Unified Medical Language System</v>
@@ -13137,7 +13136,7 @@
       <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A28" s="320" t="s">
+      <c r="A28" s="319" t="s">
         <v>364</v>
       </c>
       <c r="B28" s="241" t="str">
@@ -13158,7 +13157,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="320"/>
+      <c r="A29" s="319"/>
       <c r="B29" s="243" t="str">
         <f t="shared" ref="B29" si="3">HYPERLINK(E29,F29)</f>
         <v>BioProject Database</v>
@@ -13177,7 +13176,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A30" s="320"/>
+      <c r="A30" s="319"/>
       <c r="B30" s="243" t="str">
         <f t="shared" si="2"/>
         <v>BioSample Database</v>
@@ -13196,7 +13195,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A31" s="320"/>
+      <c r="A31" s="319"/>
       <c r="B31" s="243" t="str">
         <f t="shared" si="2"/>
         <v>PubMed</v>
@@ -13215,7 +13214,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A32" s="320"/>
+      <c r="A32" s="319"/>
       <c r="B32" s="245" t="str">
         <f t="shared" si="2"/>
         <v>GeneReviews</v>
@@ -13271,7 +13270,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="Y88" sqref="Y88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
@@ -13296,14 +13295,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="321"/>
-      <c r="F1" s="321"/>
+      <c r="B1" s="320"/>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="320"/>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
       <c r="I1" s="85"/>
@@ -13506,8 +13505,8 @@
       <c r="D6" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>272</v>
+      <c r="E6" s="327" t="s">
+        <v>573</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>267</v>
@@ -13551,7 +13550,7 @@
         <v>369</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>278</v>
@@ -13591,7 +13590,7 @@
         <v>203</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>290</v>
+        <v>93</v>
       </c>
       <c r="F8" s="14" t="s">
         <v>286</v>
@@ -13629,7 +13628,7 @@
         <v>205</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>97</v>
+        <v>290</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>296</v>
@@ -13665,7 +13664,7 @@
         <v>147</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>289</v>
@@ -13699,7 +13698,7 @@
         <v>149</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>304</v>
@@ -13729,7 +13728,7 @@
         <v>152</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
@@ -13757,7 +13756,7 @@
         <v>370</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>371</v>
+        <v>103</v>
       </c>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
@@ -13785,7 +13784,7 @@
         <v>154</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>107</v>
+        <v>371</v>
       </c>
       <c r="F14" s="14"/>
       <c r="G14" s="14"/>
@@ -13813,7 +13812,7 @@
         <v>158</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>310</v>
+        <v>107</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -13841,7 +13840,7 @@
         <v>162</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>83</v>
+        <v>310</v>
       </c>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
@@ -13869,7 +13868,7 @@
         <v>166</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
@@ -13895,7 +13894,7 @@
         <v>170</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>111</v>
+        <v>308</v>
       </c>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
@@ -13921,7 +13920,7 @@
         <v>173</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>315</v>
+        <v>111</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -13947,7 +13946,7 @@
         <v>214</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
@@ -13973,7 +13972,7 @@
         <v>176</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>318</v>
+        <v>115</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -13999,7 +13998,7 @@
         <v>186</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>81</v>
+        <v>318</v>
       </c>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -14025,7 +14024,7 @@
         <v>208</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>321</v>
+        <v>81</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -14049,7 +14048,7 @@
         <v>189</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>372</v>
+        <v>321</v>
       </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
@@ -14073,7 +14072,7 @@
         <v>192</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
@@ -14096,7 +14095,9 @@
       <c r="D26" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="14" t="s">
+        <v>373</v>
+      </c>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -14321,21 +14322,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="268" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="269"/>
     </row>
     <row r="2" spans="1:9" ht="47" customHeight="1">
-      <c r="A2" s="269" t="s">
-        <v>571</v>
+      <c r="A2" s="266" t="s">
+        <v>569</v>
       </c>
       <c r="B2" s="270"/>
       <c r="C2" s="270"/>
@@ -14344,7 +14345,7 @@
       <c r="F2" s="270"/>
       <c r="G2" s="270"/>
       <c r="H2" s="270"/>
-      <c r="I2" s="271"/>
+      <c r="I2" s="267"/>
     </row>
     <row r="3" spans="1:9" ht="17" customHeight="1">
       <c r="A3" s="16"/>
@@ -14622,25 +14623,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="271" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="273"/>
+      <c r="B1" s="271"/>
+      <c r="C1" s="272"/>
     </row>
     <row r="2" spans="1:3" ht="28" customHeight="1">
-      <c r="A2" s="274" t="s">
+      <c r="A2" s="273" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="274"/>
-      <c r="C2" s="275"/>
+      <c r="B2" s="273"/>
+      <c r="C2" s="274"/>
     </row>
     <row r="3" spans="1:3" ht="47" customHeight="1">
-      <c r="A3" s="269" t="s">
-        <v>572</v>
+      <c r="A3" s="266" t="s">
+        <v>570</v>
       </c>
       <c r="B3" s="270"/>
-      <c r="C3" s="271"/>
+      <c r="C3" s="267"/>
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="B4" s="167" t="s">
@@ -14815,18 +14816,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="268" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="268"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="269"/>
     </row>
     <row r="2" spans="1:4" ht="28" customHeight="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="275" t="s">
         <v>524</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="277"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="276"/>
     </row>
     <row r="3" spans="1:4" ht="29" customHeight="1">
       <c r="B3" s="102" t="s">
@@ -14844,8 +14845,8 @@
       <c r="C4" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="D4" s="278" t="s">
-        <v>568</v>
+      <c r="D4" s="277" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -14856,7 +14857,7 @@
       <c r="C5" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="279"/>
+      <c r="D5" s="278"/>
     </row>
     <row r="6" spans="1:4" ht="17">
       <c r="A6" s="217" t="s">
@@ -14868,7 +14869,7 @@
       <c r="C6" s="216" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="279"/>
+      <c r="D6" s="278"/>
     </row>
     <row r="7" spans="1:4" ht="34">
       <c r="A7" s="11" t="s">
@@ -14878,7 +14879,7 @@
       <c r="C7" s="146" t="s">
         <v>501</v>
       </c>
-      <c r="D7" s="279"/>
+      <c r="D7" s="278"/>
     </row>
     <row r="8" spans="1:4" ht="17">
       <c r="A8" s="11" t="s">
@@ -14888,7 +14889,7 @@
       <c r="C8" s="94" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="279"/>
+      <c r="D8" s="278"/>
     </row>
     <row r="9" spans="1:4" ht="17">
       <c r="A9" s="83" t="s">
@@ -14898,7 +14899,7 @@
       <c r="C9" s="94" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="279"/>
+      <c r="D9" s="278"/>
     </row>
     <row r="10" spans="1:4" ht="85">
       <c r="A10" s="83" t="s">
@@ -14908,7 +14909,7 @@
       <c r="C10" s="146" t="s">
         <v>502</v>
       </c>
-      <c r="D10" s="279"/>
+      <c r="D10" s="278"/>
     </row>
     <row r="11" spans="1:4" ht="51">
       <c r="A11" s="83" t="s">
@@ -14918,7 +14919,7 @@
       <c r="C11" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="D11" s="279"/>
+      <c r="D11" s="278"/>
     </row>
     <row r="12" spans="1:4" ht="17">
       <c r="A12" s="83" t="s">
@@ -14928,13 +14929,13 @@
       <c r="C12" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="279"/>
+      <c r="D12" s="278"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="185"/>
       <c r="B13" s="185"/>
       <c r="C13" s="186"/>
-      <c r="D13" s="280"/>
+      <c r="D13" s="279"/>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="51"/>
@@ -14991,17 +14992,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="31">
-      <c r="A1" s="267" t="s">
+      <c r="A1" s="268" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="267"/>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="267"/>
-      <c r="G1" s="267"/>
-      <c r="H1" s="267"/>
-      <c r="I1" s="267"/>
+      <c r="B1" s="268"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -15013,17 +15014,17 @@
       <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="29" customHeight="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="275" t="s">
         <v>475</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
@@ -15035,30 +15036,30 @@
       <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" s="103" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="284" t="s">
+      <c r="A3" s="283" t="s">
         <v>418</v>
       </c>
-      <c r="B3" s="284"/>
-      <c r="C3" s="284"/>
-      <c r="D3" s="284"/>
-      <c r="E3" s="285"/>
-      <c r="F3" s="281" t="s">
+      <c r="B3" s="283"/>
+      <c r="C3" s="283"/>
+      <c r="D3" s="283"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="280" t="s">
         <v>419</v>
       </c>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="286" t="s">
+      <c r="G3" s="281"/>
+      <c r="H3" s="281"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="285" t="s">
         <v>420</v>
       </c>
-      <c r="K3" s="286"/>
-      <c r="L3" s="286"/>
-      <c r="M3" s="286"/>
-      <c r="N3" s="286"/>
-      <c r="O3" s="286"/>
-      <c r="P3" s="286"/>
-      <c r="Q3" s="286"/>
-      <c r="R3" s="286"/>
+      <c r="K3" s="285"/>
+      <c r="L3" s="285"/>
+      <c r="M3" s="285"/>
+      <c r="N3" s="285"/>
+      <c r="O3" s="285"/>
+      <c r="P3" s="285"/>
+      <c r="Q3" s="285"/>
+      <c r="R3" s="285"/>
     </row>
     <row r="4" spans="1:18" ht="16" customHeight="1">
       <c r="A4" s="50" t="s">
@@ -17216,7 +17217,7 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="J3:R3"/>
   </mergeCells>
-  <phoneticPr fontId="34" type="noConversion"/>
+  <phoneticPr fontId="33" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J103" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>CollectionCV</formula1>
@@ -17251,16 +17252,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="288" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="290"/>
+      <c r="B1" s="289"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="286" t="s">
         <v>528</v>
       </c>
-      <c r="B2" s="288"/>
+      <c r="B2" s="287"/>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="147" t="s">
@@ -17460,17 +17461,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="9" customFormat="1" ht="37" customHeight="1">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="290" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
@@ -17484,17 +17485,17 @@
       <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="291" t="s">
         <v>508</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
@@ -18775,16 +18776,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="290" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="294"/>
+      <c r="B1" s="293"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="286" t="s">
         <v>504</v>
       </c>
-      <c r="B2" s="293"/>
+      <c r="B2" s="292"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="147" t="s">
@@ -19320,23 +19321,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="35">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="294" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -19359,23 +19360,23 @@
       <c r="AI1" s="56"/>
     </row>
     <row r="2" spans="1:35" ht="28" customHeight="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="275" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="276"/>
-      <c r="I2" s="276"/>
-      <c r="J2" s="276"/>
-      <c r="K2" s="276"/>
-      <c r="L2" s="276"/>
-      <c r="M2" s="276"/>
-      <c r="N2" s="276"/>
-      <c r="O2" s="276"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
@@ -19398,8 +19399,8 @@
       <c r="AI2" s="57"/>
     </row>
     <row r="3" spans="1:35" s="166" customFormat="1" ht="47" customHeight="1">
-      <c r="A3" s="269" t="s">
-        <v>572</v>
+      <c r="A3" s="266" t="s">
+        <v>570</v>
       </c>
       <c r="B3" s="270"/>
       <c r="C3" s="270"/>
@@ -19410,52 +19411,52 @@
       <c r="H3" s="270"/>
       <c r="I3" s="270"/>
       <c r="J3" s="270"/>
-      <c r="K3" s="271"/>
+      <c r="K3" s="267"/>
     </row>
     <row r="4" spans="1:35" s="103" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="295" t="s">
         <v>526</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="281" t="s">
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="280" t="s">
         <v>350</v>
       </c>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="283"/>
-      <c r="P4" s="281" t="s">
+      <c r="G4" s="281"/>
+      <c r="H4" s="281"/>
+      <c r="I4" s="281"/>
+      <c r="J4" s="281"/>
+      <c r="K4" s="281"/>
+      <c r="L4" s="281"/>
+      <c r="M4" s="281"/>
+      <c r="N4" s="281"/>
+      <c r="O4" s="282"/>
+      <c r="P4" s="280" t="s">
         <v>525</v>
       </c>
-      <c r="Q4" s="282"/>
-      <c r="R4" s="282"/>
-      <c r="S4" s="282"/>
-      <c r="T4" s="282"/>
-      <c r="U4" s="282"/>
-      <c r="V4" s="282"/>
-      <c r="W4" s="282"/>
-      <c r="X4" s="282"/>
-      <c r="Y4" s="283"/>
-      <c r="Z4" s="297" t="s">
+      <c r="Q4" s="281"/>
+      <c r="R4" s="281"/>
+      <c r="S4" s="281"/>
+      <c r="T4" s="281"/>
+      <c r="U4" s="281"/>
+      <c r="V4" s="281"/>
+      <c r="W4" s="281"/>
+      <c r="X4" s="281"/>
+      <c r="Y4" s="282"/>
+      <c r="Z4" s="296" t="s">
         <v>431</v>
       </c>
-      <c r="AA4" s="298"/>
-      <c r="AB4" s="298"/>
-      <c r="AC4" s="298"/>
-      <c r="AD4" s="298"/>
-      <c r="AE4" s="298"/>
-      <c r="AF4" s="298"/>
-      <c r="AG4" s="298"/>
-      <c r="AH4" s="298"/>
-      <c r="AI4" s="299"/>
+      <c r="AA4" s="297"/>
+      <c r="AB4" s="297"/>
+      <c r="AC4" s="297"/>
+      <c r="AD4" s="297"/>
+      <c r="AE4" s="297"/>
+      <c r="AF4" s="297"/>
+      <c r="AG4" s="297"/>
+      <c r="AH4" s="297"/>
+      <c r="AI4" s="298"/>
     </row>
     <row r="5" spans="1:35" ht="16" customHeight="1">
       <c r="A5" s="50" t="s">

--- a/specs/dbVarSubmissionTemplate_v3.5.xlsx
+++ b/specs/dbVarSubmissionTemplate_v3.5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theffero/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theffero/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59C138A-A465-1940-850B-745109E24824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B6A236-471F-F549-80AB-615D272C5BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8540" yWindow="460" windowWidth="34120" windowHeight="27040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="41680" windowHeight="27040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="EXPERIMENTS HELP" sheetId="22" r:id="rId8"/>
     <sheet name="VARIANT CALLS" sheetId="7" r:id="rId9"/>
     <sheet name="VARIANT CALLS HELP" sheetId="28" r:id="rId10"/>
-    <sheet name="VARIANT REGIONS" sheetId="29" r:id="rId11"/>
+    <sheet name="VARIANT REGIONS" sheetId="31" r:id="rId11"/>
     <sheet name="VARIANT REGIONS HELP" sheetId="30" r:id="rId12"/>
     <sheet name="LINKS " sheetId="9" r:id="rId13"/>
     <sheet name=" CVs" sheetId="10" state="hidden" r:id="rId14"/>
@@ -32,92 +32,64 @@
     <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
-    <definedName name="AnalysisType" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="AnalysisType" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="AnalysisType">' CVs'!#REF!</definedName>
-    <definedName name="AnalysisTypeCV" localSheetId="10">'[1] CVs'!$A$4:$A$24</definedName>
     <definedName name="AnalysisTypeCV" localSheetId="11">'[1] CVs'!$A$4:$A$24</definedName>
     <definedName name="AnalysisTypeCV">' CVs'!$A$4:$A$23</definedName>
     <definedName name="BooleanCV">' CVs'!$Q$4:$Q$5</definedName>
-    <definedName name="ClinicalSignificancCV" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="ClinicalSignificancCV" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="ClinicalSignificancCV">' CVs'!#REF!</definedName>
-    <definedName name="ClinicalSignificanceCV" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="ClinicalSignificanceCV" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="ClinicalSignificanceCV">' CVs'!#REF!</definedName>
-    <definedName name="Collection" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="Collection" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="Collection">' CVs'!#REF!</definedName>
-    <definedName name="CollectionCV" localSheetId="10">'[1] CVs'!$B$4:$B$12</definedName>
     <definedName name="CollectionCV" localSheetId="11">'[1] CVs'!$B$4:$B$12</definedName>
     <definedName name="CollectionCV">' CVs'!$B$4:$B$11</definedName>
-    <definedName name="ContactRole" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="ContactRole" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="ContactRole">' CVs'!#REF!</definedName>
-    <definedName name="ContactRoleCV" localSheetId="10">'[1] CVs'!$C$4:$C$9</definedName>
     <definedName name="ContactRoleCV" localSheetId="11">'[1] CVs'!$C$4:$C$9</definedName>
     <definedName name="ContactRoleCV">' CVs'!$C$4:$C$8</definedName>
     <definedName name="LinkDbCV">' CVs'!$D$4:$D$32</definedName>
-    <definedName name="MethodType" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="MethodType" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="MethodType">' CVs'!#REF!</definedName>
-    <definedName name="MethodTypeCV" localSheetId="10">'[1] CVs'!$E$4:$E$26</definedName>
     <definedName name="MethodTypeCV" localSheetId="11">'[1] CVs'!$E$4:$E$26</definedName>
     <definedName name="MethodTypeCV">' CVs'!$E$4:$E$26</definedName>
-    <definedName name="ModeOfInheritanceCV" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="ModeOfInheritanceCV" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="ModeOfInheritanceCV">' CVs'!#REF!</definedName>
-    <definedName name="OriginCV" localSheetId="10">'[1] CVs'!$F$4:$F$12</definedName>
     <definedName name="OriginCV" localSheetId="11">'[1] CVs'!$F$4:$F$12</definedName>
     <definedName name="OriginCV">' CVs'!$F$4:$F$11</definedName>
     <definedName name="RecipientStatusCV">' CVs'!$G$4:$G$5</definedName>
-    <definedName name="ReferenceTypeCV" localSheetId="10">'[1] CVs'!$H$4:$H$9</definedName>
     <definedName name="ReferenceTypeCV" localSheetId="11">'[1] CVs'!$H$4:$H$9</definedName>
     <definedName name="ReferenceTypeCV">' CVs'!$H$4:$H$8</definedName>
-    <definedName name="RefType" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="RefType" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="RefType">' CVs'!#REF!</definedName>
-    <definedName name="Role" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="Role" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="Role">' CVs'!#REF!</definedName>
-    <definedName name="SamplesetType" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="SamplesetType" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="SamplesetType">' CVs'!#REF!</definedName>
-    <definedName name="SamplesetTypeCV" localSheetId="10">'[1] CVs'!$I$4:$I$6</definedName>
     <definedName name="SamplesetTypeCV" localSheetId="11">'[1] CVs'!$I$4:$I$6</definedName>
     <definedName name="SamplesetTypeCV">' CVs'!$I$4:$I$5</definedName>
-    <definedName name="Sex" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="Sex" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="Sex">' CVs'!#REF!</definedName>
-    <definedName name="SexCV" localSheetId="10">'[1] CVs'!$J$4:$J$7</definedName>
     <definedName name="SexCV" localSheetId="11">'[1] CVs'!$J$4:$J$7</definedName>
     <definedName name="SexCV">' CVs'!$J$4:$J$6</definedName>
     <definedName name="StrandTypeCV">' CVs'!$K$4:$K$5</definedName>
-    <definedName name="StudyType" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="StudyType" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="StudyType">' CVs'!#REF!</definedName>
-    <definedName name="StudyTypeCV" localSheetId="10">'[1] CVs'!$L$4:$L$10</definedName>
     <definedName name="StudyTypeCV" localSheetId="11">'[1] CVs'!$L$4:$L$10</definedName>
     <definedName name="StudyTypeCV">' CVs'!$L$4:$L$9</definedName>
-    <definedName name="SubjectAgeUnitsCV" localSheetId="10">'[1] CVs'!$M$4:$M$11</definedName>
     <definedName name="SubjectAgeUnitsCV" localSheetId="11">'[1] CVs'!$M$4:$M$11</definedName>
     <definedName name="SubjectAgeUnitsCV">' CVs'!$M$4:$M$10</definedName>
-    <definedName name="VariantCallType" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="VariantCallType" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="VariantCallType">' CVs'!#REF!</definedName>
-    <definedName name="VariantCallTypeCV" localSheetId="10">'[1] CVs'!$N$4:$N$29</definedName>
     <definedName name="VariantCallTypeCV" localSheetId="11">'[1] CVs'!$N$4:$N$29</definedName>
     <definedName name="VariantCallTypeCV">' CVs'!$N$4:$N$28</definedName>
-    <definedName name="VariantCallZygosityCV" localSheetId="10">'[1] CVs'!$O$4:$O$7</definedName>
     <definedName name="VariantCallZygosityCV" localSheetId="11">'[1] CVs'!$O$4:$O$7</definedName>
     <definedName name="VariantCallZygosityCV">' CVs'!$O$4:$O$6</definedName>
-    <definedName name="VariantRegionType" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="VariantRegionType" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="VariantRegionType">' CVs'!#REF!</definedName>
-    <definedName name="VariantRegionTypeCV" localSheetId="10">'[1] CVs'!$P$4:$P$17</definedName>
     <definedName name="VariantRegionTypeCV" localSheetId="11">'[1] CVs'!$P$4:$P$17</definedName>
     <definedName name="VariantRegionTypeCV">' CVs'!$P$4:$P$16</definedName>
-    <definedName name="YesNoCV" localSheetId="10">'[1] CVs'!#REF!</definedName>
     <definedName name="YesNoCV" localSheetId="11">'[1] CVs'!#REF!</definedName>
     <definedName name="YesNoCV">' CVs'!#REF!</definedName>
   </definedNames>
@@ -142,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="575">
   <si>
     <t>CONTACTS</t>
   </si>
@@ -3416,21 +3388,6 @@
     <t>SVA insertion</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">complex chromosomal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rearrangement</t>
-    </r>
-  </si>
-  <si>
     <t>curated_set_link</t>
   </si>
   <si>
@@ -4893,107 +4850,6 @@
     <t>subject_taxonomy_id</t>
   </si>
   <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="24"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">VARIANT REGIONS </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(optional)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Complete if you want to group two or more variant calls together under a parent region. List supporting variant_call_ids in column 'M'. dbVar will automatically merge calls with identical call types and coordinates.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="24"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>variant region identification</t>
-    </r>
-  </si>
-  <si>
-    <t>additional information</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="6"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>#</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>variant_region_id</t>
-    </r>
-  </si>
-  <si>
     <t>variant_region_type</t>
   </si>
   <si>
@@ -5511,15 +5367,124 @@
   </si>
   <si>
     <t>ddPCR</t>
+  </si>
+  <si>
+    <t>complex substitution</t>
+  </si>
+  <si>
+    <t>complex chromosomal rearrangement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="4"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant_region_id</t>
+    </r>
+  </si>
+  <si>
+    <t>additional information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>variant region identification</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="4"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Complete if you want to group two or more variant calls together under a parent region. List supporting variant_call_ids in column 'M'. dbVar will automatically merge calls with identical call types and coordinates.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="4"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VARIANT REGIONS (optional)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="70">
+  <fonts count="74">
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5992,13 +5957,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="1"/>
@@ -6037,8 +5995,25 @@
       <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="4"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="4"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6075,8 +6050,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFED6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -6972,467 +6953,563 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="409">
+  <cellStyleXfs count="410">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="328">
+  <cellXfs count="341">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -7445,57 +7522,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="27" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -7507,91 +7584,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="3" xfId="15" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7600,88 +7677,88 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="13" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="13" xfId="62" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7693,92 +7770,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="40" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7787,114 +7864,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="33" xfId="176" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="33" xfId="176" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="47" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="23" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
@@ -7911,301 +7988,318 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="408" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="408" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="409"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="71" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="409" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="409" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="409" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="1" xfId="409" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="1" xfId="409" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="409" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="409" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="59" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="1" xfId="409" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="409" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="409" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="33" xfId="176"/>
   </cellXfs>
-  <cellStyles count="409">
+  <cellStyles count="410">
     <cellStyle name="Explanatory Text" xfId="62" builtinId="53"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -8615,6 +8709,7 @@
     <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
     <cellStyle name="Normal 2 2" xfId="357" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
     <cellStyle name="Normal 2 2 2" xfId="408" xr:uid="{5F4CB755-7338-714F-A4B1-E1663D689635}"/>
+    <cellStyle name="Normal 3" xfId="409" xr:uid="{E62C9CE8-65C4-0B42-8548-268353A6DFD2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -10103,10 +10198,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="267" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="254"/>
+      <c r="B1" s="268"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -10121,42 +10216,42 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" s="127" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="325" t="s">
-        <v>571</v>
-      </c>
-      <c r="B2" s="326" t="s">
-        <v>572</v>
+      <c r="A2" s="248" t="s">
+        <v>565</v>
+      </c>
+      <c r="B2" s="249" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1">
-      <c r="A3" s="258" t="s">
+      <c r="A3" s="272" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="259"/>
+      <c r="B3" s="273"/>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:14" ht="65" customHeight="1">
-      <c r="A4" s="266" t="s">
-        <v>568</v>
-      </c>
-      <c r="B4" s="267"/>
+      <c r="A4" s="280" t="s">
+        <v>562</v>
+      </c>
+      <c r="B4" s="281"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:14" s="9" customFormat="1" ht="74" customHeight="1">
-      <c r="A5" s="255" t="s">
-        <v>531</v>
-      </c>
-      <c r="B5" s="256"/>
+      <c r="A5" s="269" t="s">
+        <v>530</v>
+      </c>
+      <c r="B5" s="270"/>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="276" t="s">
         <v>353</v>
       </c>
-      <c r="B6" s="263"/>
+      <c r="B6" s="277"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
@@ -10171,7 +10266,7 @@
     <row r="8" spans="1:14" s="9" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="150"/>
       <c r="B8" s="112" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -10185,25 +10280,25 @@
       <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:14" s="10" customFormat="1" ht="48" customHeight="1">
-      <c r="A10" s="264" t="s">
+      <c r="A10" s="278" t="s">
         <v>423</v>
       </c>
-      <c r="B10" s="265"/>
+      <c r="B10" s="279"/>
       <c r="C10" s="93"/>
       <c r="D10" s="93"/>
-      <c r="E10" s="252"/>
+      <c r="E10" s="247"/>
     </row>
     <row r="11" spans="1:14" s="10" customFormat="1" ht="48" customHeight="1">
-      <c r="A11" s="257" t="s">
-        <v>517</v>
-      </c>
-      <c r="B11" s="256"/>
+      <c r="A11" s="271" t="s">
+        <v>516</v>
+      </c>
+      <c r="B11" s="270"/>
       <c r="C11" s="93"/>
       <c r="D11" s="93"/>
     </row>
     <row r="12" spans="1:14" ht="19" customHeight="1">
       <c r="A12" s="151" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B12" s="73"/>
       <c r="C12" s="8"/>
@@ -10211,7 +10306,7 @@
     </row>
     <row r="13" spans="1:14" ht="22" customHeight="1">
       <c r="A13" s="92" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B13" s="73"/>
       <c r="C13" s="8"/>
@@ -10222,10 +10317,10 @@
       <c r="B14" s="106"/>
     </row>
     <row r="15" spans="1:14" ht="37" customHeight="1">
-      <c r="A15" s="260" t="s">
+      <c r="A15" s="274" t="s">
         <v>325</v>
       </c>
-      <c r="B15" s="261"/>
+      <c r="B15" s="275"/>
     </row>
     <row r="16" spans="1:14" ht="26" customHeight="1">
       <c r="A16" s="107" t="s">
@@ -10285,10 +10380,10 @@
     </row>
     <row r="23" spans="1:2" ht="17">
       <c r="A23" s="212" t="s">
+        <v>528</v>
+      </c>
+      <c r="B23" s="213" t="s">
         <v>529</v>
-      </c>
-      <c r="B23" s="213" t="s">
-        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -10303,7 +10398,7 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -10328,16 +10423,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="319" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="306"/>
+      <c r="B1" s="320"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="307" t="s">
-        <v>500</v>
-      </c>
-      <c r="B2" s="276"/>
+      <c r="A2" s="321" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="290"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="145"/>
@@ -10348,7 +10443,7 @@
         <v>351</v>
       </c>
       <c r="B4" s="206" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" customHeight="1">
@@ -10388,16 +10483,16 @@
       <c r="B9" s="95"/>
     </row>
     <row r="10" spans="1:2" ht="64" customHeight="1">
-      <c r="A10" s="308" t="s">
+      <c r="A10" s="322" t="s">
         <v>440</v>
       </c>
-      <c r="B10" s="309"/>
+      <c r="B10" s="323"/>
     </row>
     <row r="11" spans="1:2" ht="15" customHeight="1">
-      <c r="A11" s="310" t="s">
+      <c r="A11" s="324" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="311"/>
+      <c r="B11" s="325"/>
     </row>
     <row r="12" spans="1:2" ht="16" customHeight="1"/>
     <row r="13" spans="1:2" ht="18" customHeight="1">
@@ -10428,7 +10523,7 @@
       <c r="A16" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="B16" s="299" t="s">
+      <c r="B16" s="313" t="s">
         <v>398</v>
       </c>
     </row>
@@ -10436,31 +10531,31 @@
       <c r="A17" s="143" t="s">
         <v>222</v>
       </c>
-      <c r="B17" s="300"/>
+      <c r="B17" s="314"/>
     </row>
     <row r="18" spans="1:2" ht="18" customHeight="1">
       <c r="A18" s="143" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="300"/>
+      <c r="B18" s="314"/>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1">
       <c r="A19" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="B19" s="300"/>
+      <c r="B19" s="314"/>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1">
       <c r="A20" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="B20" s="300"/>
+      <c r="B20" s="314"/>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1">
       <c r="A21" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="301"/>
+      <c r="B21" s="315"/>
     </row>
     <row r="22" spans="1:2" ht="102">
       <c r="A22" s="143" t="s">
@@ -10475,7 +10570,7 @@
         <v>216</v>
       </c>
       <c r="B24" s="210" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18" customHeight="1">
@@ -10483,7 +10578,7 @@
         <v>245</v>
       </c>
       <c r="B25" s="206" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18" customHeight="1">
@@ -10491,7 +10586,7 @@
         <v>217</v>
       </c>
       <c r="B26" s="206" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="68">
@@ -10507,7 +10602,7 @@
         <v>243</v>
       </c>
       <c r="B28" s="206" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18" customHeight="1">
@@ -10515,7 +10610,7 @@
         <v>244</v>
       </c>
       <c r="B29" s="206" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="51">
@@ -10531,7 +10626,7 @@
         <v>66</v>
       </c>
       <c r="B31" s="206" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="51">
@@ -10555,63 +10650,63 @@
       <c r="A35" s="144" t="s">
         <v>218</v>
       </c>
-      <c r="B35" s="302" t="s">
-        <v>510</v>
+      <c r="B35" s="316" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="18" customHeight="1">
       <c r="A36" s="144" t="s">
         <v>433</v>
       </c>
-      <c r="B36" s="303"/>
+      <c r="B36" s="317"/>
     </row>
     <row r="37" spans="1:2" ht="18" customHeight="1">
       <c r="A37" s="144" t="s">
         <v>434</v>
       </c>
-      <c r="B37" s="303"/>
+      <c r="B37" s="317"/>
     </row>
     <row r="38" spans="1:2" ht="18" customHeight="1">
       <c r="A38" s="144" t="s">
         <v>435</v>
       </c>
-      <c r="B38" s="303"/>
+      <c r="B38" s="317"/>
     </row>
     <row r="39" spans="1:2" ht="18" customHeight="1">
       <c r="A39" s="144" t="s">
         <v>432</v>
       </c>
-      <c r="B39" s="303"/>
+      <c r="B39" s="317"/>
     </row>
     <row r="40" spans="1:2" ht="18" customHeight="1">
       <c r="A40" s="144" t="s">
         <v>436</v>
       </c>
-      <c r="B40" s="303"/>
+      <c r="B40" s="317"/>
     </row>
     <row r="41" spans="1:2" ht="18" customHeight="1">
       <c r="A41" s="144" t="s">
         <v>437</v>
       </c>
-      <c r="B41" s="303"/>
+      <c r="B41" s="317"/>
     </row>
     <row r="42" spans="1:2" ht="18" customHeight="1">
       <c r="A42" s="144" t="s">
         <v>439</v>
       </c>
-      <c r="B42" s="303"/>
+      <c r="B42" s="317"/>
     </row>
     <row r="43" spans="1:2" ht="18" customHeight="1">
       <c r="A43" s="144" t="s">
         <v>438</v>
       </c>
-      <c r="B43" s="303"/>
+      <c r="B43" s="317"/>
     </row>
     <row r="44" spans="1:2" ht="18" customHeight="1">
       <c r="A44" s="144" t="s">
-        <v>509</v>
-      </c>
-      <c r="B44" s="304"/>
+        <v>508</v>
+      </c>
+      <c r="B44" s="318"/>
     </row>
     <row r="45" spans="1:2" ht="18" customHeight="1"/>
   </sheetData>
@@ -10630,1857 +10725,1875 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61DD167F-CF08-304A-8B14-E66EE097C30D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114758FB-CBDA-0E46-90FA-0CB556826E92}">
   <sheetPr>
-    <tabColor rgb="FFFFFFCC"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" style="251" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.59765625" style="251" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.19921875" style="251" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="251" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.3984375" style="251" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.3984375" style="251" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" style="251" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" style="251" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" style="251" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.796875" style="251" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.59765625" style="251" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="251" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="29" style="251" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32" style="251" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.19921875" style="251" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="11" style="251"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1">
-      <c r="A1" s="294" t="s">
+    <row r="1" spans="1:15" ht="31">
+      <c r="A1" s="326" t="s">
+        <v>574</v>
+      </c>
+      <c r="B1" s="326"/>
+      <c r="C1" s="326"/>
+      <c r="D1" s="326"/>
+      <c r="E1" s="326"/>
+      <c r="F1" s="326"/>
+      <c r="G1" s="326"/>
+      <c r="H1" s="326"/>
+      <c r="I1" s="326"/>
+      <c r="J1" s="326"/>
+      <c r="K1" s="326"/>
+      <c r="L1" s="326"/>
+      <c r="M1" s="326"/>
+      <c r="N1" s="326"/>
+      <c r="O1" s="326"/>
+    </row>
+    <row r="2" spans="1:15" s="266" customFormat="1" ht="27" customHeight="1">
+      <c r="A2" s="327" t="s">
+        <v>573</v>
+      </c>
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
+      <c r="H2" s="327"/>
+      <c r="I2" s="327"/>
+      <c r="J2" s="327"/>
+      <c r="K2" s="327"/>
+      <c r="L2" s="327"/>
+      <c r="M2" s="327"/>
+      <c r="N2" s="327"/>
+      <c r="O2" s="327"/>
+    </row>
+    <row r="3" spans="1:15" s="265" customFormat="1" ht="31">
+      <c r="A3" s="328" t="s">
+        <v>572</v>
+      </c>
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
+      <c r="M3" s="328" t="s">
+        <v>571</v>
+      </c>
+      <c r="N3" s="328"/>
+      <c r="O3" s="328"/>
+    </row>
+    <row r="4" spans="1:15" s="261" customFormat="1">
+      <c r="A4" s="264" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4" s="264" t="s">
+        <v>535</v>
+      </c>
+      <c r="C4" s="264" t="s">
         <v>536</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="228"/>
-      <c r="N1" s="228"/>
-      <c r="O1" s="229"/>
-    </row>
-    <row r="2" spans="1:15" ht="28" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="D4" s="263" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="263" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" s="263" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="263" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="263" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="263" t="s">
+        <v>223</v>
+      </c>
+      <c r="J4" s="263" t="s">
+        <v>224</v>
+      </c>
+      <c r="K4" s="263" t="s">
+        <v>225</v>
+      </c>
+      <c r="L4" s="263" t="s">
+        <v>226</v>
+      </c>
+      <c r="M4" s="263" t="s">
         <v>537</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="276"/>
-    </row>
-    <row r="3" spans="1:15" ht="33" customHeight="1">
-      <c r="A3" s="312" t="s">
+      <c r="N4" s="262" t="s">
         <v>538</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="295" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="283"/>
-      <c r="H3" s="283"/>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="283"/>
-      <c r="L3" s="284"/>
-      <c r="M3" s="295" t="s">
-        <v>539</v>
-      </c>
-      <c r="N3" s="283"/>
-      <c r="O3" s="284"/>
-    </row>
-    <row r="4" spans="1:15" ht="16" customHeight="1">
-      <c r="A4" s="230" t="s">
-        <v>540</v>
-      </c>
-      <c r="B4" s="230" t="s">
-        <v>541</v>
-      </c>
-      <c r="C4" s="230" t="s">
-        <v>542</v>
-      </c>
-      <c r="D4" s="231" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="231" t="s">
-        <v>219</v>
-      </c>
-      <c r="F4" s="231" t="s">
-        <v>220</v>
-      </c>
-      <c r="G4" s="231" t="s">
-        <v>221</v>
-      </c>
-      <c r="H4" s="231" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" s="231" t="s">
-        <v>223</v>
-      </c>
-      <c r="J4" s="231" t="s">
-        <v>224</v>
-      </c>
-      <c r="K4" s="231" t="s">
-        <v>225</v>
-      </c>
-      <c r="L4" s="231" t="s">
-        <v>226</v>
-      </c>
-      <c r="M4" s="231" t="s">
-        <v>543</v>
-      </c>
-      <c r="N4" s="232" t="s">
-        <v>544</v>
-      </c>
-      <c r="O4" s="232" t="s">
+      <c r="O4" s="262" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="73"/>
+      <c r="A5" s="259"/>
+      <c r="B5" s="259"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="260"/>
+      <c r="E5" s="259"/>
+      <c r="F5" s="259"/>
+      <c r="G5" s="259"/>
+      <c r="H5" s="259"/>
+      <c r="I5" s="259"/>
+      <c r="J5" s="259"/>
+      <c r="K5" s="259"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="260"/>
+      <c r="N5" s="259"/>
+      <c r="O5" s="258"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="26"/>
-      <c r="O6" s="28"/>
+      <c r="A6" s="256"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256"/>
+      <c r="H6" s="256"/>
+      <c r="I6" s="256"/>
+      <c r="J6" s="256"/>
+      <c r="K6" s="256"/>
+      <c r="L6" s="255"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="256"/>
+      <c r="O6" s="255"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="28"/>
+      <c r="A7" s="256"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="255"/>
+      <c r="D7" s="257"/>
+      <c r="E7" s="256"/>
+      <c r="F7" s="256"/>
+      <c r="G7" s="256"/>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="256"/>
+      <c r="K7" s="256"/>
+      <c r="L7" s="255"/>
+      <c r="M7" s="257"/>
+      <c r="N7" s="256"/>
+      <c r="O7" s="255"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
+      <c r="A8" s="256"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="255"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="256"/>
+      <c r="K8" s="256"/>
+      <c r="L8" s="255"/>
+      <c r="M8" s="257"/>
+      <c r="N8" s="256"/>
+      <c r="O8" s="255"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="28"/>
+      <c r="A9" s="256"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="256"/>
+      <c r="F9" s="256"/>
+      <c r="G9" s="256"/>
+      <c r="H9" s="256"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="256"/>
+      <c r="L9" s="255"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="256"/>
+      <c r="O9" s="255"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="26"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="28"/>
+      <c r="A10" s="256"/>
+      <c r="B10" s="256"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="257"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="256"/>
+      <c r="K10" s="256"/>
+      <c r="L10" s="255"/>
+      <c r="M10" s="257"/>
+      <c r="N10" s="256"/>
+      <c r="O10" s="255"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="26"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="28"/>
+      <c r="A11" s="256"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="255"/>
+      <c r="D11" s="257"/>
+      <c r="E11" s="256"/>
+      <c r="F11" s="256"/>
+      <c r="G11" s="256"/>
+      <c r="H11" s="256"/>
+      <c r="I11" s="256"/>
+      <c r="J11" s="256"/>
+      <c r="K11" s="256"/>
+      <c r="L11" s="255"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="256"/>
+      <c r="O11" s="255"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="26"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
+      <c r="A12" s="256"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="255"/>
+      <c r="D12" s="257"/>
+      <c r="E12" s="256"/>
+      <c r="F12" s="256"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="256"/>
+      <c r="I12" s="256"/>
+      <c r="J12" s="256"/>
+      <c r="K12" s="256"/>
+      <c r="L12" s="255"/>
+      <c r="M12" s="257"/>
+      <c r="N12" s="256"/>
+      <c r="O12" s="255"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="28"/>
+      <c r="A13" s="256"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="256"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="255"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="256"/>
+      <c r="O13" s="255"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="26"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="28"/>
+      <c r="A14" s="256"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="255"/>
+      <c r="D14" s="257"/>
+      <c r="E14" s="256"/>
+      <c r="F14" s="256"/>
+      <c r="G14" s="256"/>
+      <c r="H14" s="256"/>
+      <c r="I14" s="256"/>
+      <c r="J14" s="256"/>
+      <c r="K14" s="256"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="257"/>
+      <c r="N14" s="256"/>
+      <c r="O14" s="255"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
+      <c r="A15" s="256"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="255"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="256"/>
+      <c r="F15" s="256"/>
+      <c r="G15" s="256"/>
+      <c r="H15" s="256"/>
+      <c r="I15" s="256"/>
+      <c r="J15" s="256"/>
+      <c r="K15" s="256"/>
+      <c r="L15" s="255"/>
+      <c r="M15" s="257"/>
+      <c r="N15" s="256"/>
+      <c r="O15" s="255"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="26"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="28"/>
+      <c r="A16" s="256"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="255"/>
+      <c r="D16" s="257"/>
+      <c r="E16" s="256"/>
+      <c r="F16" s="256"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="256"/>
+      <c r="I16" s="256"/>
+      <c r="J16" s="256"/>
+      <c r="K16" s="256"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="257"/>
+      <c r="N16" s="256"/>
+      <c r="O16" s="255"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="26"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="28"/>
+      <c r="A17" s="256"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="255"/>
+      <c r="D17" s="257"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="256"/>
+      <c r="G17" s="256"/>
+      <c r="H17" s="256"/>
+      <c r="I17" s="256"/>
+      <c r="J17" s="256"/>
+      <c r="K17" s="256"/>
+      <c r="L17" s="255"/>
+      <c r="M17" s="257"/>
+      <c r="N17" s="256"/>
+      <c r="O17" s="255"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="26"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="28"/>
+      <c r="A18" s="256"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="255"/>
+      <c r="D18" s="257"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="256"/>
+      <c r="G18" s="256"/>
+      <c r="H18" s="256"/>
+      <c r="I18" s="256"/>
+      <c r="J18" s="256"/>
+      <c r="K18" s="256"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="257"/>
+      <c r="N18" s="256"/>
+      <c r="O18" s="255"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="26"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="28"/>
+      <c r="A19" s="256"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="255"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="256"/>
+      <c r="G19" s="256"/>
+      <c r="H19" s="256"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="256"/>
+      <c r="K19" s="256"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="257"/>
+      <c r="N19" s="256"/>
+      <c r="O19" s="255"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="26"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
+      <c r="A20" s="256"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="255"/>
+      <c r="D20" s="257"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="256"/>
+      <c r="G20" s="256"/>
+      <c r="H20" s="256"/>
+      <c r="I20" s="256"/>
+      <c r="J20" s="256"/>
+      <c r="K20" s="256"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="257"/>
+      <c r="N20" s="256"/>
+      <c r="O20" s="255"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="28"/>
+      <c r="A21" s="256"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="255"/>
+      <c r="D21" s="257"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="256"/>
+      <c r="G21" s="256"/>
+      <c r="H21" s="256"/>
+      <c r="I21" s="256"/>
+      <c r="J21" s="256"/>
+      <c r="K21" s="256"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="257"/>
+      <c r="N21" s="256"/>
+      <c r="O21" s="255"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
+      <c r="A22" s="256"/>
+      <c r="B22" s="256"/>
+      <c r="C22" s="255"/>
+      <c r="D22" s="257"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="256"/>
+      <c r="G22" s="256"/>
+      <c r="H22" s="256"/>
+      <c r="I22" s="256"/>
+      <c r="J22" s="256"/>
+      <c r="K22" s="256"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="257"/>
+      <c r="N22" s="256"/>
+      <c r="O22" s="255"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
+      <c r="A23" s="256"/>
+      <c r="B23" s="256"/>
+      <c r="C23" s="255"/>
+      <c r="D23" s="257"/>
+      <c r="E23" s="256"/>
+      <c r="F23" s="256"/>
+      <c r="G23" s="256"/>
+      <c r="H23" s="256"/>
+      <c r="I23" s="256"/>
+      <c r="J23" s="256"/>
+      <c r="K23" s="256"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="257"/>
+      <c r="N23" s="256"/>
+      <c r="O23" s="255"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="26"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="28"/>
+      <c r="A24" s="256"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="255"/>
+      <c r="D24" s="257"/>
+      <c r="E24" s="256"/>
+      <c r="F24" s="256"/>
+      <c r="G24" s="256"/>
+      <c r="H24" s="256"/>
+      <c r="I24" s="256"/>
+      <c r="J24" s="256"/>
+      <c r="K24" s="256"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="257"/>
+      <c r="N24" s="256"/>
+      <c r="O24" s="255"/>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="28"/>
+      <c r="A25" s="256"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="257"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="256"/>
+      <c r="H25" s="256"/>
+      <c r="I25" s="256"/>
+      <c r="J25" s="256"/>
+      <c r="K25" s="256"/>
+      <c r="L25" s="255"/>
+      <c r="M25" s="257"/>
+      <c r="N25" s="256"/>
+      <c r="O25" s="255"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="28"/>
+      <c r="A26" s="256"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="255"/>
+      <c r="D26" s="257"/>
+      <c r="E26" s="256"/>
+      <c r="F26" s="256"/>
+      <c r="G26" s="256"/>
+      <c r="H26" s="256"/>
+      <c r="I26" s="256"/>
+      <c r="J26" s="256"/>
+      <c r="K26" s="256"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="257"/>
+      <c r="N26" s="256"/>
+      <c r="O26" s="255"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="28"/>
+      <c r="A27" s="256"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="255"/>
+      <c r="D27" s="257"/>
+      <c r="E27" s="256"/>
+      <c r="F27" s="256"/>
+      <c r="G27" s="256"/>
+      <c r="H27" s="256"/>
+      <c r="I27" s="256"/>
+      <c r="J27" s="256"/>
+      <c r="K27" s="256"/>
+      <c r="L27" s="255"/>
+      <c r="M27" s="257"/>
+      <c r="N27" s="256"/>
+      <c r="O27" s="255"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="28"/>
+      <c r="A28" s="256"/>
+      <c r="B28" s="256"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="257"/>
+      <c r="E28" s="256"/>
+      <c r="F28" s="256"/>
+      <c r="G28" s="256"/>
+      <c r="H28" s="256"/>
+      <c r="I28" s="256"/>
+      <c r="J28" s="256"/>
+      <c r="K28" s="256"/>
+      <c r="L28" s="255"/>
+      <c r="M28" s="257"/>
+      <c r="N28" s="256"/>
+      <c r="O28" s="255"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="28"/>
+      <c r="A29" s="256"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="257"/>
+      <c r="E29" s="256"/>
+      <c r="F29" s="256"/>
+      <c r="G29" s="256"/>
+      <c r="H29" s="256"/>
+      <c r="I29" s="256"/>
+      <c r="J29" s="256"/>
+      <c r="K29" s="256"/>
+      <c r="L29" s="255"/>
+      <c r="M29" s="257"/>
+      <c r="N29" s="256"/>
+      <c r="O29" s="255"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="28"/>
+      <c r="A30" s="256"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="257"/>
+      <c r="E30" s="256"/>
+      <c r="F30" s="256"/>
+      <c r="G30" s="256"/>
+      <c r="H30" s="256"/>
+      <c r="I30" s="256"/>
+      <c r="J30" s="256"/>
+      <c r="K30" s="256"/>
+      <c r="L30" s="255"/>
+      <c r="M30" s="257"/>
+      <c r="N30" s="256"/>
+      <c r="O30" s="255"/>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="28"/>
+      <c r="A31" s="256"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="255"/>
+      <c r="D31" s="257"/>
+      <c r="E31" s="256"/>
+      <c r="F31" s="256"/>
+      <c r="G31" s="256"/>
+      <c r="H31" s="256"/>
+      <c r="I31" s="256"/>
+      <c r="J31" s="256"/>
+      <c r="K31" s="256"/>
+      <c r="L31" s="255"/>
+      <c r="M31" s="257"/>
+      <c r="N31" s="256"/>
+      <c r="O31" s="255"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="28"/>
+      <c r="A32" s="256"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="255"/>
+      <c r="D32" s="257"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="256"/>
+      <c r="K32" s="256"/>
+      <c r="L32" s="255"/>
+      <c r="M32" s="257"/>
+      <c r="N32" s="256"/>
+      <c r="O32" s="255"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="28"/>
+      <c r="A33" s="256"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="255"/>
+      <c r="D33" s="257"/>
+      <c r="E33" s="256"/>
+      <c r="F33" s="256"/>
+      <c r="G33" s="256"/>
+      <c r="H33" s="256"/>
+      <c r="I33" s="256"/>
+      <c r="J33" s="256"/>
+      <c r="K33" s="256"/>
+      <c r="L33" s="255"/>
+      <c r="M33" s="257"/>
+      <c r="N33" s="256"/>
+      <c r="O33" s="255"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="28"/>
+      <c r="A34" s="256"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="255"/>
+      <c r="D34" s="257"/>
+      <c r="E34" s="256"/>
+      <c r="F34" s="256"/>
+      <c r="G34" s="256"/>
+      <c r="H34" s="256"/>
+      <c r="I34" s="256"/>
+      <c r="J34" s="256"/>
+      <c r="K34" s="256"/>
+      <c r="L34" s="255"/>
+      <c r="M34" s="257"/>
+      <c r="N34" s="256"/>
+      <c r="O34" s="255"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="28"/>
+      <c r="A35" s="256"/>
+      <c r="B35" s="256"/>
+      <c r="C35" s="255"/>
+      <c r="D35" s="257"/>
+      <c r="E35" s="256"/>
+      <c r="F35" s="256"/>
+      <c r="G35" s="256"/>
+      <c r="H35" s="256"/>
+      <c r="I35" s="256"/>
+      <c r="J35" s="256"/>
+      <c r="K35" s="256"/>
+      <c r="L35" s="255"/>
+      <c r="M35" s="257"/>
+      <c r="N35" s="256"/>
+      <c r="O35" s="255"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="26"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="27"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="28"/>
+      <c r="A36" s="256"/>
+      <c r="B36" s="256"/>
+      <c r="C36" s="255"/>
+      <c r="D36" s="257"/>
+      <c r="E36" s="256"/>
+      <c r="F36" s="256"/>
+      <c r="G36" s="256"/>
+      <c r="H36" s="256"/>
+      <c r="I36" s="256"/>
+      <c r="J36" s="256"/>
+      <c r="K36" s="256"/>
+      <c r="L36" s="255"/>
+      <c r="M36" s="257"/>
+      <c r="N36" s="256"/>
+      <c r="O36" s="255"/>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="26"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="28"/>
+      <c r="A37" s="256"/>
+      <c r="B37" s="256"/>
+      <c r="C37" s="255"/>
+      <c r="D37" s="257"/>
+      <c r="E37" s="256"/>
+      <c r="F37" s="256"/>
+      <c r="G37" s="256"/>
+      <c r="H37" s="256"/>
+      <c r="I37" s="256"/>
+      <c r="J37" s="256"/>
+      <c r="K37" s="256"/>
+      <c r="L37" s="255"/>
+      <c r="M37" s="257"/>
+      <c r="N37" s="256"/>
+      <c r="O37" s="255"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="26"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="28"/>
+      <c r="A38" s="256"/>
+      <c r="B38" s="256"/>
+      <c r="C38" s="255"/>
+      <c r="D38" s="257"/>
+      <c r="E38" s="256"/>
+      <c r="F38" s="256"/>
+      <c r="G38" s="256"/>
+      <c r="H38" s="256"/>
+      <c r="I38" s="256"/>
+      <c r="J38" s="256"/>
+      <c r="K38" s="256"/>
+      <c r="L38" s="255"/>
+      <c r="M38" s="257"/>
+      <c r="N38" s="256"/>
+      <c r="O38" s="255"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="26"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="28"/>
+      <c r="A39" s="256"/>
+      <c r="B39" s="256"/>
+      <c r="C39" s="255"/>
+      <c r="D39" s="257"/>
+      <c r="E39" s="256"/>
+      <c r="F39" s="256"/>
+      <c r="G39" s="256"/>
+      <c r="H39" s="256"/>
+      <c r="I39" s="256"/>
+      <c r="J39" s="256"/>
+      <c r="K39" s="256"/>
+      <c r="L39" s="255"/>
+      <c r="M39" s="257"/>
+      <c r="N39" s="256"/>
+      <c r="O39" s="255"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="26"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="27"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="28"/>
+      <c r="A40" s="256"/>
+      <c r="B40" s="256"/>
+      <c r="C40" s="255"/>
+      <c r="D40" s="257"/>
+      <c r="E40" s="256"/>
+      <c r="F40" s="256"/>
+      <c r="G40" s="256"/>
+      <c r="H40" s="256"/>
+      <c r="I40" s="256"/>
+      <c r="J40" s="256"/>
+      <c r="K40" s="256"/>
+      <c r="L40" s="255"/>
+      <c r="M40" s="257"/>
+      <c r="N40" s="256"/>
+      <c r="O40" s="255"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="26"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="28"/>
+      <c r="A41" s="256"/>
+      <c r="B41" s="256"/>
+      <c r="C41" s="255"/>
+      <c r="D41" s="257"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="256"/>
+      <c r="G41" s="256"/>
+      <c r="H41" s="256"/>
+      <c r="I41" s="256"/>
+      <c r="J41" s="256"/>
+      <c r="K41" s="256"/>
+      <c r="L41" s="255"/>
+      <c r="M41" s="257"/>
+      <c r="N41" s="256"/>
+      <c r="O41" s="255"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="28"/>
+      <c r="A42" s="256"/>
+      <c r="B42" s="256"/>
+      <c r="C42" s="255"/>
+      <c r="D42" s="257"/>
+      <c r="E42" s="256"/>
+      <c r="F42" s="256"/>
+      <c r="G42" s="256"/>
+      <c r="H42" s="256"/>
+      <c r="I42" s="256"/>
+      <c r="J42" s="256"/>
+      <c r="K42" s="256"/>
+      <c r="L42" s="255"/>
+      <c r="M42" s="257"/>
+      <c r="N42" s="256"/>
+      <c r="O42" s="255"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="26"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="28"/>
+      <c r="A43" s="256"/>
+      <c r="B43" s="256"/>
+      <c r="C43" s="255"/>
+      <c r="D43" s="257"/>
+      <c r="E43" s="256"/>
+      <c r="F43" s="256"/>
+      <c r="G43" s="256"/>
+      <c r="H43" s="256"/>
+      <c r="I43" s="256"/>
+      <c r="J43" s="256"/>
+      <c r="K43" s="256"/>
+      <c r="L43" s="255"/>
+      <c r="M43" s="257"/>
+      <c r="N43" s="256"/>
+      <c r="O43" s="255"/>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="26"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="28"/>
+      <c r="A44" s="256"/>
+      <c r="B44" s="256"/>
+      <c r="C44" s="255"/>
+      <c r="D44" s="257"/>
+      <c r="E44" s="256"/>
+      <c r="F44" s="256"/>
+      <c r="G44" s="256"/>
+      <c r="H44" s="256"/>
+      <c r="I44" s="256"/>
+      <c r="J44" s="256"/>
+      <c r="K44" s="256"/>
+      <c r="L44" s="255"/>
+      <c r="M44" s="257"/>
+      <c r="N44" s="256"/>
+      <c r="O44" s="255"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="28"/>
+      <c r="A45" s="256"/>
+      <c r="B45" s="256"/>
+      <c r="C45" s="255"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="256"/>
+      <c r="F45" s="256"/>
+      <c r="G45" s="256"/>
+      <c r="H45" s="256"/>
+      <c r="I45" s="256"/>
+      <c r="J45" s="256"/>
+      <c r="K45" s="256"/>
+      <c r="L45" s="255"/>
+      <c r="M45" s="257"/>
+      <c r="N45" s="256"/>
+      <c r="O45" s="255"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="26"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="28"/>
+      <c r="A46" s="256"/>
+      <c r="B46" s="256"/>
+      <c r="C46" s="255"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="256"/>
+      <c r="F46" s="256"/>
+      <c r="G46" s="256"/>
+      <c r="H46" s="256"/>
+      <c r="I46" s="256"/>
+      <c r="J46" s="256"/>
+      <c r="K46" s="256"/>
+      <c r="L46" s="255"/>
+      <c r="M46" s="257"/>
+      <c r="N46" s="256"/>
+      <c r="O46" s="255"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="26"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="28"/>
+      <c r="A47" s="256"/>
+      <c r="B47" s="256"/>
+      <c r="C47" s="255"/>
+      <c r="D47" s="257"/>
+      <c r="E47" s="256"/>
+      <c r="F47" s="256"/>
+      <c r="G47" s="256"/>
+      <c r="H47" s="256"/>
+      <c r="I47" s="256"/>
+      <c r="J47" s="256"/>
+      <c r="K47" s="256"/>
+      <c r="L47" s="255"/>
+      <c r="M47" s="257"/>
+      <c r="N47" s="256"/>
+      <c r="O47" s="255"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="26"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="27"/>
-      <c r="L48" s="27"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="28"/>
+      <c r="A48" s="256"/>
+      <c r="B48" s="256"/>
+      <c r="C48" s="255"/>
+      <c r="D48" s="257"/>
+      <c r="E48" s="256"/>
+      <c r="F48" s="256"/>
+      <c r="G48" s="256"/>
+      <c r="H48" s="256"/>
+      <c r="I48" s="256"/>
+      <c r="J48" s="256"/>
+      <c r="K48" s="256"/>
+      <c r="L48" s="255"/>
+      <c r="M48" s="257"/>
+      <c r="N48" s="256"/>
+      <c r="O48" s="255"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="26"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
-      <c r="K49" s="27"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="28"/>
+      <c r="A49" s="256"/>
+      <c r="B49" s="256"/>
+      <c r="C49" s="255"/>
+      <c r="D49" s="257"/>
+      <c r="E49" s="256"/>
+      <c r="F49" s="256"/>
+      <c r="G49" s="256"/>
+      <c r="H49" s="256"/>
+      <c r="I49" s="256"/>
+      <c r="J49" s="256"/>
+      <c r="K49" s="256"/>
+      <c r="L49" s="255"/>
+      <c r="M49" s="257"/>
+      <c r="N49" s="256"/>
+      <c r="O49" s="255"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="26"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
-      <c r="K50" s="27"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="28"/>
+      <c r="A50" s="256"/>
+      <c r="B50" s="256"/>
+      <c r="C50" s="255"/>
+      <c r="D50" s="257"/>
+      <c r="E50" s="256"/>
+      <c r="F50" s="256"/>
+      <c r="G50" s="256"/>
+      <c r="H50" s="256"/>
+      <c r="I50" s="256"/>
+      <c r="J50" s="256"/>
+      <c r="K50" s="256"/>
+      <c r="L50" s="255"/>
+      <c r="M50" s="257"/>
+      <c r="N50" s="256"/>
+      <c r="O50" s="255"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="26"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
-      <c r="K51" s="27"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="28"/>
+      <c r="A51" s="256"/>
+      <c r="B51" s="256"/>
+      <c r="C51" s="255"/>
+      <c r="D51" s="257"/>
+      <c r="E51" s="256"/>
+      <c r="F51" s="256"/>
+      <c r="G51" s="256"/>
+      <c r="H51" s="256"/>
+      <c r="I51" s="256"/>
+      <c r="J51" s="256"/>
+      <c r="K51" s="256"/>
+      <c r="L51" s="255"/>
+      <c r="M51" s="257"/>
+      <c r="N51" s="256"/>
+      <c r="O51" s="255"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="26"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="27"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="28"/>
+      <c r="A52" s="256"/>
+      <c r="B52" s="256"/>
+      <c r="C52" s="255"/>
+      <c r="D52" s="257"/>
+      <c r="E52" s="256"/>
+      <c r="F52" s="256"/>
+      <c r="G52" s="256"/>
+      <c r="H52" s="256"/>
+      <c r="I52" s="256"/>
+      <c r="J52" s="256"/>
+      <c r="K52" s="256"/>
+      <c r="L52" s="255"/>
+      <c r="M52" s="257"/>
+      <c r="N52" s="256"/>
+      <c r="O52" s="255"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="26"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
-      <c r="K53" s="27"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="28"/>
+      <c r="A53" s="256"/>
+      <c r="B53" s="256"/>
+      <c r="C53" s="255"/>
+      <c r="D53" s="257"/>
+      <c r="E53" s="256"/>
+      <c r="F53" s="256"/>
+      <c r="G53" s="256"/>
+      <c r="H53" s="256"/>
+      <c r="I53" s="256"/>
+      <c r="J53" s="256"/>
+      <c r="K53" s="256"/>
+      <c r="L53" s="255"/>
+      <c r="M53" s="257"/>
+      <c r="N53" s="256"/>
+      <c r="O53" s="255"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="26"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
-      <c r="K54" s="27"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="28"/>
+      <c r="A54" s="256"/>
+      <c r="B54" s="256"/>
+      <c r="C54" s="255"/>
+      <c r="D54" s="257"/>
+      <c r="E54" s="256"/>
+      <c r="F54" s="256"/>
+      <c r="G54" s="256"/>
+      <c r="H54" s="256"/>
+      <c r="I54" s="256"/>
+      <c r="J54" s="256"/>
+      <c r="K54" s="256"/>
+      <c r="L54" s="255"/>
+      <c r="M54" s="257"/>
+      <c r="N54" s="256"/>
+      <c r="O54" s="255"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="26"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="27"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="28"/>
+      <c r="A55" s="256"/>
+      <c r="B55" s="256"/>
+      <c r="C55" s="255"/>
+      <c r="D55" s="257"/>
+      <c r="E55" s="256"/>
+      <c r="F55" s="256"/>
+      <c r="G55" s="256"/>
+      <c r="H55" s="256"/>
+      <c r="I55" s="256"/>
+      <c r="J55" s="256"/>
+      <c r="K55" s="256"/>
+      <c r="L55" s="255"/>
+      <c r="M55" s="257"/>
+      <c r="N55" s="256"/>
+      <c r="O55" s="255"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
-      <c r="K56" s="27"/>
-      <c r="L56" s="27"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="28"/>
+      <c r="A56" s="256"/>
+      <c r="B56" s="256"/>
+      <c r="C56" s="255"/>
+      <c r="D56" s="257"/>
+      <c r="E56" s="256"/>
+      <c r="F56" s="256"/>
+      <c r="G56" s="256"/>
+      <c r="H56" s="256"/>
+      <c r="I56" s="256"/>
+      <c r="J56" s="256"/>
+      <c r="K56" s="256"/>
+      <c r="L56" s="255"/>
+      <c r="M56" s="257"/>
+      <c r="N56" s="256"/>
+      <c r="O56" s="255"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="26"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="27"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="28"/>
+      <c r="A57" s="256"/>
+      <c r="B57" s="256"/>
+      <c r="C57" s="255"/>
+      <c r="D57" s="257"/>
+      <c r="E57" s="256"/>
+      <c r="F57" s="256"/>
+      <c r="G57" s="256"/>
+      <c r="H57" s="256"/>
+      <c r="I57" s="256"/>
+      <c r="J57" s="256"/>
+      <c r="K57" s="256"/>
+      <c r="L57" s="255"/>
+      <c r="M57" s="257"/>
+      <c r="N57" s="256"/>
+      <c r="O57" s="255"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="26"/>
-      <c r="B58" s="27"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="28"/>
+      <c r="A58" s="256"/>
+      <c r="B58" s="256"/>
+      <c r="C58" s="255"/>
+      <c r="D58" s="257"/>
+      <c r="E58" s="256"/>
+      <c r="F58" s="256"/>
+      <c r="G58" s="256"/>
+      <c r="H58" s="256"/>
+      <c r="I58" s="256"/>
+      <c r="J58" s="256"/>
+      <c r="K58" s="256"/>
+      <c r="L58" s="255"/>
+      <c r="M58" s="257"/>
+      <c r="N58" s="256"/>
+      <c r="O58" s="255"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="27"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="28"/>
+      <c r="A59" s="256"/>
+      <c r="B59" s="256"/>
+      <c r="C59" s="255"/>
+      <c r="D59" s="257"/>
+      <c r="E59" s="256"/>
+      <c r="F59" s="256"/>
+      <c r="G59" s="256"/>
+      <c r="H59" s="256"/>
+      <c r="I59" s="256"/>
+      <c r="J59" s="256"/>
+      <c r="K59" s="256"/>
+      <c r="L59" s="255"/>
+      <c r="M59" s="257"/>
+      <c r="N59" s="256"/>
+      <c r="O59" s="255"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
-      <c r="K60" s="27"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="28"/>
+      <c r="A60" s="256"/>
+      <c r="B60" s="256"/>
+      <c r="C60" s="255"/>
+      <c r="D60" s="257"/>
+      <c r="E60" s="256"/>
+      <c r="F60" s="256"/>
+      <c r="G60" s="256"/>
+      <c r="H60" s="256"/>
+      <c r="I60" s="256"/>
+      <c r="J60" s="256"/>
+      <c r="K60" s="256"/>
+      <c r="L60" s="255"/>
+      <c r="M60" s="257"/>
+      <c r="N60" s="256"/>
+      <c r="O60" s="255"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="28"/>
+      <c r="A61" s="256"/>
+      <c r="B61" s="256"/>
+      <c r="C61" s="255"/>
+      <c r="D61" s="257"/>
+      <c r="E61" s="256"/>
+      <c r="F61" s="256"/>
+      <c r="G61" s="256"/>
+      <c r="H61" s="256"/>
+      <c r="I61" s="256"/>
+      <c r="J61" s="256"/>
+      <c r="K61" s="256"/>
+      <c r="L61" s="255"/>
+      <c r="M61" s="257"/>
+      <c r="N61" s="256"/>
+      <c r="O61" s="255"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
-      <c r="K62" s="27"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="28"/>
+      <c r="A62" s="256"/>
+      <c r="B62" s="256"/>
+      <c r="C62" s="255"/>
+      <c r="D62" s="257"/>
+      <c r="E62" s="256"/>
+      <c r="F62" s="256"/>
+      <c r="G62" s="256"/>
+      <c r="H62" s="256"/>
+      <c r="I62" s="256"/>
+      <c r="J62" s="256"/>
+      <c r="K62" s="256"/>
+      <c r="L62" s="255"/>
+      <c r="M62" s="257"/>
+      <c r="N62" s="256"/>
+      <c r="O62" s="255"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="28"/>
+      <c r="A63" s="256"/>
+      <c r="B63" s="256"/>
+      <c r="C63" s="255"/>
+      <c r="D63" s="257"/>
+      <c r="E63" s="256"/>
+      <c r="F63" s="256"/>
+      <c r="G63" s="256"/>
+      <c r="H63" s="256"/>
+      <c r="I63" s="256"/>
+      <c r="J63" s="256"/>
+      <c r="K63" s="256"/>
+      <c r="L63" s="255"/>
+      <c r="M63" s="257"/>
+      <c r="N63" s="256"/>
+      <c r="O63" s="255"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="26"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="27"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="28"/>
+      <c r="A64" s="256"/>
+      <c r="B64" s="256"/>
+      <c r="C64" s="255"/>
+      <c r="D64" s="257"/>
+      <c r="E64" s="256"/>
+      <c r="F64" s="256"/>
+      <c r="G64" s="256"/>
+      <c r="H64" s="256"/>
+      <c r="I64" s="256"/>
+      <c r="J64" s="256"/>
+      <c r="K64" s="256"/>
+      <c r="L64" s="255"/>
+      <c r="M64" s="257"/>
+      <c r="N64" s="256"/>
+      <c r="O64" s="255"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="26"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
-      <c r="K65" s="27"/>
-      <c r="L65" s="27"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="27"/>
-      <c r="O65" s="28"/>
+      <c r="A65" s="256"/>
+      <c r="B65" s="256"/>
+      <c r="C65" s="255"/>
+      <c r="D65" s="257"/>
+      <c r="E65" s="256"/>
+      <c r="F65" s="256"/>
+      <c r="G65" s="256"/>
+      <c r="H65" s="256"/>
+      <c r="I65" s="256"/>
+      <c r="J65" s="256"/>
+      <c r="K65" s="256"/>
+      <c r="L65" s="255"/>
+      <c r="M65" s="257"/>
+      <c r="N65" s="256"/>
+      <c r="O65" s="255"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="26"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="27"/>
-      <c r="O66" s="28"/>
+      <c r="A66" s="256"/>
+      <c r="B66" s="256"/>
+      <c r="C66" s="255"/>
+      <c r="D66" s="257"/>
+      <c r="E66" s="256"/>
+      <c r="F66" s="256"/>
+      <c r="G66" s="256"/>
+      <c r="H66" s="256"/>
+      <c r="I66" s="256"/>
+      <c r="J66" s="256"/>
+      <c r="K66" s="256"/>
+      <c r="L66" s="255"/>
+      <c r="M66" s="257"/>
+      <c r="N66" s="256"/>
+      <c r="O66" s="255"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="26"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
-      <c r="K67" s="27"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="28"/>
+      <c r="A67" s="256"/>
+      <c r="B67" s="256"/>
+      <c r="C67" s="255"/>
+      <c r="D67" s="257"/>
+      <c r="E67" s="256"/>
+      <c r="F67" s="256"/>
+      <c r="G67" s="256"/>
+      <c r="H67" s="256"/>
+      <c r="I67" s="256"/>
+      <c r="J67" s="256"/>
+      <c r="K67" s="256"/>
+      <c r="L67" s="255"/>
+      <c r="M67" s="257"/>
+      <c r="N67" s="256"/>
+      <c r="O67" s="255"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="26"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
-      <c r="K68" s="27"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="28"/>
+      <c r="A68" s="256"/>
+      <c r="B68" s="256"/>
+      <c r="C68" s="255"/>
+      <c r="D68" s="257"/>
+      <c r="E68" s="256"/>
+      <c r="F68" s="256"/>
+      <c r="G68" s="256"/>
+      <c r="H68" s="256"/>
+      <c r="I68" s="256"/>
+      <c r="J68" s="256"/>
+      <c r="K68" s="256"/>
+      <c r="L68" s="255"/>
+      <c r="M68" s="257"/>
+      <c r="N68" s="256"/>
+      <c r="O68" s="255"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
-      <c r="K69" s="27"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="28"/>
+      <c r="A69" s="256"/>
+      <c r="B69" s="256"/>
+      <c r="C69" s="255"/>
+      <c r="D69" s="257"/>
+      <c r="E69" s="256"/>
+      <c r="F69" s="256"/>
+      <c r="G69" s="256"/>
+      <c r="H69" s="256"/>
+      <c r="I69" s="256"/>
+      <c r="J69" s="256"/>
+      <c r="K69" s="256"/>
+      <c r="L69" s="255"/>
+      <c r="M69" s="257"/>
+      <c r="N69" s="256"/>
+      <c r="O69" s="255"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="26"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
-      <c r="K70" s="27"/>
-      <c r="L70" s="27"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="27"/>
-      <c r="O70" s="28"/>
+      <c r="A70" s="256"/>
+      <c r="B70" s="256"/>
+      <c r="C70" s="255"/>
+      <c r="D70" s="257"/>
+      <c r="E70" s="256"/>
+      <c r="F70" s="256"/>
+      <c r="G70" s="256"/>
+      <c r="H70" s="256"/>
+      <c r="I70" s="256"/>
+      <c r="J70" s="256"/>
+      <c r="K70" s="256"/>
+      <c r="L70" s="255"/>
+      <c r="M70" s="257"/>
+      <c r="N70" s="256"/>
+      <c r="O70" s="255"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="26"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
-      <c r="K71" s="27"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="27"/>
-      <c r="O71" s="28"/>
+      <c r="A71" s="256"/>
+      <c r="B71" s="256"/>
+      <c r="C71" s="255"/>
+      <c r="D71" s="257"/>
+      <c r="E71" s="256"/>
+      <c r="F71" s="256"/>
+      <c r="G71" s="256"/>
+      <c r="H71" s="256"/>
+      <c r="I71" s="256"/>
+      <c r="J71" s="256"/>
+      <c r="K71" s="256"/>
+      <c r="L71" s="255"/>
+      <c r="M71" s="257"/>
+      <c r="N71" s="256"/>
+      <c r="O71" s="255"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="26"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
-      <c r="K72" s="27"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="28"/>
+      <c r="A72" s="256"/>
+      <c r="B72" s="256"/>
+      <c r="C72" s="255"/>
+      <c r="D72" s="257"/>
+      <c r="E72" s="256"/>
+      <c r="F72" s="256"/>
+      <c r="G72" s="256"/>
+      <c r="H72" s="256"/>
+      <c r="I72" s="256"/>
+      <c r="J72" s="256"/>
+      <c r="K72" s="256"/>
+      <c r="L72" s="255"/>
+      <c r="M72" s="257"/>
+      <c r="N72" s="256"/>
+      <c r="O72" s="255"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="26"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
-      <c r="K73" s="27"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="28"/>
+      <c r="A73" s="256"/>
+      <c r="B73" s="256"/>
+      <c r="C73" s="255"/>
+      <c r="D73" s="257"/>
+      <c r="E73" s="256"/>
+      <c r="F73" s="256"/>
+      <c r="G73" s="256"/>
+      <c r="H73" s="256"/>
+      <c r="I73" s="256"/>
+      <c r="J73" s="256"/>
+      <c r="K73" s="256"/>
+      <c r="L73" s="255"/>
+      <c r="M73" s="257"/>
+      <c r="N73" s="256"/>
+      <c r="O73" s="255"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="26"/>
-      <c r="B74" s="27"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
-      <c r="K74" s="27"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="28"/>
+      <c r="A74" s="256"/>
+      <c r="B74" s="256"/>
+      <c r="C74" s="255"/>
+      <c r="D74" s="257"/>
+      <c r="E74" s="256"/>
+      <c r="F74" s="256"/>
+      <c r="G74" s="256"/>
+      <c r="H74" s="256"/>
+      <c r="I74" s="256"/>
+      <c r="J74" s="256"/>
+      <c r="K74" s="256"/>
+      <c r="L74" s="255"/>
+      <c r="M74" s="257"/>
+      <c r="N74" s="256"/>
+      <c r="O74" s="255"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="26"/>
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
-      <c r="K75" s="27"/>
-      <c r="L75" s="27"/>
-      <c r="M75" s="26"/>
-      <c r="N75" s="27"/>
-      <c r="O75" s="28"/>
+      <c r="A75" s="256"/>
+      <c r="B75" s="256"/>
+      <c r="C75" s="255"/>
+      <c r="D75" s="257"/>
+      <c r="E75" s="256"/>
+      <c r="F75" s="256"/>
+      <c r="G75" s="256"/>
+      <c r="H75" s="256"/>
+      <c r="I75" s="256"/>
+      <c r="J75" s="256"/>
+      <c r="K75" s="256"/>
+      <c r="L75" s="255"/>
+      <c r="M75" s="257"/>
+      <c r="N75" s="256"/>
+      <c r="O75" s="255"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="26"/>
-      <c r="B76" s="27"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
-      <c r="K76" s="27"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="26"/>
-      <c r="N76" s="27"/>
-      <c r="O76" s="28"/>
+      <c r="A76" s="256"/>
+      <c r="B76" s="256"/>
+      <c r="C76" s="255"/>
+      <c r="D76" s="257"/>
+      <c r="E76" s="256"/>
+      <c r="F76" s="256"/>
+      <c r="G76" s="256"/>
+      <c r="H76" s="256"/>
+      <c r="I76" s="256"/>
+      <c r="J76" s="256"/>
+      <c r="K76" s="256"/>
+      <c r="L76" s="255"/>
+      <c r="M76" s="257"/>
+      <c r="N76" s="256"/>
+      <c r="O76" s="255"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="26"/>
-      <c r="B77" s="27"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="26"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
-      <c r="K77" s="27"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="28"/>
+      <c r="A77" s="256"/>
+      <c r="B77" s="256"/>
+      <c r="C77" s="255"/>
+      <c r="D77" s="257"/>
+      <c r="E77" s="256"/>
+      <c r="F77" s="256"/>
+      <c r="G77" s="256"/>
+      <c r="H77" s="256"/>
+      <c r="I77" s="256"/>
+      <c r="J77" s="256"/>
+      <c r="K77" s="256"/>
+      <c r="L77" s="255"/>
+      <c r="M77" s="257"/>
+      <c r="N77" s="256"/>
+      <c r="O77" s="255"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="26"/>
-      <c r="B78" s="27"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
-      <c r="K78" s="27"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="28"/>
+      <c r="A78" s="256"/>
+      <c r="B78" s="256"/>
+      <c r="C78" s="255"/>
+      <c r="D78" s="257"/>
+      <c r="E78" s="256"/>
+      <c r="F78" s="256"/>
+      <c r="G78" s="256"/>
+      <c r="H78" s="256"/>
+      <c r="I78" s="256"/>
+      <c r="J78" s="256"/>
+      <c r="K78" s="256"/>
+      <c r="L78" s="255"/>
+      <c r="M78" s="257"/>
+      <c r="N78" s="256"/>
+      <c r="O78" s="255"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="26"/>
-      <c r="B79" s="27"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
-      <c r="K79" s="27"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="28"/>
+      <c r="A79" s="256"/>
+      <c r="B79" s="256"/>
+      <c r="C79" s="255"/>
+      <c r="D79" s="257"/>
+      <c r="E79" s="256"/>
+      <c r="F79" s="256"/>
+      <c r="G79" s="256"/>
+      <c r="H79" s="256"/>
+      <c r="I79" s="256"/>
+      <c r="J79" s="256"/>
+      <c r="K79" s="256"/>
+      <c r="L79" s="255"/>
+      <c r="M79" s="257"/>
+      <c r="N79" s="256"/>
+      <c r="O79" s="255"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="26"/>
-      <c r="B80" s="27"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
-      <c r="K80" s="27"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="27"/>
-      <c r="O80" s="28"/>
+      <c r="A80" s="256"/>
+      <c r="B80" s="256"/>
+      <c r="C80" s="255"/>
+      <c r="D80" s="257"/>
+      <c r="E80" s="256"/>
+      <c r="F80" s="256"/>
+      <c r="G80" s="256"/>
+      <c r="H80" s="256"/>
+      <c r="I80" s="256"/>
+      <c r="J80" s="256"/>
+      <c r="K80" s="256"/>
+      <c r="L80" s="255"/>
+      <c r="M80" s="257"/>
+      <c r="N80" s="256"/>
+      <c r="O80" s="255"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="26"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="28"/>
+      <c r="A81" s="256"/>
+      <c r="B81" s="256"/>
+      <c r="C81" s="255"/>
+      <c r="D81" s="257"/>
+      <c r="E81" s="256"/>
+      <c r="F81" s="256"/>
+      <c r="G81" s="256"/>
+      <c r="H81" s="256"/>
+      <c r="I81" s="256"/>
+      <c r="J81" s="256"/>
+      <c r="K81" s="256"/>
+      <c r="L81" s="255"/>
+      <c r="M81" s="257"/>
+      <c r="N81" s="256"/>
+      <c r="O81" s="255"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="26"/>
-      <c r="B82" s="27"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="26"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
-      <c r="K82" s="27"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="28"/>
+      <c r="A82" s="256"/>
+      <c r="B82" s="256"/>
+      <c r="C82" s="255"/>
+      <c r="D82" s="257"/>
+      <c r="E82" s="256"/>
+      <c r="F82" s="256"/>
+      <c r="G82" s="256"/>
+      <c r="H82" s="256"/>
+      <c r="I82" s="256"/>
+      <c r="J82" s="256"/>
+      <c r="K82" s="256"/>
+      <c r="L82" s="255"/>
+      <c r="M82" s="257"/>
+      <c r="N82" s="256"/>
+      <c r="O82" s="255"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="26"/>
-      <c r="B83" s="27"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
-      <c r="K83" s="27"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="28"/>
+      <c r="A83" s="256"/>
+      <c r="B83" s="256"/>
+      <c r="C83" s="255"/>
+      <c r="D83" s="257"/>
+      <c r="E83" s="256"/>
+      <c r="F83" s="256"/>
+      <c r="G83" s="256"/>
+      <c r="H83" s="256"/>
+      <c r="I83" s="256"/>
+      <c r="J83" s="256"/>
+      <c r="K83" s="256"/>
+      <c r="L83" s="255"/>
+      <c r="M83" s="257"/>
+      <c r="N83" s="256"/>
+      <c r="O83" s="255"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="26"/>
-      <c r="B84" s="27"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
-      <c r="K84" s="27"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="26"/>
-      <c r="N84" s="27"/>
-      <c r="O84" s="28"/>
+      <c r="A84" s="256"/>
+      <c r="B84" s="256"/>
+      <c r="C84" s="255"/>
+      <c r="D84" s="257"/>
+      <c r="E84" s="256"/>
+      <c r="F84" s="256"/>
+      <c r="G84" s="256"/>
+      <c r="H84" s="256"/>
+      <c r="I84" s="256"/>
+      <c r="J84" s="256"/>
+      <c r="K84" s="256"/>
+      <c r="L84" s="255"/>
+      <c r="M84" s="257"/>
+      <c r="N84" s="256"/>
+      <c r="O84" s="255"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="26"/>
-      <c r="B85" s="27"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="26"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
-      <c r="K85" s="27"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="28"/>
+      <c r="A85" s="256"/>
+      <c r="B85" s="256"/>
+      <c r="C85" s="255"/>
+      <c r="D85" s="257"/>
+      <c r="E85" s="256"/>
+      <c r="F85" s="256"/>
+      <c r="G85" s="256"/>
+      <c r="H85" s="256"/>
+      <c r="I85" s="256"/>
+      <c r="J85" s="256"/>
+      <c r="K85" s="256"/>
+      <c r="L85" s="255"/>
+      <c r="M85" s="257"/>
+      <c r="N85" s="256"/>
+      <c r="O85" s="255"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="26"/>
-      <c r="B86" s="27"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="26"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
-      <c r="K86" s="27"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="28"/>
+      <c r="A86" s="256"/>
+      <c r="B86" s="256"/>
+      <c r="C86" s="255"/>
+      <c r="D86" s="257"/>
+      <c r="E86" s="256"/>
+      <c r="F86" s="256"/>
+      <c r="G86" s="256"/>
+      <c r="H86" s="256"/>
+      <c r="I86" s="256"/>
+      <c r="J86" s="256"/>
+      <c r="K86" s="256"/>
+      <c r="L86" s="255"/>
+      <c r="M86" s="257"/>
+      <c r="N86" s="256"/>
+      <c r="O86" s="255"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="26"/>
-      <c r="B87" s="27"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
-      <c r="K87" s="27"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="28"/>
+      <c r="A87" s="256"/>
+      <c r="B87" s="256"/>
+      <c r="C87" s="255"/>
+      <c r="D87" s="257"/>
+      <c r="E87" s="256"/>
+      <c r="F87" s="256"/>
+      <c r="G87" s="256"/>
+      <c r="H87" s="256"/>
+      <c r="I87" s="256"/>
+      <c r="J87" s="256"/>
+      <c r="K87" s="256"/>
+      <c r="L87" s="255"/>
+      <c r="M87" s="257"/>
+      <c r="N87" s="256"/>
+      <c r="O87" s="255"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="26"/>
-      <c r="B88" s="27"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
-      <c r="K88" s="27"/>
-      <c r="L88" s="27"/>
-      <c r="M88" s="26"/>
-      <c r="N88" s="27"/>
-      <c r="O88" s="28"/>
+      <c r="A88" s="256"/>
+      <c r="B88" s="256"/>
+      <c r="C88" s="255"/>
+      <c r="D88" s="257"/>
+      <c r="E88" s="256"/>
+      <c r="F88" s="256"/>
+      <c r="G88" s="256"/>
+      <c r="H88" s="256"/>
+      <c r="I88" s="256"/>
+      <c r="J88" s="256"/>
+      <c r="K88" s="256"/>
+      <c r="L88" s="255"/>
+      <c r="M88" s="257"/>
+      <c r="N88" s="256"/>
+      <c r="O88" s="255"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="26"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="27"/>
-      <c r="I89" s="27"/>
-      <c r="J89" s="27"/>
-      <c r="K89" s="27"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="27"/>
-      <c r="O89" s="28"/>
+      <c r="A89" s="256"/>
+      <c r="B89" s="256"/>
+      <c r="C89" s="255"/>
+      <c r="D89" s="257"/>
+      <c r="E89" s="256"/>
+      <c r="F89" s="256"/>
+      <c r="G89" s="256"/>
+      <c r="H89" s="256"/>
+      <c r="I89" s="256"/>
+      <c r="J89" s="256"/>
+      <c r="K89" s="256"/>
+      <c r="L89" s="255"/>
+      <c r="M89" s="257"/>
+      <c r="N89" s="256"/>
+      <c r="O89" s="255"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="26"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="26"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
-      <c r="K90" s="27"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="28"/>
+      <c r="A90" s="256"/>
+      <c r="B90" s="256"/>
+      <c r="C90" s="255"/>
+      <c r="D90" s="257"/>
+      <c r="E90" s="256"/>
+      <c r="F90" s="256"/>
+      <c r="G90" s="256"/>
+      <c r="H90" s="256"/>
+      <c r="I90" s="256"/>
+      <c r="J90" s="256"/>
+      <c r="K90" s="256"/>
+      <c r="L90" s="255"/>
+      <c r="M90" s="257"/>
+      <c r="N90" s="256"/>
+      <c r="O90" s="255"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="26"/>
-      <c r="B91" s="27"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
-      <c r="K91" s="27"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="28"/>
+      <c r="A91" s="256"/>
+      <c r="B91" s="256"/>
+      <c r="C91" s="255"/>
+      <c r="D91" s="257"/>
+      <c r="E91" s="256"/>
+      <c r="F91" s="256"/>
+      <c r="G91" s="256"/>
+      <c r="H91" s="256"/>
+      <c r="I91" s="256"/>
+      <c r="J91" s="256"/>
+      <c r="K91" s="256"/>
+      <c r="L91" s="255"/>
+      <c r="M91" s="257"/>
+      <c r="N91" s="256"/>
+      <c r="O91" s="255"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="26"/>
-      <c r="B92" s="27"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="26"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="28"/>
+      <c r="A92" s="256"/>
+      <c r="B92" s="256"/>
+      <c r="C92" s="255"/>
+      <c r="D92" s="257"/>
+      <c r="E92" s="256"/>
+      <c r="F92" s="256"/>
+      <c r="G92" s="256"/>
+      <c r="H92" s="256"/>
+      <c r="I92" s="256"/>
+      <c r="J92" s="256"/>
+      <c r="K92" s="256"/>
+      <c r="L92" s="255"/>
+      <c r="M92" s="257"/>
+      <c r="N92" s="256"/>
+      <c r="O92" s="255"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="26"/>
-      <c r="B93" s="27"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="26"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
-      <c r="K93" s="27"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="26"/>
-      <c r="N93" s="27"/>
-      <c r="O93" s="28"/>
+      <c r="A93" s="256"/>
+      <c r="B93" s="256"/>
+      <c r="C93" s="255"/>
+      <c r="D93" s="257"/>
+      <c r="E93" s="256"/>
+      <c r="F93" s="256"/>
+      <c r="G93" s="256"/>
+      <c r="H93" s="256"/>
+      <c r="I93" s="256"/>
+      <c r="J93" s="256"/>
+      <c r="K93" s="256"/>
+      <c r="L93" s="255"/>
+      <c r="M93" s="257"/>
+      <c r="N93" s="256"/>
+      <c r="O93" s="255"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="26"/>
-      <c r="B94" s="27"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="26"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
-      <c r="K94" s="27"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="26"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="28"/>
+      <c r="A94" s="256"/>
+      <c r="B94" s="256"/>
+      <c r="C94" s="255"/>
+      <c r="D94" s="257"/>
+      <c r="E94" s="256"/>
+      <c r="F94" s="256"/>
+      <c r="G94" s="256"/>
+      <c r="H94" s="256"/>
+      <c r="I94" s="256"/>
+      <c r="J94" s="256"/>
+      <c r="K94" s="256"/>
+      <c r="L94" s="255"/>
+      <c r="M94" s="257"/>
+      <c r="N94" s="256"/>
+      <c r="O94" s="255"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="26"/>
-      <c r="B95" s="27"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="28"/>
+      <c r="A95" s="256"/>
+      <c r="B95" s="256"/>
+      <c r="C95" s="255"/>
+      <c r="D95" s="257"/>
+      <c r="E95" s="256"/>
+      <c r="F95" s="256"/>
+      <c r="G95" s="256"/>
+      <c r="H95" s="256"/>
+      <c r="I95" s="256"/>
+      <c r="J95" s="256"/>
+      <c r="K95" s="256"/>
+      <c r="L95" s="255"/>
+      <c r="M95" s="257"/>
+      <c r="N95" s="256"/>
+      <c r="O95" s="255"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="26"/>
-      <c r="B96" s="27"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="28"/>
+      <c r="A96" s="256"/>
+      <c r="B96" s="256"/>
+      <c r="C96" s="255"/>
+      <c r="D96" s="257"/>
+      <c r="E96" s="256"/>
+      <c r="F96" s="256"/>
+      <c r="G96" s="256"/>
+      <c r="H96" s="256"/>
+      <c r="I96" s="256"/>
+      <c r="J96" s="256"/>
+      <c r="K96" s="256"/>
+      <c r="L96" s="255"/>
+      <c r="M96" s="257"/>
+      <c r="N96" s="256"/>
+      <c r="O96" s="255"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="26"/>
-      <c r="B97" s="27"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="26"/>
-      <c r="N97" s="27"/>
-      <c r="O97" s="28"/>
+      <c r="A97" s="256"/>
+      <c r="B97" s="256"/>
+      <c r="C97" s="255"/>
+      <c r="D97" s="257"/>
+      <c r="E97" s="256"/>
+      <c r="F97" s="256"/>
+      <c r="G97" s="256"/>
+      <c r="H97" s="256"/>
+      <c r="I97" s="256"/>
+      <c r="J97" s="256"/>
+      <c r="K97" s="256"/>
+      <c r="L97" s="255"/>
+      <c r="M97" s="257"/>
+      <c r="N97" s="256"/>
+      <c r="O97" s="255"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="26"/>
-      <c r="B98" s="27"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="26"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="27"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="26"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="28"/>
+      <c r="A98" s="256"/>
+      <c r="B98" s="256"/>
+      <c r="C98" s="255"/>
+      <c r="D98" s="257"/>
+      <c r="E98" s="256"/>
+      <c r="F98" s="256"/>
+      <c r="G98" s="256"/>
+      <c r="H98" s="256"/>
+      <c r="I98" s="256"/>
+      <c r="J98" s="256"/>
+      <c r="K98" s="256"/>
+      <c r="L98" s="255"/>
+      <c r="M98" s="257"/>
+      <c r="N98" s="256"/>
+      <c r="O98" s="255"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="26"/>
-      <c r="B99" s="27"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
-      <c r="K99" s="27"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="26"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="28"/>
+      <c r="A99" s="256"/>
+      <c r="B99" s="256"/>
+      <c r="C99" s="255"/>
+      <c r="D99" s="257"/>
+      <c r="E99" s="256"/>
+      <c r="F99" s="256"/>
+      <c r="G99" s="256"/>
+      <c r="H99" s="256"/>
+      <c r="I99" s="256"/>
+      <c r="J99" s="256"/>
+      <c r="K99" s="256"/>
+      <c r="L99" s="255"/>
+      <c r="M99" s="257"/>
+      <c r="N99" s="256"/>
+      <c r="O99" s="255"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="26"/>
-      <c r="B100" s="27"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
-      <c r="K100" s="27"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="28"/>
+      <c r="A100" s="256"/>
+      <c r="B100" s="256"/>
+      <c r="C100" s="255"/>
+      <c r="D100" s="257"/>
+      <c r="E100" s="256"/>
+      <c r="F100" s="256"/>
+      <c r="G100" s="256"/>
+      <c r="H100" s="256"/>
+      <c r="I100" s="256"/>
+      <c r="J100" s="256"/>
+      <c r="K100" s="256"/>
+      <c r="L100" s="255"/>
+      <c r="M100" s="257"/>
+      <c r="N100" s="256"/>
+      <c r="O100" s="255"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="26"/>
-      <c r="B101" s="27"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
-      <c r="K101" s="27"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="26"/>
-      <c r="N101" s="27"/>
-      <c r="O101" s="28"/>
+      <c r="A101" s="256"/>
+      <c r="B101" s="256"/>
+      <c r="C101" s="255"/>
+      <c r="D101" s="257"/>
+      <c r="E101" s="256"/>
+      <c r="F101" s="256"/>
+      <c r="G101" s="256"/>
+      <c r="H101" s="256"/>
+      <c r="I101" s="256"/>
+      <c r="J101" s="256"/>
+      <c r="K101" s="256"/>
+      <c r="L101" s="255"/>
+      <c r="M101" s="257"/>
+      <c r="N101" s="256"/>
+      <c r="O101" s="255"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="26"/>
-      <c r="B102" s="27"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
-      <c r="K102" s="27"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="28"/>
+      <c r="A102" s="256"/>
+      <c r="B102" s="256"/>
+      <c r="C102" s="255"/>
+      <c r="D102" s="257"/>
+      <c r="E102" s="256"/>
+      <c r="F102" s="256"/>
+      <c r="G102" s="256"/>
+      <c r="H102" s="256"/>
+      <c r="I102" s="256"/>
+      <c r="J102" s="256"/>
+      <c r="K102" s="256"/>
+      <c r="L102" s="255"/>
+      <c r="M102" s="257"/>
+      <c r="N102" s="256"/>
+      <c r="O102" s="255"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="26"/>
-      <c r="B103" s="27"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
-      <c r="K103" s="27"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="28"/>
+      <c r="A103" s="256"/>
+      <c r="B103" s="256"/>
+      <c r="C103" s="255"/>
+      <c r="D103" s="257"/>
+      <c r="E103" s="256"/>
+      <c r="F103" s="256"/>
+      <c r="G103" s="256"/>
+      <c r="H103" s="256"/>
+      <c r="I103" s="256"/>
+      <c r="J103" s="256"/>
+      <c r="K103" s="256"/>
+      <c r="L103" s="255"/>
+      <c r="M103" s="257"/>
+      <c r="N103" s="256"/>
+      <c r="O103" s="255"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="29"/>
-      <c r="B104" s="30"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="29"/>
-      <c r="E104" s="30"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="30"/>
-      <c r="H104" s="30"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="30"/>
-      <c r="K104" s="30"/>
-      <c r="L104" s="30"/>
-      <c r="M104" s="29"/>
-      <c r="N104" s="30"/>
-      <c r="O104" s="31"/>
+      <c r="A104" s="256"/>
+      <c r="B104" s="256"/>
+      <c r="C104" s="255"/>
+      <c r="D104" s="257"/>
+      <c r="E104" s="256"/>
+      <c r="F104" s="256"/>
+      <c r="G104" s="256"/>
+      <c r="H104" s="256"/>
+      <c r="I104" s="256"/>
+      <c r="J104" s="256"/>
+      <c r="K104" s="256"/>
+      <c r="L104" s="255"/>
+      <c r="M104" s="257"/>
+      <c r="N104" s="256"/>
+      <c r="O104" s="255"/>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="253"/>
+      <c r="B105" s="253"/>
+      <c r="C105" s="252"/>
+      <c r="D105" s="254"/>
+      <c r="E105" s="253"/>
+      <c r="F105" s="253"/>
+      <c r="G105" s="253"/>
+      <c r="H105" s="253"/>
+      <c r="I105" s="253"/>
+      <c r="J105" s="253"/>
+      <c r="K105" s="253"/>
+      <c r="L105" s="252"/>
+      <c r="M105" s="254"/>
+      <c r="N105" s="253"/>
+      <c r="O105" s="252"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A1:O1"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="M3:O3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B104" xr:uid="{4AF636A1-4461-8349-B4A5-FBDE47D5E9F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B105" xr:uid="{911EA244-E722-C14D-8188-83B787517C88}">
       <formula1>VariantRegionTypeCV</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -12502,144 +12615,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="305" t="s">
-        <v>545</v>
-      </c>
-      <c r="B1" s="306"/>
+      <c r="A1" s="319" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" s="320"/>
     </row>
     <row r="2" spans="1:2" s="9" customFormat="1" ht="25" customHeight="1">
-      <c r="A2" s="314" t="s">
-        <v>546</v>
-      </c>
-      <c r="B2" s="315"/>
+      <c r="A2" s="329" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" s="330"/>
     </row>
     <row r="3" spans="1:2" ht="16">
-      <c r="A3" s="233"/>
-      <c r="B3" s="233"/>
+      <c r="A3" s="228"/>
+      <c r="B3" s="228"/>
     </row>
     <row r="4" spans="1:2" ht="17">
       <c r="A4" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="B4" s="234" t="s">
-        <v>547</v>
+      <c r="B4" s="229" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17">
       <c r="A5" s="135" t="s">
-        <v>541</v>
-      </c>
-      <c r="B5" s="234" t="s">
+        <v>535</v>
+      </c>
+      <c r="B5" s="229" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="85">
       <c r="A6" s="135" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="229" t="s">
         <v>542</v>
       </c>
-      <c r="B6" s="234" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="17">
+      <c r="A7" s="230" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="229" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34">
+      <c r="A8" s="230" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="229" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34">
+      <c r="A9" s="230" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="229" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="231"/>
+      <c r="B10" s="232"/>
+    </row>
+    <row r="11" spans="1:2" ht="16" customHeight="1">
+      <c r="A11" s="230" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="331" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="230" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12" s="331"/>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="230" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="331"/>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="230" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="331"/>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="230" t="s">
+        <v>225</v>
+      </c>
+      <c r="B15" s="331"/>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="230" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="331"/>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="231"/>
+      <c r="B17" s="233"/>
+    </row>
+    <row r="18" spans="1:2" ht="34">
+      <c r="A18" s="230" t="s">
+        <v>537</v>
+      </c>
+      <c r="B18" s="229" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="34">
+      <c r="A19" s="230" t="s">
+        <v>538</v>
+      </c>
+      <c r="B19" s="229" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17">
-      <c r="A7" s="235" t="s">
-        <v>218</v>
-      </c>
-      <c r="B7" s="234" t="s">
+    <row r="20" spans="1:2" ht="17">
+      <c r="A20" s="230" t="s">
+        <v>217</v>
+      </c>
+      <c r="B20" s="229" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="34">
-      <c r="A8" s="235" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="234" t="s">
+    <row r="22" spans="1:2" ht="39" customHeight="1">
+      <c r="A22" s="332" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="34">
-      <c r="A9" s="235" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="234" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16">
-      <c r="A10" s="236"/>
-      <c r="B10" s="237"/>
-    </row>
-    <row r="11" spans="1:2" ht="16" customHeight="1">
-      <c r="A11" s="235" t="s">
-        <v>221</v>
-      </c>
-      <c r="B11" s="316" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16">
-      <c r="A12" s="235" t="s">
-        <v>222</v>
-      </c>
-      <c r="B12" s="316"/>
-    </row>
-    <row r="13" spans="1:2" ht="16">
-      <c r="A13" s="235" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="316"/>
-    </row>
-    <row r="14" spans="1:2" ht="16">
-      <c r="A14" s="235" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="316"/>
-    </row>
-    <row r="15" spans="1:2" ht="16">
-      <c r="A15" s="235" t="s">
-        <v>225</v>
-      </c>
-      <c r="B15" s="316"/>
-    </row>
-    <row r="16" spans="1:2" ht="16">
-      <c r="A16" s="235" t="s">
-        <v>226</v>
-      </c>
-      <c r="B16" s="316"/>
-    </row>
-    <row r="17" spans="1:2" ht="16">
-      <c r="A17" s="236"/>
-      <c r="B17" s="238"/>
-    </row>
-    <row r="18" spans="1:2" ht="34">
-      <c r="A18" s="235" t="s">
-        <v>543</v>
-      </c>
-      <c r="B18" s="234" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="34">
-      <c r="A19" s="235" t="s">
-        <v>544</v>
-      </c>
-      <c r="B19" s="234" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="17">
-      <c r="A20" s="235" t="s">
-        <v>217</v>
-      </c>
-      <c r="B20" s="234" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="39" customHeight="1">
-      <c r="A22" s="317" t="s">
-        <v>556</v>
-      </c>
-      <c r="B22" s="318"/>
+      <c r="B22" s="333"/>
     </row>
   </sheetData>
   <sheetProtection password="C4EE" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -12676,31 +12789,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="319" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="306"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="320"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" s="239" customFormat="1" ht="67" customHeight="1">
-      <c r="A2" s="321" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="323"/>
+    <row r="2" spans="1:12" s="234" customFormat="1" ht="67" customHeight="1">
+      <c r="A2" s="336" t="s">
+        <v>551</v>
+      </c>
+      <c r="B2" s="337"/>
+      <c r="C2" s="337"/>
+      <c r="D2" s="338"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
       <c r="G2" s="103"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="D3" s="240"/>
+      <c r="D3" s="235"/>
     </row>
     <row r="4" spans="1:12" s="91" customFormat="1" ht="46" customHeight="1">
       <c r="A4" s="88"/>
@@ -12716,15 +12829,15 @@
       <c r="E4" s="158"/>
       <c r="F4" s="158"/>
     </row>
-    <row r="5" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A5" s="324" t="s">
+    <row r="5" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A5" s="339" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="241" t="str">
+      <c r="B5" s="236" t="str">
         <f t="shared" ref="B5:B16" si="0">HYPERLINK(E5,F5)</f>
         <v>ArrayExpress</v>
       </c>
-      <c r="C5" s="242" t="s">
+      <c r="C5" s="237" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="128" t="s">
@@ -12737,13 +12850,13 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A6" s="324"/>
-      <c r="B6" s="243" t="str">
+    <row r="6" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A6" s="339"/>
+      <c r="B6" s="238" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genotypes and Phenotypes</v>
       </c>
-      <c r="C6" s="244" t="s">
+      <c r="C6" s="239" t="s">
         <v>149</v>
       </c>
       <c r="D6" s="129" t="s">
@@ -12756,13 +12869,13 @@
         <v>148</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A7" s="324"/>
-      <c r="B7" s="243" t="str">
+    <row r="7" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A7" s="339"/>
+      <c r="B7" s="238" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP (Short Genetic Variations)</v>
       </c>
-      <c r="C7" s="244" t="s">
+      <c r="C7" s="239" t="s">
         <v>152</v>
       </c>
       <c r="D7" s="129" t="s">
@@ -12775,13 +12888,13 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A8" s="324"/>
-      <c r="B8" s="243" t="str">
+    <row r="8" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A8" s="339"/>
+      <c r="B8" s="238" t="str">
         <f t="shared" si="0"/>
         <v>dbSNP Batch ID</v>
       </c>
-      <c r="C8" s="244" t="s">
+      <c r="C8" s="239" t="s">
         <v>427</v>
       </c>
       <c r="D8" s="129" t="s">
@@ -12794,13 +12907,13 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A9" s="324"/>
-      <c r="B9" s="243" t="str">
+    <row r="9" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A9" s="339"/>
+      <c r="B9" s="238" t="str">
         <f t="shared" si="0"/>
         <v>DNA Databank of Japan</v>
       </c>
-      <c r="C9" s="244" t="s">
+      <c r="C9" s="239" t="s">
         <v>154</v>
       </c>
       <c r="D9" s="129" t="s">
@@ -12810,16 +12923,16 @@
         <v>155</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A10" s="324"/>
-      <c r="B10" s="243" t="str">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A10" s="339"/>
+      <c r="B10" s="238" t="str">
         <f t="shared" si="0"/>
         <v>Database of Genomic Variants</v>
       </c>
-      <c r="C10" s="244" t="s">
+      <c r="C10" s="239" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="129" t="s">
@@ -12832,13 +12945,13 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A11" s="324"/>
-      <c r="B11" s="243" t="str">
+    <row r="11" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A11" s="339"/>
+      <c r="B11" s="238" t="str">
         <f t="shared" si="0"/>
         <v>European Genome-phenome Archive</v>
       </c>
-      <c r="C11" s="244" t="s">
+      <c r="C11" s="239" t="s">
         <v>162</v>
       </c>
       <c r="D11" s="129" t="s">
@@ -12851,13 +12964,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A12" s="324"/>
-      <c r="B12" s="243" t="str">
+    <row r="12" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A12" s="339"/>
+      <c r="B12" s="238" t="str">
         <f t="shared" si="0"/>
         <v>European Nucleotide Archive</v>
       </c>
-      <c r="C12" s="244" t="s">
+      <c r="C12" s="239" t="s">
         <v>166</v>
       </c>
       <c r="D12" s="129" t="s">
@@ -12870,13 +12983,13 @@
         <v>165</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A13" s="324"/>
-      <c r="B13" s="243" t="str">
+    <row r="13" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A13" s="339"/>
+      <c r="B13" s="238" t="str">
         <f t="shared" si="0"/>
         <v>GenBank</v>
       </c>
-      <c r="C13" s="244" t="s">
+      <c r="C13" s="239" t="s">
         <v>170</v>
       </c>
       <c r="D13" s="129" t="s">
@@ -12889,13 +13002,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A14" s="324"/>
-      <c r="B14" s="243" t="str">
+    <row r="14" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A14" s="339"/>
+      <c r="B14" s="238" t="str">
         <f t="shared" si="0"/>
         <v>NCBI Gene</v>
       </c>
-      <c r="C14" s="244" t="s">
+      <c r="C14" s="239" t="s">
         <v>173</v>
       </c>
       <c r="D14" s="129" t="s">
@@ -12908,13 +13021,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A15" s="324"/>
-      <c r="B15" s="243" t="str">
+    <row r="15" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A15" s="339"/>
+      <c r="B15" s="238" t="str">
         <f t="shared" si="0"/>
         <v>Gene Expression Omnibus</v>
       </c>
-      <c r="C15" s="244" t="s">
+      <c r="C15" s="239" t="s">
         <v>176</v>
       </c>
       <c r="D15" s="129" t="s">
@@ -12927,13 +13040,13 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A16" s="324"/>
-      <c r="B16" s="243" t="str">
+    <row r="16" spans="1:12" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A16" s="339"/>
+      <c r="B16" s="238" t="str">
         <f t="shared" si="0"/>
         <v>Sequence Read Archive</v>
       </c>
-      <c r="C16" s="244" t="s">
+      <c r="C16" s="239" t="s">
         <v>180</v>
       </c>
       <c r="D16" s="129" t="s">
@@ -12946,13 +13059,13 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A17" s="324"/>
-      <c r="B17" s="243" t="str">
+    <row r="17" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A17" s="339"/>
+      <c r="B17" s="238" t="str">
         <f>HYPERLINK(E17,F17)</f>
         <v>Trace Archive</v>
       </c>
-      <c r="C17" s="244" t="s">
+      <c r="C17" s="239" t="s">
         <v>183</v>
       </c>
       <c r="D17" s="129" t="s">
@@ -12965,61 +13078,61 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A18" s="324"/>
-      <c r="B18" s="250" t="str">
+    <row r="18" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A18" s="339"/>
+      <c r="B18" s="245" t="str">
         <f>HYPERLINK(E18,F18)</f>
         <v>Genomic Expression Archive</v>
       </c>
-      <c r="C18" s="244" t="s">
-        <v>561</v>
+      <c r="C18" s="239" t="s">
+        <v>555</v>
       </c>
       <c r="D18" s="129" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A19" s="324"/>
-      <c r="B19" s="245" t="str">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A19" s="339"/>
+      <c r="B19" s="240" t="str">
         <f>HYPERLINK(E19,F19)</f>
         <v>Japanese Genotype-phenotype Archive</v>
       </c>
-      <c r="C19" s="246" t="s">
-        <v>562</v>
+      <c r="C19" s="241" t="s">
+        <v>556</v>
       </c>
       <c r="D19" s="130" t="s">
-        <v>563</v>
-      </c>
-      <c r="E19" s="251" t="s">
-        <v>565</v>
-      </c>
-      <c r="F19" s="251" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="239" customFormat="1" ht="25" customHeight="1">
+        <v>557</v>
+      </c>
+      <c r="E19" s="246" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="246" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="234" customFormat="1" ht="25" customHeight="1">
       <c r="A20" s="87"/>
-      <c r="B20" s="247"/>
-      <c r="C20" s="244"/>
+      <c r="B20" s="242"/>
+      <c r="C20" s="239"/>
       <c r="D20" s="86"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A21" s="324" t="s">
+    <row r="21" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A21" s="339" t="s">
         <v>363</v>
       </c>
-      <c r="B21" s="241" t="str">
+      <c r="B21" s="236" t="str">
         <f t="shared" ref="B21:B26" si="1">HYPERLINK(E21,F21)</f>
         <v>Human Phenotype Ontology</v>
       </c>
-      <c r="C21" s="242" t="s">
+      <c r="C21" s="237" t="s">
         <v>186</v>
       </c>
       <c r="D21" s="128" t="s">
@@ -13032,13 +13145,13 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A22" s="324"/>
-      <c r="B22" s="243" t="str">
+    <row r="22" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A22" s="339"/>
+      <c r="B22" s="238" t="str">
         <f t="shared" si="1"/>
         <v>MedGen</v>
       </c>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="239" t="s">
         <v>189</v>
       </c>
       <c r="D22" s="129" t="s">
@@ -13051,13 +13164,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A23" s="324"/>
-      <c r="B23" s="243" t="str">
+    <row r="23" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A23" s="339"/>
+      <c r="B23" s="238" t="str">
         <f t="shared" si="1"/>
         <v>Medical Subject Headings</v>
       </c>
-      <c r="C23" s="244" t="s">
+      <c r="C23" s="239" t="s">
         <v>192</v>
       </c>
       <c r="D23" s="129" t="s">
@@ -13070,13 +13183,13 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A24" s="324"/>
-      <c r="B24" s="243" t="str">
+    <row r="24" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A24" s="339"/>
+      <c r="B24" s="238" t="str">
         <f t="shared" si="1"/>
         <v>Online Mendelian Inhertiance in Man</v>
       </c>
-      <c r="C24" s="244" t="s">
+      <c r="C24" s="239" t="s">
         <v>195</v>
       </c>
       <c r="D24" s="129" t="s">
@@ -13089,13 +13202,13 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A25" s="324"/>
-      <c r="B25" s="243" t="str">
+    <row r="25" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A25" s="339"/>
+      <c r="B25" s="238" t="str">
         <f t="shared" si="1"/>
         <v>Systematized Nomenclature of Medicine</v>
       </c>
-      <c r="C25" s="244" t="s">
+      <c r="C25" s="239" t="s">
         <v>198</v>
       </c>
       <c r="D25" s="129" t="s">
@@ -13108,13 +13221,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A26" s="324"/>
-      <c r="B26" s="245" t="str">
+    <row r="26" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A26" s="339"/>
+      <c r="B26" s="240" t="str">
         <f t="shared" si="1"/>
         <v>Unified Medical Language System</v>
       </c>
-      <c r="C26" s="246" t="s">
+      <c r="C26" s="241" t="s">
         <v>201</v>
       </c>
       <c r="D26" s="130" t="s">
@@ -13127,23 +13240,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="239" customFormat="1" ht="25" customHeight="1">
+    <row r="27" spans="1:6" s="234" customFormat="1" ht="25" customHeight="1">
       <c r="A27" s="87"/>
-      <c r="B27" s="247"/>
-      <c r="C27" s="244"/>
+      <c r="B27" s="242"/>
+      <c r="C27" s="239"/>
       <c r="D27" s="86"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
     </row>
-    <row r="28" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A28" s="319" t="s">
+    <row r="28" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A28" s="334" t="s">
         <v>364</v>
       </c>
-      <c r="B28" s="241" t="str">
+      <c r="B28" s="236" t="str">
         <f t="shared" ref="B28:B32" si="2">HYPERLINK(E28,F28)</f>
         <v>Coriell Institute</v>
       </c>
-      <c r="C28" s="242" t="s">
+      <c r="C28" s="237" t="s">
         <v>205</v>
       </c>
       <c r="D28" s="128" t="s">
@@ -13156,51 +13269,51 @@
         <v>204</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A29" s="319"/>
-      <c r="B29" s="243" t="str">
+    <row r="29" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A29" s="334"/>
+      <c r="B29" s="238" t="str">
         <f t="shared" ref="B29" si="3">HYPERLINK(E29,F29)</f>
         <v>BioProject Database</v>
       </c>
-      <c r="C29" s="244" t="s">
-        <v>516</v>
+      <c r="C29" s="239" t="s">
+        <v>515</v>
       </c>
       <c r="D29" s="129" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A30" s="319"/>
-      <c r="B30" s="243" t="str">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A30" s="334"/>
+      <c r="B30" s="238" t="str">
         <f t="shared" si="2"/>
         <v>BioSample Database</v>
       </c>
-      <c r="C30" s="244" t="s">
+      <c r="C30" s="239" t="s">
         <v>210</v>
       </c>
       <c r="D30" s="129" t="s">
         <v>211</v>
       </c>
       <c r="E30" s="159" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F30" s="17" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A31" s="319"/>
-      <c r="B31" s="243" t="str">
+    <row r="31" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A31" s="334"/>
+      <c r="B31" s="238" t="str">
         <f t="shared" si="2"/>
         <v>PubMed</v>
       </c>
-      <c r="C31" s="244" t="s">
+      <c r="C31" s="239" t="s">
         <v>212</v>
       </c>
       <c r="D31" s="129" t="s">
@@ -13213,13 +13326,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="239" customFormat="1" ht="19" customHeight="1">
-      <c r="A32" s="319"/>
-      <c r="B32" s="245" t="str">
+    <row r="32" spans="1:6" s="234" customFormat="1" ht="19" customHeight="1">
+      <c r="A32" s="334"/>
+      <c r="B32" s="240" t="str">
         <f t="shared" si="2"/>
         <v>GeneReviews</v>
       </c>
-      <c r="C32" s="246" t="s">
+      <c r="C32" s="241" t="s">
         <v>214</v>
       </c>
       <c r="D32" s="130" t="s">
@@ -13233,14 +13346,14 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="248"/>
-      <c r="B33" s="249"/>
+      <c r="A33" s="243"/>
+      <c r="B33" s="244"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="248"/>
+      <c r="A34" s="243"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="B41" s="239"/>
+      <c r="B41" s="234"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="M9kx+0lVWQexCnWL/ed/hZWSBrUhBPwi4xOJtpECsKexvqTeBJynScLGVcyCFijV0S78KptfHYjNKY8IhJAl3A==" saltValue="mWUU7V01sECHiGqL8pXqFA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -13270,7 +13383,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y88" sqref="Y88"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14"/>
@@ -13295,14 +13408,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="31">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="319" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="320"/>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="320"/>
+      <c r="B1" s="335"/>
+      <c r="C1" s="335"/>
+      <c r="D1" s="335"/>
+      <c r="E1" s="335"/>
+      <c r="F1" s="335"/>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
       <c r="I1" s="85"/>
@@ -13331,9 +13444,8 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:17" s="4" customFormat="1" ht="17" thickBot="1">
+    </row>
+    <row r="3" spans="1:17" s="4" customFormat="1" ht="18" thickBot="1">
       <c r="A3" s="97" t="s">
         <v>337</v>
       </c>
@@ -13379,7 +13491,7 @@
       <c r="O3" s="97" t="s">
         <v>380</v>
       </c>
-      <c r="P3" s="97" t="s">
+      <c r="P3" s="340" t="s">
         <v>343</v>
       </c>
       <c r="Q3" s="97" t="s">
@@ -13427,13 +13539,13 @@
         <v>258</v>
       </c>
       <c r="N4" s="133" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="O4" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="P4" s="133" t="s">
-        <v>488</v>
+      <c r="P4" s="4" t="s">
+        <v>568</v>
       </c>
       <c r="Q4" s="4" t="s">
         <v>390</v>
@@ -13485,8 +13597,8 @@
       <c r="O5" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="P5" s="124" t="s">
-        <v>472</v>
+      <c r="P5" s="4" t="s">
+        <v>569</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>391</v>
@@ -13505,8 +13617,8 @@
       <c r="D6" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="327" t="s">
-        <v>573</v>
+      <c r="E6" s="250" t="s">
+        <v>567</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>267</v>
@@ -13532,7 +13644,7 @@
       <c r="O6" s="14" t="s">
         <v>268</v>
       </c>
-      <c r="P6" s="14" t="s">
+      <c r="P6" s="4" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13572,8 +13684,8 @@
         <v>277</v>
       </c>
       <c r="O7" s="14"/>
-      <c r="P7" s="184" t="s">
-        <v>527</v>
+      <c r="P7" s="4" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="4" customFormat="1" ht="16">
@@ -13612,7 +13724,7 @@
         <v>285</v>
       </c>
       <c r="O8" s="14"/>
-      <c r="P8" s="14" t="s">
+      <c r="P8" s="4" t="s">
         <v>295</v>
       </c>
     </row>
@@ -13645,10 +13757,10 @@
         <v>378</v>
       </c>
       <c r="N9" s="184" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O9" s="14"/>
-      <c r="P9" s="14" t="s">
+      <c r="P9" s="4" t="s">
         <v>300</v>
       </c>
     </row>
@@ -13682,8 +13794,8 @@
         <v>294</v>
       </c>
       <c r="O10" s="14"/>
-      <c r="P10" s="160" t="s">
-        <v>519</v>
+      <c r="P10" s="4" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="16">
@@ -13714,7 +13826,7 @@
         <v>295</v>
       </c>
       <c r="O11" s="14"/>
-      <c r="P11" s="14" t="s">
+      <c r="P11" s="4" t="s">
         <v>303</v>
       </c>
     </row>
@@ -13742,7 +13854,7 @@
         <v>468</v>
       </c>
       <c r="O12" s="14"/>
-      <c r="P12" s="14" t="s">
+      <c r="P12" s="4" t="s">
         <v>305</v>
       </c>
     </row>
@@ -13770,7 +13882,7 @@
         <v>469</v>
       </c>
       <c r="O13" s="14"/>
-      <c r="P13" s="14" t="s">
+      <c r="P13" s="4" t="s">
         <v>307</v>
       </c>
     </row>
@@ -13798,8 +13910,8 @@
         <v>300</v>
       </c>
       <c r="O14" s="14"/>
-      <c r="P14" s="157" t="s">
-        <v>511</v>
+      <c r="P14" s="4" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="4" customFormat="1" ht="16">
@@ -13823,10 +13935,10 @@
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
       <c r="N15" s="160" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="O15" s="14"/>
-      <c r="P15" s="14" t="s">
+      <c r="P15" s="4" t="s">
         <v>309</v>
       </c>
     </row>
@@ -13851,14 +13963,14 @@
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
       <c r="N16" s="160" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="O16" s="14"/>
-      <c r="P16" s="14" t="s">
+      <c r="P16" s="4" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="4" customFormat="1" ht="16">
+    <row r="17" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A17" s="14" t="s">
         <v>313</v>
       </c>
@@ -13879,12 +13991,11 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="160" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="18" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A18" s="14" t="s">
         <v>314</v>
       </c>
@@ -13905,12 +14016,11 @@
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="160" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-    </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="19" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A19" s="14" t="s">
         <v>316</v>
       </c>
@@ -13931,12 +14041,11 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="160" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-    </row>
-    <row r="20" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="20" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A20" s="14" t="s">
         <v>317</v>
       </c>
@@ -13960,9 +14069,8 @@
         <v>303</v>
       </c>
       <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="21" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A21" s="14" t="s">
         <v>319</v>
       </c>
@@ -13983,12 +14091,11 @@
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
       <c r="N21" s="134" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-    </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="22" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A22" s="14" t="s">
         <v>320</v>
       </c>
@@ -14009,12 +14116,11 @@
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
       <c r="N22" s="160" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-    </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="23" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A23" s="14" t="s">
         <v>322</v>
       </c>
@@ -14038,9 +14144,8 @@
         <v>470</v>
       </c>
       <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-    </row>
-    <row r="24" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="24" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -14062,9 +14167,8 @@
         <v>471</v>
       </c>
       <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-    </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -14086,9 +14190,8 @@
         <v>305</v>
       </c>
       <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-    </row>
-    <row r="26" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="26" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
@@ -14110,9 +14213,8 @@
         <v>307</v>
       </c>
       <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-    </row>
-    <row r="27" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="27" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -14129,12 +14231,11 @@
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="157" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-    </row>
-    <row r="28" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="28" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -14154,9 +14255,8 @@
         <v>309</v>
       </c>
       <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-    </row>
-    <row r="29" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="29" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -14174,9 +14274,8 @@
       <c r="M29" s="14"/>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-    </row>
-    <row r="30" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="30" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -14194,9 +14293,8 @@
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-    </row>
-    <row r="31" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="31" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -14214,9 +14312,8 @@
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-    </row>
-    <row r="32" spans="1:16" s="4" customFormat="1" ht="16">
+    </row>
+    <row r="32" spans="1:15" s="4" customFormat="1" ht="16">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="8"/>
@@ -14234,9 +14331,8 @@
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-    </row>
-    <row r="33" spans="1:16">
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="8"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -14252,9 +14348,8 @@
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-    </row>
-    <row r="34" spans="1:16">
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -14270,9 +14365,8 @@
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
-      <c r="P34" s="8"/>
-    </row>
-    <row r="35" spans="1:16">
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="D35" s="8"/>
@@ -14286,10 +14380,9 @@
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
-      <c r="P35" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="p5QUbjZj5xjBVK08UhzK4mwiErDxw042rWY6ocJPCiiOzNEJKvlq6LrhDAyJIktzodYcHLHycD8i0g2f6NVDoA==" saltValue="7MVvBojdBWjd2vALha62mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kUvnHNSjH9tt+By9PusobQcXes5LZQS2L+shnoiWBWG6y4kxNiBeeUfg6bb19ei/SOlZMCJuuehZ2xZ7/oc33w==" saltValue="Zdcd69bnG7REagFsonedew==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
@@ -14322,30 +14415,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="282" t="s">
         <v>354</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="269"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="283"/>
     </row>
     <row r="2" spans="1:9" ht="47" customHeight="1">
-      <c r="A2" s="266" t="s">
-        <v>569</v>
-      </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="267"/>
+      <c r="A2" s="280" t="s">
+        <v>563</v>
+      </c>
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
+      <c r="H2" s="284"/>
+      <c r="I2" s="281"/>
     </row>
     <row r="3" spans="1:9" ht="17" customHeight="1">
       <c r="A3" s="16"/>
@@ -14386,7 +14479,7 @@
     </row>
     <row r="6" spans="1:9" ht="17" customHeight="1">
       <c r="A6" s="149" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B6" s="62"/>
       <c r="C6" s="62"/>
@@ -14623,29 +14716,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31">
-      <c r="A1" s="271" t="s">
+      <c r="A1" s="285" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="272"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="286"/>
     </row>
     <row r="2" spans="1:3" ht="28" customHeight="1">
-      <c r="A2" s="273" t="s">
+      <c r="A2" s="287" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="274"/>
+      <c r="B2" s="287"/>
+      <c r="C2" s="288"/>
     </row>
     <row r="3" spans="1:3" ht="47" customHeight="1">
-      <c r="A3" s="266" t="s">
-        <v>570</v>
-      </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="267"/>
+      <c r="A3" s="280" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" s="284"/>
+      <c r="C3" s="281"/>
     </row>
     <row r="4" spans="1:3" ht="16">
       <c r="B4" s="167" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="34">
@@ -14663,7 +14756,7 @@
       </c>
       <c r="B6" s="161"/>
       <c r="C6" s="188" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="7" spans="1:3" customFormat="1" ht="17">
@@ -14677,13 +14770,13 @@
     </row>
     <row r="8" spans="1:3" ht="17">
       <c r="A8" s="214" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B8" s="215">
         <v>9606</v>
       </c>
       <c r="C8" s="216" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="34">
@@ -14710,7 +14803,7 @@
       </c>
       <c r="B11" s="163"/>
       <c r="C11" s="191" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17">
@@ -14737,7 +14830,7 @@
       </c>
       <c r="B14" s="162"/>
       <c r="C14" s="194" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="85">
@@ -14746,7 +14839,7 @@
       </c>
       <c r="B15" s="164"/>
       <c r="C15" s="195" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="34">
@@ -14773,7 +14866,7 @@
       </c>
       <c r="B18" s="165"/>
       <c r="C18" s="191" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16">
@@ -14816,22 +14909,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="282" t="s">
         <v>357</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="269"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="283"/>
     </row>
     <row r="2" spans="1:4" ht="28" customHeight="1">
-      <c r="A2" s="275" t="s">
-        <v>524</v>
-      </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="276"/>
+      <c r="A2" s="289" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2" s="289"/>
+      <c r="C2" s="290"/>
     </row>
     <row r="3" spans="1:4" ht="29" customHeight="1">
       <c r="B3" s="102" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C3" s="51"/>
     </row>
@@ -14845,8 +14938,8 @@
       <c r="C4" s="94" t="s">
         <v>328</v>
       </c>
-      <c r="D4" s="277" t="s">
-        <v>567</v>
+      <c r="D4" s="291" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17">
@@ -14857,19 +14950,19 @@
       <c r="C5" s="94" t="s">
         <v>333</v>
       </c>
-      <c r="D5" s="278"/>
+      <c r="D5" s="292"/>
     </row>
     <row r="6" spans="1:4" ht="17">
       <c r="A6" s="217" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B6" s="215">
         <v>9606</v>
       </c>
       <c r="C6" s="216" t="s">
-        <v>533</v>
-      </c>
-      <c r="D6" s="278"/>
+        <v>532</v>
+      </c>
+      <c r="D6" s="292"/>
     </row>
     <row r="7" spans="1:4" ht="34">
       <c r="A7" s="11" t="s">
@@ -14877,9 +14970,9 @@
       </c>
       <c r="B7" s="122"/>
       <c r="C7" s="146" t="s">
-        <v>501</v>
-      </c>
-      <c r="D7" s="278"/>
+        <v>500</v>
+      </c>
+      <c r="D7" s="292"/>
     </row>
     <row r="8" spans="1:4" ht="17">
       <c r="A8" s="11" t="s">
@@ -14889,7 +14982,7 @@
       <c r="C8" s="94" t="s">
         <v>348</v>
       </c>
-      <c r="D8" s="278"/>
+      <c r="D8" s="292"/>
     </row>
     <row r="9" spans="1:4" ht="17">
       <c r="A9" s="83" t="s">
@@ -14899,7 +14992,7 @@
       <c r="C9" s="94" t="s">
         <v>335</v>
       </c>
-      <c r="D9" s="278"/>
+      <c r="D9" s="292"/>
     </row>
     <row r="10" spans="1:4" ht="85">
       <c r="A10" s="83" t="s">
@@ -14907,9 +15000,9 @@
       </c>
       <c r="B10" s="121"/>
       <c r="C10" s="146" t="s">
-        <v>502</v>
-      </c>
-      <c r="D10" s="278"/>
+        <v>501</v>
+      </c>
+      <c r="D10" s="292"/>
     </row>
     <row r="11" spans="1:4" ht="51">
       <c r="A11" s="83" t="s">
@@ -14919,7 +15012,7 @@
       <c r="C11" s="94" t="s">
         <v>349</v>
       </c>
-      <c r="D11" s="278"/>
+      <c r="D11" s="292"/>
     </row>
     <row r="12" spans="1:4" ht="17">
       <c r="A12" s="83" t="s">
@@ -14929,13 +15022,13 @@
       <c r="C12" s="94" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="278"/>
+      <c r="D12" s="292"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="185"/>
       <c r="B13" s="185"/>
       <c r="C13" s="186"/>
-      <c r="D13" s="279"/>
+      <c r="D13" s="293"/>
     </row>
     <row r="14" spans="1:4">
       <c r="C14" s="51"/>
@@ -14992,17 +15085,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="31">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="282" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="268"/>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -15014,17 +15107,17 @@
       <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="29" customHeight="1">
-      <c r="A2" s="275" t="s">
-        <v>475</v>
-      </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
+      <c r="A2" s="289" t="s">
+        <v>474</v>
+      </c>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
       <c r="J2" s="53"/>
       <c r="K2" s="53"/>
       <c r="L2" s="53"/>
@@ -15036,30 +15129,30 @@
       <c r="R2" s="61"/>
     </row>
     <row r="3" spans="1:18" s="103" customFormat="1" ht="33" customHeight="1">
-      <c r="A3" s="283" t="s">
+      <c r="A3" s="297" t="s">
         <v>418</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="284"/>
-      <c r="F3" s="280" t="s">
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="294" t="s">
         <v>419</v>
       </c>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="285" t="s">
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="296"/>
+      <c r="J3" s="299" t="s">
         <v>420</v>
       </c>
-      <c r="K3" s="285"/>
-      <c r="L3" s="285"/>
-      <c r="M3" s="285"/>
-      <c r="N3" s="285"/>
-      <c r="O3" s="285"/>
-      <c r="P3" s="285"/>
-      <c r="Q3" s="285"/>
-      <c r="R3" s="285"/>
+      <c r="K3" s="299"/>
+      <c r="L3" s="299"/>
+      <c r="M3" s="299"/>
+      <c r="N3" s="299"/>
+      <c r="O3" s="299"/>
+      <c r="P3" s="299"/>
+      <c r="Q3" s="299"/>
+      <c r="R3" s="299"/>
     </row>
     <row r="4" spans="1:18" ht="16" customHeight="1">
       <c r="A4" s="50" t="s">
@@ -15072,7 +15165,7 @@
         <v>231</v>
       </c>
       <c r="D4" s="218" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E4" s="156" t="s">
         <v>34</v>
@@ -17217,7 +17310,7 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="J3:R3"/>
   </mergeCells>
-  <phoneticPr fontId="33" type="noConversion"/>
+  <phoneticPr fontId="35" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J5:J103" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>CollectionCV</formula1>
@@ -17252,16 +17345,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="288" t="s">
+      <c r="A1" s="302" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="289"/>
+      <c r="B1" s="303"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="286" t="s">
-        <v>528</v>
-      </c>
-      <c r="B2" s="287"/>
+      <c r="A2" s="300" t="s">
+        <v>527</v>
+      </c>
+      <c r="B2" s="301"/>
     </row>
     <row r="3" spans="1:2" ht="34">
       <c r="A3" s="147" t="s">
@@ -17276,7 +17369,7 @@
         <v>422</v>
       </c>
       <c r="B4" s="197" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="51">
@@ -17289,10 +17382,10 @@
     </row>
     <row r="6" spans="1:2" ht="18" customHeight="1">
       <c r="A6" s="173" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B6" s="227" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" customHeight="1">
@@ -17308,7 +17401,7 @@
         <v>227</v>
       </c>
       <c r="B8" s="199" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="51">
@@ -17316,7 +17409,7 @@
         <v>228</v>
       </c>
       <c r="B9" s="197" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="34">
@@ -17324,7 +17417,7 @@
         <v>229</v>
       </c>
       <c r="B10" s="197" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="34">
@@ -17332,7 +17425,7 @@
         <v>230</v>
       </c>
       <c r="B11" s="197" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18" customHeight="1">
@@ -17340,7 +17433,7 @@
         <v>232</v>
       </c>
       <c r="B12" s="199" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="85">
@@ -17348,7 +17441,7 @@
         <v>233</v>
       </c>
       <c r="B13" s="199" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="34">
@@ -17356,7 +17449,7 @@
         <v>234</v>
       </c>
       <c r="B14" s="199" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34">
@@ -17364,7 +17457,7 @@
         <v>235</v>
       </c>
       <c r="B15" s="199" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18" customHeight="1">
@@ -17388,7 +17481,7 @@
         <v>238</v>
       </c>
       <c r="B18" s="197" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18" customHeight="1">
@@ -17461,17 +17554,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="9" customFormat="1" ht="37" customHeight="1">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="304" t="s">
         <v>352</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
       <c r="J1" s="70"/>
       <c r="K1" s="70"/>
       <c r="L1" s="70"/>
@@ -17485,17 +17578,17 @@
       <c r="T1" s="71"/>
     </row>
     <row r="2" spans="1:20" s="15" customFormat="1" ht="32" customHeight="1">
-      <c r="A2" s="291" t="s">
-        <v>508</v>
-      </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
+      <c r="A2" s="305" t="s">
+        <v>507</v>
+      </c>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="305"/>
+      <c r="I2" s="305"/>
       <c r="J2" s="55"/>
       <c r="K2" s="55"/>
       <c r="L2" s="55"/>
@@ -17567,7 +17660,7 @@
         <v>78</v>
       </c>
       <c r="T3" s="59" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="16" customHeight="1">
@@ -18776,16 +18869,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="31">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="304" t="s">
         <v>404</v>
       </c>
-      <c r="B1" s="293"/>
+      <c r="B1" s="307"/>
     </row>
     <row r="2" spans="1:2" ht="25" customHeight="1">
-      <c r="A2" s="286" t="s">
-        <v>504</v>
-      </c>
-      <c r="B2" s="292"/>
+      <c r="A2" s="300" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="306"/>
     </row>
     <row r="3" spans="1:2" ht="18" customHeight="1">
       <c r="A3" s="147" t="s">
@@ -18941,10 +19034,10 @@
     </row>
     <row r="22" spans="1:2" ht="34">
       <c r="A22" s="138" t="s">
+        <v>472</v>
+      </c>
+      <c r="B22" s="198" t="s">
         <v>473</v>
-      </c>
-      <c r="B22" s="198" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="45" customHeight="1">
@@ -19321,23 +19414,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="35">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="308" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="308"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
@@ -19360,23 +19453,23 @@
       <c r="AI1" s="56"/>
     </row>
     <row r="2" spans="1:35" ht="28" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="289" t="s">
         <v>462</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
+      <c r="B2" s="289"/>
+      <c r="C2" s="289"/>
+      <c r="D2" s="289"/>
+      <c r="E2" s="289"/>
+      <c r="F2" s="289"/>
+      <c r="G2" s="289"/>
+      <c r="H2" s="289"/>
+      <c r="I2" s="289"/>
+      <c r="J2" s="289"/>
+      <c r="K2" s="289"/>
+      <c r="L2" s="289"/>
+      <c r="M2" s="289"/>
+      <c r="N2" s="289"/>
+      <c r="O2" s="289"/>
       <c r="P2" s="55"/>
       <c r="Q2" s="55"/>
       <c r="R2" s="55"/>
@@ -19399,64 +19492,64 @@
       <c r="AI2" s="57"/>
     </row>
     <row r="3" spans="1:35" s="166" customFormat="1" ht="47" customHeight="1">
-      <c r="A3" s="266" t="s">
-        <v>570</v>
-      </c>
-      <c r="B3" s="270"/>
-      <c r="C3" s="270"/>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-      <c r="I3" s="270"/>
-      <c r="J3" s="270"/>
-      <c r="K3" s="267"/>
+      <c r="A3" s="280" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" s="284"/>
+      <c r="C3" s="284"/>
+      <c r="D3" s="284"/>
+      <c r="E3" s="284"/>
+      <c r="F3" s="284"/>
+      <c r="G3" s="284"/>
+      <c r="H3" s="284"/>
+      <c r="I3" s="284"/>
+      <c r="J3" s="284"/>
+      <c r="K3" s="281"/>
     </row>
     <row r="4" spans="1:35" s="103" customFormat="1" ht="33" customHeight="1">
-      <c r="A4" s="295" t="s">
-        <v>526</v>
-      </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="280" t="s">
+      <c r="A4" s="309" t="s">
+        <v>525</v>
+      </c>
+      <c r="B4" s="297"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="294" t="s">
         <v>350</v>
       </c>
-      <c r="G4" s="281"/>
-      <c r="H4" s="281"/>
-      <c r="I4" s="281"/>
-      <c r="J4" s="281"/>
-      <c r="K4" s="281"/>
-      <c r="L4" s="281"/>
-      <c r="M4" s="281"/>
-      <c r="N4" s="281"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="280" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q4" s="281"/>
-      <c r="R4" s="281"/>
-      <c r="S4" s="281"/>
-      <c r="T4" s="281"/>
-      <c r="U4" s="281"/>
-      <c r="V4" s="281"/>
-      <c r="W4" s="281"/>
-      <c r="X4" s="281"/>
-      <c r="Y4" s="282"/>
-      <c r="Z4" s="296" t="s">
+      <c r="G4" s="295"/>
+      <c r="H4" s="295"/>
+      <c r="I4" s="295"/>
+      <c r="J4" s="295"/>
+      <c r="K4" s="295"/>
+      <c r="L4" s="295"/>
+      <c r="M4" s="295"/>
+      <c r="N4" s="295"/>
+      <c r="O4" s="296"/>
+      <c r="P4" s="294" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q4" s="295"/>
+      <c r="R4" s="295"/>
+      <c r="S4" s="295"/>
+      <c r="T4" s="295"/>
+      <c r="U4" s="295"/>
+      <c r="V4" s="295"/>
+      <c r="W4" s="295"/>
+      <c r="X4" s="295"/>
+      <c r="Y4" s="296"/>
+      <c r="Z4" s="310" t="s">
         <v>431</v>
       </c>
-      <c r="AA4" s="297"/>
-      <c r="AB4" s="297"/>
-      <c r="AC4" s="297"/>
-      <c r="AD4" s="297"/>
-      <c r="AE4" s="297"/>
-      <c r="AF4" s="297"/>
-      <c r="AG4" s="297"/>
-      <c r="AH4" s="297"/>
-      <c r="AI4" s="298"/>
+      <c r="AA4" s="311"/>
+      <c r="AB4" s="311"/>
+      <c r="AC4" s="311"/>
+      <c r="AD4" s="311"/>
+      <c r="AE4" s="311"/>
+      <c r="AF4" s="311"/>
+      <c r="AG4" s="311"/>
+      <c r="AH4" s="311"/>
+      <c r="AI4" s="312"/>
     </row>
     <row r="5" spans="1:35" ht="16" customHeight="1">
       <c r="A5" s="50" t="s">
@@ -19562,7 +19655,7 @@
         <v>438</v>
       </c>
       <c r="AI5" s="142" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="13" customHeight="1">
